--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -591,20 +591,14 @@
         <v>27.69999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>28.2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -632,20 +626,14 @@
         <v>27.69999999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>28</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -673,20 +661,14 @@
         <v>27.93333333333332</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -714,20 +696,14 @@
         <v>28.03333333333332</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -755,20 +731,14 @@
         <v>28.06666666666665</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>28.1</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -796,20 +766,14 @@
         <v>28.09999999999999</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>28</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -837,20 +801,14 @@
         <v>28.03333333333332</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -878,20 +836,14 @@
         <v>28.03333333333332</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>27.7</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -919,20 +871,14 @@
         <v>28.13333333333333</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>28</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -966,14 +912,12 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>28.7</v>
+      </c>
+      <c r="K15" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1007,12 +951,14 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K16" t="inlineStr"/>
+        <v>28.8</v>
+      </c>
+      <c r="K16" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -1048,9 +994,11 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K17" t="inlineStr"/>
+        <v>28.6</v>
+      </c>
+      <c r="K17" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1083,15 +1031,15 @@
         <v>28.13333333333332</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1124,15 +1072,15 @@
         <v>28.06666666666665</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1165,15 +1113,15 @@
         <v>28.36666666666666</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1206,15 +1154,15 @@
         <v>28.49999999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1247,15 +1195,15 @@
         <v>28.66666666666666</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1288,15 +1236,15 @@
         <v>28.83333333333333</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1329,15 +1277,15 @@
         <v>28.69999999999999</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1376,7 +1324,9 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1415,7 +1365,9 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1448,15 +1400,15 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1489,15 +1441,15 @@
         <v>27.76666666666666</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>28</v>
-      </c>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1530,15 +1482,15 @@
         <v>27.86666666666666</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1571,15 +1523,15 @@
         <v>27.99999999999999</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>28</v>
-      </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1612,15 +1564,15 @@
         <v>27.86666666666666</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1653,15 +1605,15 @@
         <v>27.83333333333333</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1694,15 +1646,15 @@
         <v>27.79999999999999</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1735,15 +1687,15 @@
         <v>28.16666666666666</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1776,15 +1728,15 @@
         <v>28.69999999999999</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1817,15 +1769,15 @@
         <v>29.06666666666665</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1864,7 +1816,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1903,7 +1857,9 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1942,7 +1898,9 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1981,7 +1939,9 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L40" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2020,7 +1980,9 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L41" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2059,7 +2021,9 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L42" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2098,7 +2062,9 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L43" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2137,7 +2103,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2176,7 +2144,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2215,7 +2185,9 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2254,7 +2226,9 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2293,7 +2267,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2332,7 +2308,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2371,7 +2349,9 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2410,7 +2390,9 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2449,7 +2431,9 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2488,7 +2472,9 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2527,7 +2513,9 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2566,7 +2554,9 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2605,7 +2595,9 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2644,7 +2636,9 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,7 +2677,9 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2722,7 +2718,9 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2761,7 +2759,9 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2800,7 +2800,9 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2839,7 +2841,9 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2878,7 +2882,9 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2917,7 +2923,9 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2956,7 +2964,9 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2995,7 +3005,9 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3034,7 +3046,9 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3073,7 +3087,9 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3112,7 +3128,9 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3151,7 +3169,9 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3190,7 +3210,9 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3229,7 +3251,9 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3268,7 +3292,9 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3307,7 +3333,9 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3346,7 +3374,9 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3385,7 +3415,9 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3418,15 +3450,15 @@
         <v>27.89999999999999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>28</v>
-      </c>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3459,15 +3491,15 @@
         <v>28.03333333333333</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3500,15 +3532,15 @@
         <v>28.13333333333333</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3541,15 +3573,15 @@
         <v>28.26666666666666</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3582,15 +3614,15 @@
         <v>28.33333333333333</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3623,15 +3655,15 @@
         <v>28.36666666666666</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3664,15 +3696,15 @@
         <v>28.33333333333333</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3705,15 +3737,15 @@
         <v>28.23333333333332</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>28</v>
-      </c>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3746,15 +3778,15 @@
         <v>28.16666666666666</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3787,15 +3819,15 @@
         <v>28.16666666666666</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3828,15 +3860,15 @@
         <v>28.26666666666666</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3869,15 +3901,15 @@
         <v>28.33333333333332</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3910,15 +3942,15 @@
         <v>28.36666666666665</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3951,15 +3983,15 @@
         <v>28.29999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3992,15 +4024,15 @@
         <v>28.13333333333332</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>28</v>
-      </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4033,15 +4065,15 @@
         <v>28.13333333333332</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4074,15 +4106,15 @@
         <v>28.53333333333331</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4115,15 +4147,15 @@
         <v>29.06666666666665</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>29</v>
-      </c>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4156,15 +4188,15 @@
         <v>29.19999999999998</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4203,7 +4235,9 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4242,7 +4276,9 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4281,7 +4317,9 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4320,7 +4358,9 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4359,7 +4399,9 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4398,7 +4440,9 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4437,7 +4481,9 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4476,7 +4522,9 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4515,7 +4563,9 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4554,7 +4604,9 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4593,7 +4645,9 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4632,7 +4686,9 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4671,7 +4727,9 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4710,7 +4768,9 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4749,7 +4809,9 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4788,7 +4850,9 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4824,17 +4888,19 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>28.7</v>
+      </c>
       <c r="L112" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M112" t="n">
-        <v>1</v>
+        <v>1.054233449477352</v>
       </c>
     </row>
     <row r="113">
@@ -4867,11 +4933,7 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4906,12 +4968,10 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">

--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="C2" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="D2" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="E2" t="n">
-        <v>27.8</v>
+        <v>28.3</v>
       </c>
       <c r="F2" t="n">
-        <v>213820.8307</v>
+        <v>13000</v>
       </c>
       <c r="G2" t="n">
-        <v>28.5</v>
+        <v>28.54166666666665</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -468,32 +468,38 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="C3" t="n">
-        <v>27.4</v>
+        <v>28.4</v>
       </c>
       <c r="D3" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="E3" t="n">
-        <v>27.4</v>
+        <v>27.8</v>
       </c>
       <c r="F3" t="n">
-        <v>37774.0203</v>
+        <v>213820.8307</v>
       </c>
       <c r="G3" t="n">
-        <v>28.29999999999999</v>
+        <v>28.56499999999999</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>29.1</v>
+      </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -503,32 +509,38 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
       <c r="C4" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="D4" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
       <c r="E4" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="F4" t="n">
-        <v>11493.8279</v>
+        <v>37774.0203</v>
       </c>
       <c r="G4" t="n">
-        <v>27.9</v>
+        <v>28.57166666666666</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>28.4</v>
+      </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -538,32 +550,38 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="C5" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="D5" t="n">
-        <v>28.7</v>
+        <v>28.2</v>
       </c>
       <c r="E5" t="n">
-        <v>27.6</v>
+        <v>27.9</v>
       </c>
       <c r="F5" t="n">
-        <v>2910.9425</v>
+        <v>11493.8279</v>
       </c>
       <c r="G5" t="n">
-        <v>27.63333333333333</v>
+        <v>28.57999999999999</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>27.4</v>
+      </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -573,32 +591,38 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="C6" t="n">
         <v>27.6</v>
       </c>
       <c r="D6" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="E6" t="n">
         <v>27.6</v>
       </c>
       <c r="F6" t="n">
-        <v>300.885</v>
+        <v>2910.9425</v>
       </c>
       <c r="G6" t="n">
-        <v>27.69999999999999</v>
+        <v>28.58166666666666</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>27.9</v>
+      </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -608,22 +632,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="C7" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="D7" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="E7" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="F7" t="n">
-        <v>27826.5364</v>
+        <v>300.885</v>
       </c>
       <c r="G7" t="n">
-        <v>27.69999999999999</v>
+        <v>28.59166666666665</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -633,7 +657,11 @@
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -643,10 +671,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>28</v>
+      </c>
+      <c r="C8" t="n">
         <v>27.9</v>
-      </c>
-      <c r="C8" t="n">
-        <v>28.3</v>
       </c>
       <c r="D8" t="n">
         <v>28.3</v>
@@ -655,10 +683,10 @@
         <v>27.9</v>
       </c>
       <c r="F8" t="n">
-        <v>8030</v>
+        <v>27826.5364</v>
       </c>
       <c r="G8" t="n">
-        <v>27.93333333333332</v>
+        <v>28.60499999999999</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,7 +696,11 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
@@ -678,22 +710,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C9" t="n">
         <v>28.3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>27.9</v>
       </c>
       <c r="D9" t="n">
         <v>28.3</v>
       </c>
       <c r="E9" t="n">
-        <v>27.5</v>
+        <v>27.9</v>
       </c>
       <c r="F9" t="n">
-        <v>29403.841</v>
+        <v>8030</v>
       </c>
       <c r="G9" t="n">
-        <v>28.03333333333332</v>
+        <v>28.62499999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,7 +735,11 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -713,22 +749,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="C10" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="D10" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E10" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F10" t="n">
-        <v>25427.4285</v>
+        <v>29403.841</v>
       </c>
       <c r="G10" t="n">
-        <v>28.06666666666665</v>
+        <v>28.63999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,7 +774,11 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -748,22 +788,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C11" t="n">
         <v>28</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>28.4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>28.7</v>
       </c>
       <c r="E11" t="n">
         <v>28</v>
       </c>
       <c r="F11" t="n">
-        <v>4607.6608</v>
+        <v>25427.4285</v>
       </c>
       <c r="G11" t="n">
-        <v>28.09999999999999</v>
+        <v>28.64666666666666</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,7 +813,11 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
@@ -783,22 +827,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>27.7</v>
+        <v>28.4</v>
       </c>
       <c r="D12" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="E12" t="n">
-        <v>27.7</v>
+        <v>28</v>
       </c>
       <c r="F12" t="n">
-        <v>78776.7066</v>
+        <v>4607.6608</v>
       </c>
       <c r="G12" t="n">
-        <v>28.03333333333332</v>
+        <v>28.67</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -808,7 +852,11 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -818,22 +866,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C13" t="n">
         <v>27.7</v>
       </c>
-      <c r="C13" t="n">
-        <v>28</v>
-      </c>
       <c r="D13" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E13" t="n">
-        <v>27.5</v>
+        <v>27.7</v>
       </c>
       <c r="F13" t="n">
-        <v>26181.814</v>
+        <v>78776.7066</v>
       </c>
       <c r="G13" t="n">
-        <v>28.03333333333332</v>
+        <v>28.67333333333333</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -843,7 +891,11 @@
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -853,22 +905,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C14" t="n">
         <v>28</v>
       </c>
-      <c r="C14" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D14" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F14" t="n">
-        <v>33047.7351</v>
+        <v>26181.814</v>
       </c>
       <c r="G14" t="n">
-        <v>28.13333333333333</v>
+        <v>28.69</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,7 +930,11 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -888,36 +944,36 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D15" t="n">
         <v>28.8</v>
       </c>
       <c r="E15" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="F15" t="n">
-        <v>29</v>
+        <v>33047.7351</v>
       </c>
       <c r="G15" t="n">
-        <v>28.49999999999999</v>
+        <v>28.71833333333333</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K15" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -927,38 +983,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="C16" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="D16" t="n">
-        <v>28.6</v>
+        <v>28.8</v>
       </c>
       <c r="E16" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="F16" t="n">
-        <v>16018.2638</v>
+        <v>29</v>
       </c>
       <c r="G16" t="n">
-        <v>28.69999999999999</v>
+        <v>28.74833333333333</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K16" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M16" t="n">
@@ -970,35 +1022,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>27.7</v>
+        <v>28.3</v>
       </c>
       <c r="C17" t="n">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="D17" t="n">
-        <v>27.7</v>
+        <v>28.6</v>
       </c>
       <c r="E17" t="n">
-        <v>27.5</v>
+        <v>28.2</v>
       </c>
       <c r="F17" t="n">
-        <v>106706.9358</v>
+        <v>16018.2638</v>
       </c>
       <c r="G17" t="n">
-        <v>28.29999999999999</v>
+        <v>28.76833333333333</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K17" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1013,22 +1061,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="C18" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="D18" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="E18" t="n">
-        <v>27.3</v>
+        <v>27.5</v>
       </c>
       <c r="F18" t="n">
-        <v>21332.6114</v>
+        <v>106706.9358</v>
       </c>
       <c r="G18" t="n">
-        <v>28.13333333333332</v>
+        <v>28.77666666666666</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1037,9 +1085,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1054,22 +1100,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="C19" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D19" t="n">
-        <v>28.5</v>
+        <v>28.3</v>
       </c>
       <c r="E19" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="F19" t="n">
-        <v>132077.7038</v>
+        <v>21332.6114</v>
       </c>
       <c r="G19" t="n">
-        <v>28.06666666666665</v>
+        <v>28.79833333333333</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1078,9 +1124,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1095,7 +1139,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.5</v>
+        <v>27.9</v>
       </c>
       <c r="C20" t="n">
         <v>28.4</v>
@@ -1104,13 +1148,13 @@
         <v>28.5</v>
       </c>
       <c r="E20" t="n">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="F20" t="n">
-        <v>187555.803</v>
+        <v>132077.7038</v>
       </c>
       <c r="G20" t="n">
-        <v>28.36666666666666</v>
+        <v>28.82166666666666</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1119,9 +1163,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1136,22 +1178,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C21" t="n">
         <v>28.4</v>
       </c>
-      <c r="C21" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D21" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E21" t="n">
         <v>28.4</v>
       </c>
       <c r="F21" t="n">
-        <v>35123.0591</v>
+        <v>187555.803</v>
       </c>
       <c r="G21" t="n">
-        <v>28.49999999999999</v>
+        <v>28.845</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1160,9 +1202,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1177,22 +1217,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C22" t="n">
         <v>28.7</v>
       </c>
-      <c r="C22" t="n">
-        <v>28.9</v>
-      </c>
       <c r="D22" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E22" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F22" t="n">
-        <v>309.9991</v>
+        <v>35123.0591</v>
       </c>
       <c r="G22" t="n">
-        <v>28.66666666666666</v>
+        <v>28.86666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1201,9 +1241,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1218,22 +1256,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="C23" t="n">
         <v>28.9</v>
       </c>
       <c r="D23" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="E23" t="n">
-        <v>28.9</v>
+        <v>28.7</v>
       </c>
       <c r="F23" t="n">
-        <v>18262.6193</v>
+        <v>309.9991</v>
       </c>
       <c r="G23" t="n">
-        <v>28.83333333333333</v>
+        <v>28.89333333333333</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1242,9 +1280,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1259,22 +1295,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="C24" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="D24" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="E24" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="F24" t="n">
-        <v>177106.5265</v>
+        <v>18262.6193</v>
       </c>
       <c r="G24" t="n">
-        <v>28.69999999999999</v>
+        <v>28.91666666666667</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1283,9 +1319,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,22 +1334,22 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="C25" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D25" t="n">
-        <v>28.2</v>
+        <v>28.4</v>
       </c>
       <c r="E25" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="F25" t="n">
-        <v>33355.276</v>
+        <v>177106.5265</v>
       </c>
       <c r="G25" t="n">
-        <v>28.46666666666666</v>
+        <v>28.93</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1324,9 +1358,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1341,22 +1373,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="C26" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="D26" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="E26" t="n">
-        <v>27.7</v>
+        <v>28.2</v>
       </c>
       <c r="F26" t="n">
-        <v>20721.1371</v>
+        <v>33355.276</v>
       </c>
       <c r="G26" t="n">
-        <v>28.06666666666666</v>
+        <v>28.94166666666667</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1365,9 +1397,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1382,22 +1412,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="D27" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E27" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="F27" t="n">
-        <v>39398.7</v>
+        <v>20721.1371</v>
       </c>
       <c r="G27" t="n">
-        <v>27.83333333333333</v>
+        <v>28.94</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1406,9 +1436,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1423,22 +1451,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C28" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D28" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E28" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="F28" t="n">
-        <v>3600</v>
+        <v>39398.7</v>
       </c>
       <c r="G28" t="n">
-        <v>27.76666666666666</v>
+        <v>28.93333333333333</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1447,9 +1475,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1464,22 +1490,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C29" t="n">
         <v>28</v>
       </c>
       <c r="D29" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E29" t="n">
         <v>28</v>
       </c>
       <c r="F29" t="n">
-        <v>43974.2613</v>
+        <v>3600</v>
       </c>
       <c r="G29" t="n">
-        <v>27.86666666666666</v>
+        <v>28.93166666666667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1488,9 +1514,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1505,22 +1529,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C30" t="n">
         <v>28</v>
       </c>
       <c r="D30" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E30" t="n">
         <v>28</v>
       </c>
       <c r="F30" t="n">
-        <v>962</v>
+        <v>43974.2613</v>
       </c>
       <c r="G30" t="n">
-        <v>27.99999999999999</v>
+        <v>28.92666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1529,9 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1546,22 +1568,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="C31" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E31" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F31" t="n">
-        <v>20</v>
+        <v>962</v>
       </c>
       <c r="G31" t="n">
-        <v>27.86666666666666</v>
+        <v>28.92166666666667</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1570,9 +1592,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1587,22 +1607,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C32" t="n">
         <v>27.6</v>
       </c>
-      <c r="C32" t="n">
-        <v>27.9</v>
-      </c>
       <c r="D32" t="n">
-        <v>27.9</v>
+        <v>28.2</v>
       </c>
       <c r="E32" t="n">
-        <v>27.3</v>
+        <v>27.6</v>
       </c>
       <c r="F32" t="n">
-        <v>59313.7284</v>
+        <v>20</v>
       </c>
       <c r="G32" t="n">
-        <v>27.83333333333333</v>
+        <v>28.90166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1611,9 +1631,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1628,7 +1646,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>27.9</v>
+        <v>27.6</v>
       </c>
       <c r="C33" t="n">
         <v>27.9</v>
@@ -1637,13 +1655,13 @@
         <v>27.9</v>
       </c>
       <c r="E33" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="F33" t="n">
-        <v>2307.2894</v>
+        <v>59313.7284</v>
       </c>
       <c r="G33" t="n">
-        <v>27.79999999999999</v>
+        <v>28.88</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1652,9 +1670,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1669,22 +1685,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="C34" t="n">
-        <v>28.7</v>
+        <v>27.9</v>
       </c>
       <c r="D34" t="n">
-        <v>28.7</v>
+        <v>27.9</v>
       </c>
       <c r="E34" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="F34" t="n">
-        <v>1610.439</v>
+        <v>2307.2894</v>
       </c>
       <c r="G34" t="n">
-        <v>28.16666666666666</v>
+        <v>28.85833333333334</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1693,9 +1709,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1710,22 +1724,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C35" t="n">
         <v>28.7</v>
       </c>
-      <c r="C35" t="n">
-        <v>29.5</v>
-      </c>
       <c r="D35" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="E35" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="F35" t="n">
-        <v>263847.389</v>
+        <v>1610.439</v>
       </c>
       <c r="G35" t="n">
-        <v>28.69999999999999</v>
+        <v>28.84666666666667</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1734,9 +1748,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1751,22 +1763,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C36" t="n">
         <v>29.5</v>
       </c>
-      <c r="C36" t="n">
-        <v>29</v>
-      </c>
       <c r="D36" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="E36" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F36" t="n">
-        <v>280435.4556</v>
+        <v>263847.389</v>
       </c>
       <c r="G36" t="n">
-        <v>29.06666666666665</v>
+        <v>28.805</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1775,9 +1787,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1792,22 +1802,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C37" t="n">
         <v>29</v>
       </c>
-      <c r="C37" t="n">
-        <v>29.9</v>
-      </c>
       <c r="D37" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E37" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F37" t="n">
-        <v>74547.16099999999</v>
+        <v>280435.4556</v>
       </c>
       <c r="G37" t="n">
-        <v>29.46666666666665</v>
+        <v>28.79500000000001</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1816,9 +1826,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1833,22 +1841,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
+        <v>29</v>
+      </c>
+      <c r="C38" t="n">
         <v>29.9</v>
       </c>
-      <c r="C38" t="n">
-        <v>30</v>
-      </c>
       <c r="D38" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="E38" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="F38" t="n">
-        <v>279007.4233</v>
+        <v>74547.16099999999</v>
       </c>
       <c r="G38" t="n">
-        <v>29.63333333333332</v>
+        <v>28.77166666666667</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1857,9 +1865,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1874,7 +1880,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="C39" t="n">
         <v>30</v>
@@ -1883,13 +1889,13 @@
         <v>30</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>29.9</v>
       </c>
       <c r="F39" t="n">
-        <v>2280.0716</v>
+        <v>279007.4233</v>
       </c>
       <c r="G39" t="n">
-        <v>29.96666666666665</v>
+        <v>28.75333333333334</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1898,9 +1904,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1924,32 +1928,28 @@
         <v>30</v>
       </c>
       <c r="E40" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F40" t="n">
-        <v>3864.0387</v>
+        <v>2280.0716</v>
       </c>
       <c r="G40" t="n">
-        <v>29.99999999999999</v>
+        <v>28.74833333333334</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1959,7 +1959,7 @@
         <v>30</v>
       </c>
       <c r="C41" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D41" t="n">
         <v>30</v>
@@ -1968,10 +1968,10 @@
         <v>29.5</v>
       </c>
       <c r="F41" t="n">
-        <v>6257.5679</v>
+        <v>3864.0387</v>
       </c>
       <c r="G41" t="n">
-        <v>29.96666666666666</v>
+        <v>28.72500000000001</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1980,14 +1980,8 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1997,22 +1991,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>30</v>
+      </c>
+      <c r="C42" t="n">
         <v>29.9</v>
-      </c>
-      <c r="C42" t="n">
-        <v>29.6</v>
       </c>
       <c r="D42" t="n">
         <v>30</v>
       </c>
       <c r="E42" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F42" t="n">
-        <v>245221.054</v>
+        <v>6257.5679</v>
       </c>
       <c r="G42" t="n">
-        <v>29.83333333333333</v>
+        <v>28.70500000000001</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -2021,14 +2015,8 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2038,22 +2026,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C43" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="D43" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="E43" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="F43" t="n">
-        <v>12658.5789</v>
+        <v>245221.054</v>
       </c>
       <c r="G43" t="n">
-        <v>29.96666666666666</v>
+        <v>28.69166666666667</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2062,14 +2050,8 @@
         <v>0</v>
       </c>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2079,7 +2061,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="C44" t="n">
         <v>30.4</v>
@@ -2088,13 +2070,13 @@
         <v>30.4</v>
       </c>
       <c r="E44" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F44" t="n">
-        <v>67979.7105</v>
+        <v>12658.5789</v>
       </c>
       <c r="G44" t="n">
-        <v>30.13333333333333</v>
+        <v>28.70666666666667</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2103,14 +2085,8 @@
         <v>0</v>
       </c>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2120,22 +2096,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C45" t="n">
-        <v>29.7</v>
+        <v>30.4</v>
       </c>
       <c r="D45" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E45" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F45" t="n">
-        <v>9052.8228</v>
+        <v>67979.7105</v>
       </c>
       <c r="G45" t="n">
-        <v>30.16666666666666</v>
+        <v>28.70666666666667</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2144,14 +2120,8 @@
         <v>0</v>
       </c>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2161,22 +2131,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="C46" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="D46" t="n">
         <v>30.3</v>
       </c>
       <c r="E46" t="n">
-        <v>30.3</v>
+        <v>29.7</v>
       </c>
       <c r="F46" t="n">
-        <v>21</v>
+        <v>9052.8228</v>
       </c>
       <c r="G46" t="n">
-        <v>30.13333333333333</v>
+        <v>28.71166666666668</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2185,14 +2155,8 @@
         <v>0</v>
       </c>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2202,22 +2166,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="C47" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="D47" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="E47" t="n">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="F47" t="n">
-        <v>123996.3585</v>
+        <v>21</v>
       </c>
       <c r="G47" t="n">
-        <v>30.13333333333333</v>
+        <v>28.74166666666667</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2226,14 +2190,8 @@
         <v>0</v>
       </c>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2243,22 +2201,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C48" t="n">
         <v>30.4</v>
-      </c>
-      <c r="C48" t="n">
-        <v>30.2</v>
       </c>
       <c r="D48" t="n">
         <v>30.4</v>
       </c>
       <c r="E48" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="F48" t="n">
-        <v>24083.7828</v>
+        <v>123996.3585</v>
       </c>
       <c r="G48" t="n">
-        <v>30.29999999999999</v>
+        <v>28.76500000000001</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2267,14 +2225,8 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2284,22 +2236,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="C49" t="n">
-        <v>28.9</v>
+        <v>30.2</v>
       </c>
       <c r="D49" t="n">
-        <v>29.6</v>
+        <v>30.4</v>
       </c>
       <c r="E49" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="F49" t="n">
-        <v>279278.3167</v>
+        <v>24083.7828</v>
       </c>
       <c r="G49" t="n">
-        <v>29.83333333333333</v>
+        <v>28.79166666666668</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2308,14 +2260,8 @@
         <v>0</v>
       </c>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2325,22 +2271,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="C50" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D50" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="E50" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="F50" t="n">
-        <v>11502.8172</v>
+        <v>279278.3167</v>
       </c>
       <c r="G50" t="n">
-        <v>29.46666666666666</v>
+        <v>28.79500000000001</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2349,14 +2295,8 @@
         <v>0</v>
       </c>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2366,22 +2306,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C51" t="n">
         <v>29.3</v>
       </c>
-      <c r="C51" t="n">
-        <v>29.8</v>
-      </c>
       <c r="D51" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="E51" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F51" t="n">
-        <v>29336.1881</v>
+        <v>11502.8172</v>
       </c>
       <c r="G51" t="n">
-        <v>29.33333333333333</v>
+        <v>28.79666666666668</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2390,14 +2330,8 @@
         <v>0</v>
       </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2407,22 +2341,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="C52" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D52" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E52" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F52" t="n">
-        <v>1710.2305</v>
+        <v>29336.1881</v>
       </c>
       <c r="G52" t="n">
-        <v>29.53333333333332</v>
+        <v>28.80166666666668</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2431,14 +2365,8 @@
         <v>0</v>
       </c>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2454,16 +2382,16 @@
         <v>29.5</v>
       </c>
       <c r="D53" t="n">
-        <v>30.1</v>
+        <v>29.5</v>
       </c>
       <c r="E53" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F53" t="n">
-        <v>2310</v>
+        <v>1710.2305</v>
       </c>
       <c r="G53" t="n">
-        <v>29.59999999999999</v>
+        <v>28.79833333333334</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2472,14 +2400,8 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2489,22 +2411,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="C54" t="n">
         <v>29.5</v>
       </c>
       <c r="D54" t="n">
-        <v>29.8</v>
+        <v>30.1</v>
       </c>
       <c r="E54" t="n">
         <v>29.5</v>
       </c>
       <c r="F54" t="n">
-        <v>7707.5975</v>
+        <v>2310</v>
       </c>
       <c r="G54" t="n">
-        <v>29.49999999999999</v>
+        <v>28.79500000000001</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2513,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2530,10 +2446,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C55" t="n">
         <v>29.5</v>
-      </c>
-      <c r="C55" t="n">
-        <v>29.7</v>
       </c>
       <c r="D55" t="n">
         <v>29.8</v>
@@ -2542,10 +2458,10 @@
         <v>29.5</v>
       </c>
       <c r="F55" t="n">
-        <v>1278.0216</v>
+        <v>7707.5975</v>
       </c>
       <c r="G55" t="n">
-        <v>29.56666666666666</v>
+        <v>28.79166666666667</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2554,14 +2470,8 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2571,22 +2481,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C56" t="n">
         <v>29.7</v>
       </c>
       <c r="D56" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="E56" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F56" t="n">
-        <v>1400</v>
+        <v>1278.0216</v>
       </c>
       <c r="G56" t="n">
-        <v>29.63333333333333</v>
+        <v>28.79500000000001</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2595,14 +2505,8 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2612,22 +2516,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="C57" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D57" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E57" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F57" t="n">
-        <v>5546.2214</v>
+        <v>1400</v>
       </c>
       <c r="G57" t="n">
-        <v>29.63333333333333</v>
+        <v>28.79500000000001</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2636,14 +2540,8 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2656,19 +2554,19 @@
         <v>29.5</v>
       </c>
       <c r="C58" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D58" t="n">
         <v>29.5</v>
       </c>
       <c r="E58" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="F58" t="n">
-        <v>8283.6661</v>
+        <v>5546.2214</v>
       </c>
       <c r="G58" t="n">
-        <v>29.49999999999999</v>
+        <v>28.79500000000001</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2677,14 +2575,8 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2697,19 +2589,19 @@
         <v>29.5</v>
       </c>
       <c r="C59" t="n">
-        <v>29.7</v>
+        <v>29.3</v>
       </c>
       <c r="D59" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E59" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="F59" t="n">
-        <v>44.8989</v>
+        <v>8283.6661</v>
       </c>
       <c r="G59" t="n">
-        <v>29.49999999999999</v>
+        <v>28.79333333333334</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2718,14 +2610,8 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2738,19 +2624,19 @@
         <v>29.5</v>
       </c>
       <c r="C60" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D60" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="E60" t="n">
         <v>29.5</v>
       </c>
       <c r="F60" t="n">
-        <v>426</v>
+        <v>44.8989</v>
       </c>
       <c r="G60" t="n">
-        <v>29.49999999999999</v>
+        <v>28.81666666666667</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2759,14 +2645,8 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2785,13 +2665,13 @@
         <v>29.5</v>
       </c>
       <c r="E61" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="F61" t="n">
-        <v>75100.3272</v>
+        <v>426</v>
       </c>
       <c r="G61" t="n">
-        <v>29.56666666666666</v>
+        <v>28.84166666666668</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2800,14 +2680,8 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2817,22 +2691,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C62" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="D62" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E62" t="n">
         <v>29.1</v>
       </c>
       <c r="F62" t="n">
-        <v>13243.8292</v>
+        <v>75100.3272</v>
       </c>
       <c r="G62" t="n">
-        <v>29.36666666666666</v>
+        <v>28.84833333333334</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2841,14 +2715,8 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2861,19 +2729,19 @@
         <v>29.2</v>
       </c>
       <c r="C63" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D63" t="n">
         <v>29.2</v>
       </c>
       <c r="E63" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="F63" t="n">
-        <v>3814.6575</v>
+        <v>13243.8292</v>
       </c>
       <c r="G63" t="n">
-        <v>29.26666666666666</v>
+        <v>28.86000000000001</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2882,14 +2750,8 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2899,22 +2761,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="C64" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D64" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E64" t="n">
-        <v>29</v>
+        <v>29.2</v>
       </c>
       <c r="F64" t="n">
-        <v>104876.3599</v>
+        <v>3814.6575</v>
       </c>
       <c r="G64" t="n">
-        <v>29.13333333333333</v>
+        <v>28.89</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2923,14 +2785,8 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2940,22 +2796,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C65" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="D65" t="n">
-        <v>29.2</v>
+        <v>29.1</v>
       </c>
       <c r="E65" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F65" t="n">
-        <v>3185.2914</v>
+        <v>104876.3599</v>
       </c>
       <c r="G65" t="n">
-        <v>29.16666666666666</v>
+        <v>28.91</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2964,14 +2820,8 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2981,22 +2831,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C66" t="n">
         <v>29.2</v>
-      </c>
-      <c r="C66" t="n">
-        <v>29</v>
       </c>
       <c r="D66" t="n">
         <v>29.2</v>
       </c>
       <c r="E66" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F66" t="n">
-        <v>16790.6896</v>
+        <v>3185.2914</v>
       </c>
       <c r="G66" t="n">
-        <v>29.09999999999999</v>
+        <v>28.93666666666667</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3005,14 +2855,8 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3022,22 +2866,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C67" t="n">
         <v>29</v>
       </c>
-      <c r="C67" t="n">
-        <v>27.8</v>
-      </c>
       <c r="D67" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E67" t="n">
         <v>29</v>
       </c>
-      <c r="E67" t="n">
-        <v>27.8</v>
-      </c>
       <c r="F67" t="n">
-        <v>88670.46339999999</v>
+        <v>16790.6896</v>
       </c>
       <c r="G67" t="n">
-        <v>28.66666666666666</v>
+        <v>28.96</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3046,14 +2890,8 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3063,22 +2901,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="C68" t="n">
-        <v>28.5</v>
+        <v>27.8</v>
       </c>
       <c r="D68" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="E68" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="F68" t="n">
-        <v>25841.6325</v>
+        <v>88670.46339999999</v>
       </c>
       <c r="G68" t="n">
-        <v>28.43333333333332</v>
+        <v>28.95833333333334</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3087,14 +2925,8 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3104,22 +2936,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="C69" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D69" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="E69" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="F69" t="n">
-        <v>7982.2928</v>
+        <v>25841.6325</v>
       </c>
       <c r="G69" t="n">
-        <v>28.09999999999999</v>
+        <v>28.96166666666667</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3128,14 +2960,8 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3148,19 +2974,19 @@
         <v>28</v>
       </c>
       <c r="C70" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="E70" t="n">
         <v>28</v>
       </c>
       <c r="F70" t="n">
-        <v>143344.1649</v>
+        <v>7982.2928</v>
       </c>
       <c r="G70" t="n">
-        <v>28.19999999999999</v>
+        <v>28.96333333333333</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3169,14 +2995,8 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3186,22 +3006,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
+        <v>28</v>
+      </c>
+      <c r="C71" t="n">
         <v>28.1</v>
-      </c>
-      <c r="C71" t="n">
-        <v>28.5</v>
       </c>
       <c r="D71" t="n">
         <v>28.5</v>
       </c>
       <c r="E71" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F71" t="n">
-        <v>2966.1014</v>
+        <v>143344.1649</v>
       </c>
       <c r="G71" t="n">
-        <v>28.19999999999999</v>
+        <v>28.965</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3210,14 +3030,8 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3230,19 +3044,19 @@
         <v>28.1</v>
       </c>
       <c r="C72" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="D72" t="n">
-        <v>28.4</v>
+        <v>28.5</v>
       </c>
       <c r="E72" t="n">
         <v>28.1</v>
       </c>
       <c r="F72" t="n">
-        <v>7021.8238</v>
+        <v>2966.1014</v>
       </c>
       <c r="G72" t="n">
-        <v>28.33333333333333</v>
+        <v>28.96666666666667</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3251,14 +3065,8 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3268,7 +3076,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="C73" t="n">
         <v>28.4</v>
@@ -3277,13 +3085,13 @@
         <v>28.4</v>
       </c>
       <c r="E73" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="F73" t="n">
-        <v>20851.312</v>
+        <v>7021.8238</v>
       </c>
       <c r="G73" t="n">
-        <v>28.43333333333333</v>
+        <v>28.97833333333334</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3292,14 +3100,8 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3309,22 +3111,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="C74" t="n">
-        <v>27.8</v>
+        <v>28.4</v>
       </c>
       <c r="D74" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="E74" t="n">
-        <v>27.8</v>
+        <v>28.2</v>
       </c>
       <c r="F74" t="n">
-        <v>157292.0698</v>
+        <v>20851.312</v>
       </c>
       <c r="G74" t="n">
-        <v>28.19999999999999</v>
+        <v>28.985</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3333,14 +3135,8 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3350,22 +3146,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="C75" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="D75" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E75" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="F75" t="n">
-        <v>17699.4233</v>
+        <v>157292.0698</v>
       </c>
       <c r="G75" t="n">
-        <v>27.96666666666666</v>
+        <v>28.97</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3374,14 +3170,8 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3391,22 +3181,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="C76" t="n">
         <v>27.7</v>
       </c>
-      <c r="C76" t="n">
-        <v>28</v>
-      </c>
       <c r="D76" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="E76" t="n">
         <v>27.7</v>
       </c>
       <c r="F76" t="n">
-        <v>4795.4137</v>
+        <v>17699.4233</v>
       </c>
       <c r="G76" t="n">
-        <v>27.83333333333333</v>
+        <v>28.95166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3415,14 +3205,8 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3432,7 +3216,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C77" t="n">
         <v>28</v>
@@ -3441,13 +3225,13 @@
         <v>28</v>
       </c>
       <c r="E77" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="F77" t="n">
-        <v>2750.7427</v>
+        <v>4795.4137</v>
       </c>
       <c r="G77" t="n">
-        <v>27.89999999999999</v>
+        <v>28.94166666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3456,14 +3240,8 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3473,22 +3251,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E78" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F78" t="n">
-        <v>36194.2348</v>
+        <v>2750.7427</v>
       </c>
       <c r="G78" t="n">
-        <v>28.03333333333333</v>
+        <v>28.95</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3497,14 +3275,8 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3514,22 +3286,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="C79" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="D79" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="E79" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="F79" t="n">
-        <v>432</v>
+        <v>36194.2348</v>
       </c>
       <c r="G79" t="n">
-        <v>28.13333333333333</v>
+        <v>28.94666666666667</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3538,14 +3310,8 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3555,22 +3321,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C80" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D80" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E80" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F80" t="n">
-        <v>10</v>
+        <v>432</v>
       </c>
       <c r="G80" t="n">
-        <v>28.26666666666666</v>
+        <v>28.945</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3579,14 +3345,8 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3596,22 +3356,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="C81" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D81" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="E81" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F81" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G81" t="n">
-        <v>28.33333333333333</v>
+        <v>28.945</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3620,14 +3380,8 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3640,19 +3394,19 @@
         <v>28.3</v>
       </c>
       <c r="C82" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D82" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E82" t="n">
         <v>28.3</v>
       </c>
       <c r="F82" t="n">
-        <v>870.5133</v>
+        <v>12</v>
       </c>
       <c r="G82" t="n">
-        <v>28.36666666666666</v>
+        <v>28.93833333333333</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3661,14 +3415,8 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3681,19 +3429,19 @@
         <v>28.3</v>
       </c>
       <c r="C83" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D83" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="E83" t="n">
         <v>28.3</v>
       </c>
       <c r="F83" t="n">
-        <v>27.4867</v>
+        <v>870.5133</v>
       </c>
       <c r="G83" t="n">
-        <v>28.33333333333333</v>
+        <v>28.93</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3702,14 +3450,8 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3719,22 +3461,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="C84" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="D84" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="E84" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F84" t="n">
-        <v>6257.25</v>
+        <v>27.4867</v>
       </c>
       <c r="G84" t="n">
-        <v>28.23333333333332</v>
+        <v>28.92</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3743,14 +3485,8 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3760,22 +3496,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C85" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="D85" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="E85" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="F85" t="n">
-        <v>11250.6029</v>
+        <v>6257.25</v>
       </c>
       <c r="G85" t="n">
-        <v>28.16666666666666</v>
+        <v>28.915</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3784,14 +3520,8 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3801,22 +3531,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="C86" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="D86" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="E86" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="F86" t="n">
-        <v>2068.2633</v>
+        <v>11250.6029</v>
       </c>
       <c r="G86" t="n">
-        <v>28.16666666666666</v>
+        <v>28.915</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3825,14 +3555,8 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3854,10 +3578,10 @@
         <v>28.3</v>
       </c>
       <c r="F87" t="n">
-        <v>4092.0193</v>
+        <v>2068.2633</v>
       </c>
       <c r="G87" t="n">
-        <v>28.26666666666666</v>
+        <v>28.925</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3866,14 +3590,8 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3886,19 +3604,19 @@
         <v>28.3</v>
       </c>
       <c r="C88" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D88" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E88" t="n">
         <v>28.3</v>
       </c>
       <c r="F88" t="n">
-        <v>13342.5464</v>
+        <v>4092.0193</v>
       </c>
       <c r="G88" t="n">
-        <v>28.33333333333332</v>
+        <v>28.93666666666666</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3907,14 +3625,8 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3924,7 +3636,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C89" t="n">
         <v>28.4</v>
@@ -3933,13 +3645,13 @@
         <v>28.4</v>
       </c>
       <c r="E89" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="F89" t="n">
-        <v>47248.6619</v>
+        <v>13342.5464</v>
       </c>
       <c r="G89" t="n">
-        <v>28.36666666666665</v>
+        <v>28.94333333333333</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3948,14 +3660,8 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3965,22 +3671,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="C90" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="D90" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="E90" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="F90" t="n">
-        <v>271</v>
+        <v>47248.6619</v>
       </c>
       <c r="G90" t="n">
-        <v>28.29999999999999</v>
+        <v>28.95</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3989,14 +3695,8 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4006,22 +3706,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C91" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="D91" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="E91" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="F91" t="n">
-        <v>16078.7826</v>
+        <v>271</v>
       </c>
       <c r="G91" t="n">
-        <v>28.13333333333332</v>
+        <v>28.95166666666666</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4030,14 +3730,8 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4047,22 +3741,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="C92" t="n">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="D92" t="n">
-        <v>28.4</v>
+        <v>28</v>
       </c>
       <c r="E92" t="n">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="F92" t="n">
-        <v>96.1619</v>
+        <v>16078.7826</v>
       </c>
       <c r="G92" t="n">
-        <v>28.13333333333332</v>
+        <v>28.95666666666667</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4071,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4091,19 +3779,19 @@
         <v>28.4</v>
       </c>
       <c r="C93" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="D93" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="E93" t="n">
         <v>28.4</v>
       </c>
       <c r="F93" t="n">
-        <v>100449.6253</v>
+        <v>96.1619</v>
       </c>
       <c r="G93" t="n">
-        <v>28.53333333333331</v>
+        <v>28.965</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4112,14 +3800,8 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4129,22 +3811,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="C94" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="D94" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="E94" t="n">
-        <v>28.9</v>
+        <v>28.4</v>
       </c>
       <c r="F94" t="n">
-        <v>56368.6925</v>
+        <v>100449.6253</v>
       </c>
       <c r="G94" t="n">
-        <v>29.06666666666665</v>
+        <v>28.98833333333333</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4153,14 +3835,8 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4170,22 +3846,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="C95" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="D95" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="E95" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F95" t="n">
-        <v>1571.9393</v>
+        <v>56368.6925</v>
       </c>
       <c r="G95" t="n">
-        <v>29.19999999999998</v>
+        <v>29.00166666666667</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4194,14 +3870,8 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4211,22 +3881,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="D96" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="E96" t="n">
-        <v>29</v>
+        <v>28.8</v>
       </c>
       <c r="F96" t="n">
-        <v>22940.5313</v>
+        <v>1571.9393</v>
       </c>
       <c r="G96" t="n">
-        <v>29.09999999999998</v>
+        <v>28.99</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4235,14 +3905,8 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4264,10 +3928,10 @@
         <v>29</v>
       </c>
       <c r="F97" t="n">
-        <v>2422.7746</v>
+        <v>22940.5313</v>
       </c>
       <c r="G97" t="n">
-        <v>28.93333333333331</v>
+        <v>28.99</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4276,14 +3940,8 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4296,19 +3954,19 @@
         <v>29.1</v>
       </c>
       <c r="C98" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D98" t="n">
         <v>29.1</v>
       </c>
       <c r="E98" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F98" t="n">
-        <v>1552.0423</v>
+        <v>2422.7746</v>
       </c>
       <c r="G98" t="n">
-        <v>29.03333333333332</v>
+        <v>28.975</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4317,14 +3975,8 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4337,19 +3989,19 @@
         <v>29.1</v>
       </c>
       <c r="C99" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="D99" t="n">
         <v>29.1</v>
       </c>
       <c r="E99" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="F99" t="n">
-        <v>3863.2134</v>
+        <v>1552.0423</v>
       </c>
       <c r="G99" t="n">
-        <v>29.03333333333332</v>
+        <v>28.95999999999999</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4358,14 +4010,8 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4375,22 +4021,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="C100" t="n">
         <v>29</v>
       </c>
       <c r="D100" t="n">
-        <v>29</v>
+        <v>29.1</v>
       </c>
       <c r="E100" t="n">
         <v>29</v>
       </c>
       <c r="F100" t="n">
-        <v>22012.0116</v>
+        <v>3863.2134</v>
       </c>
       <c r="G100" t="n">
-        <v>29.03333333333332</v>
+        <v>28.94333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4399,14 +4045,8 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4416,22 +4056,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C101" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="D101" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E101" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="F101" t="n">
-        <v>3851.3615</v>
+        <v>22012.0116</v>
       </c>
       <c r="G101" t="n">
-        <v>29.03333333333332</v>
+        <v>28.92666666666666</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4440,14 +4080,8 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4457,22 +4091,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="C102" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="D102" t="n">
-        <v>29.6</v>
+        <v>29.1</v>
       </c>
       <c r="E102" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="F102" t="n">
-        <v>3633</v>
+        <v>3851.3615</v>
       </c>
       <c r="G102" t="n">
-        <v>29.13333333333332</v>
+        <v>28.91333333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4481,14 +4115,8 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4498,22 +4126,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="C103" t="n">
         <v>29.3</v>
       </c>
       <c r="D103" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="E103" t="n">
         <v>29.3</v>
       </c>
       <c r="F103" t="n">
-        <v>402.6229</v>
+        <v>3633</v>
       </c>
       <c r="G103" t="n">
-        <v>29.23333333333332</v>
+        <v>28.90833333333332</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4522,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4539,22 +4161,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="C104" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="D104" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="E104" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="F104" t="n">
-        <v>7084.0158</v>
+        <v>402.6229</v>
       </c>
       <c r="G104" t="n">
-        <v>29.26666666666665</v>
+        <v>28.88999999999999</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4563,14 +4185,8 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4592,10 +4208,10 @@
         <v>29.2</v>
       </c>
       <c r="F105" t="n">
-        <v>14192.628</v>
+        <v>7084.0158</v>
       </c>
       <c r="G105" t="n">
-        <v>29.23333333333332</v>
+        <v>28.86999999999999</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4604,14 +4220,8 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4621,22 +4231,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="C106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="D106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="E106" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F106" t="n">
-        <v>11020.15</v>
+        <v>14192.628</v>
       </c>
       <c r="G106" t="n">
-        <v>29.23333333333332</v>
+        <v>28.86166666666666</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4645,14 +4255,8 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4662,22 +4266,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="C107" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="D107" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="E107" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="F107" t="n">
-        <v>5542</v>
+        <v>11020.15</v>
       </c>
       <c r="G107" t="n">
-        <v>29.29999999999999</v>
+        <v>28.84499999999999</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4686,14 +4290,8 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4703,22 +4301,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C108" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="D108" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="E108" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F108" t="n">
-        <v>142612.7607</v>
+        <v>5542</v>
       </c>
       <c r="G108" t="n">
-        <v>29.53333333333332</v>
+        <v>28.82833333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4727,14 +4325,8 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4744,7 +4336,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C109" t="n">
         <v>29.9</v>
@@ -4753,13 +4345,13 @@
         <v>29.9</v>
       </c>
       <c r="E109" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="F109" t="n">
-        <v>46407.5886</v>
+        <v>142612.7607</v>
       </c>
       <c r="G109" t="n">
-        <v>29.73333333333332</v>
+        <v>28.82333333333332</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4768,14 +4360,8 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4785,22 +4371,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C110" t="n">
         <v>29.9</v>
       </c>
-      <c r="C110" t="n">
-        <v>30.5</v>
-      </c>
       <c r="D110" t="n">
-        <v>30.5</v>
+        <v>29.9</v>
       </c>
       <c r="E110" t="n">
         <v>29.7</v>
       </c>
       <c r="F110" t="n">
-        <v>121674.5017</v>
+        <v>46407.5886</v>
       </c>
       <c r="G110" t="n">
-        <v>30.09999999999998</v>
+        <v>28.83999999999999</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4809,14 +4395,8 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4829,19 +4409,19 @@
         <v>29.9</v>
       </c>
       <c r="C111" t="n">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
       <c r="D111" t="n">
-        <v>29.9</v>
+        <v>30.5</v>
       </c>
       <c r="E111" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="F111" t="n">
-        <v>12954</v>
+        <v>121674.5017</v>
       </c>
       <c r="G111" t="n">
-        <v>30.09999999999998</v>
+        <v>28.85999999999999</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4850,14 +4430,8 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4867,22 +4441,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="C112" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="D112" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="E112" t="n">
-        <v>30</v>
+        <v>29.8</v>
       </c>
       <c r="F112" t="n">
-        <v>29865.9013</v>
+        <v>12954</v>
       </c>
       <c r="G112" t="n">
-        <v>30.26666666666665</v>
+        <v>28.86166666666666</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4891,16 +4465,10 @@
         <v>1</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>1.054233449477352</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -4911,19 +4479,19 @@
         <v>30.4</v>
       </c>
       <c r="C113" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="D113" t="n">
         <v>30.4</v>
       </c>
       <c r="E113" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="F113" t="n">
-        <v>29390.93187368</v>
+        <v>29865.9013</v>
       </c>
       <c r="G113" t="n">
-        <v>30.19999999999999</v>
+        <v>28.87666666666666</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4943,22 +4511,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C114" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D114" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E114" t="n">
         <v>30.1</v>
       </c>
-      <c r="C114" t="n">
-        <v>30</v>
-      </c>
-      <c r="D114" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="E114" t="n">
-        <v>30</v>
-      </c>
       <c r="F114" t="n">
-        <v>85742.7807</v>
+        <v>29390.93187368</v>
       </c>
       <c r="G114" t="n">
-        <v>30.23333333333332</v>
+        <v>28.88999999999999</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4978,28 +4546,28 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="C115" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="D115" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="E115" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="F115" t="n">
-        <v>26605.2372</v>
+        <v>85742.7807</v>
       </c>
       <c r="G115" t="n">
-        <v>29.89999999999999</v>
+        <v>28.89833333333333</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
@@ -5013,22 +4581,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="C116" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="D116" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="E116" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="F116" t="n">
-        <v>4099.983</v>
+        <v>26605.2372</v>
       </c>
       <c r="G116" t="n">
-        <v>29.63333333333332</v>
+        <v>28.89333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -5048,22 +4616,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>29.4</v>
+        <v>30.1</v>
       </c>
       <c r="C117" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D117" t="n">
-        <v>29.4</v>
+        <v>30.1</v>
       </c>
       <c r="E117" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="F117" t="n">
-        <v>425.17</v>
+        <v>4099.983</v>
       </c>
       <c r="G117" t="n">
-        <v>29.43333333333332</v>
+        <v>28.88999999999999</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5083,22 +4651,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="C118" t="n">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="D118" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="E118" t="n">
-        <v>28.8</v>
+        <v>29.4</v>
       </c>
       <c r="F118" t="n">
-        <v>53571.1189</v>
+        <v>425.17</v>
       </c>
       <c r="G118" t="n">
-        <v>29.23333333333332</v>
+        <v>28.88833333333333</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5118,22 +4686,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="C119" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="D119" t="n">
-        <v>28.4</v>
+        <v>29.3</v>
       </c>
       <c r="E119" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="F119" t="n">
-        <v>4188.4882</v>
+        <v>53571.1189</v>
       </c>
       <c r="G119" t="n">
-        <v>28.86666666666666</v>
+        <v>28.88</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5153,22 +4721,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="C120" t="n">
         <v>28.4</v>
       </c>
       <c r="D120" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="E120" t="n">
         <v>28.4</v>
       </c>
       <c r="F120" t="n">
-        <v>89235.8438</v>
+        <v>4188.4882</v>
       </c>
       <c r="G120" t="n">
-        <v>28.53333333333332</v>
+        <v>28.85833333333333</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5188,22 +4756,22 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="C121" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="D121" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E121" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="F121" t="n">
-        <v>37694.6236</v>
+        <v>89235.8438</v>
       </c>
       <c r="G121" t="n">
-        <v>28.36666666666666</v>
+        <v>28.84</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -5223,22 +4791,22 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="C122" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="D122" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="E122" t="n">
-        <v>28.2</v>
+        <v>28.3</v>
       </c>
       <c r="F122" t="n">
-        <v>23</v>
+        <v>37694.6236</v>
       </c>
       <c r="G122" t="n">
-        <v>28.29999999999999</v>
+        <v>28.82</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
@@ -5258,22 +4826,22 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="C123" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="D123" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="E123" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F123" t="n">
-        <v>27372.2388</v>
+        <v>23</v>
       </c>
       <c r="G123" t="n">
-        <v>28.33333333333333</v>
+        <v>28.805</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
@@ -5293,22 +4861,22 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="C124" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="D124" t="n">
-        <v>29</v>
+        <v>28.5</v>
       </c>
       <c r="E124" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="F124" t="n">
-        <v>46213.334</v>
+        <v>27372.2388</v>
       </c>
       <c r="G124" t="n">
-        <v>28.56666666666666</v>
+        <v>28.79333333333333</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
@@ -5328,22 +4896,22 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C125" t="n">
         <v>29</v>
       </c>
-      <c r="C125" t="n">
-        <v>29.5</v>
-      </c>
       <c r="D125" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="E125" t="n">
         <v>28.9</v>
       </c>
       <c r="F125" t="n">
-        <v>69623</v>
+        <v>46213.334</v>
       </c>
       <c r="G125" t="n">
-        <v>28.99999999999999</v>
+        <v>28.79166666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -5363,22 +4931,22 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="C126" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="D126" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="E126" t="n">
         <v>28.9</v>
       </c>
       <c r="F126" t="n">
-        <v>1389.4293</v>
+        <v>69623</v>
       </c>
       <c r="G126" t="n">
-        <v>29.13333333333333</v>
+        <v>28.79666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
@@ -5398,22 +4966,22 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="C127" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="D127" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="E127" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="F127" t="n">
-        <v>9535.429400000001</v>
+        <v>1389.4293</v>
       </c>
       <c r="G127" t="n">
-        <v>29.06666666666666</v>
+        <v>28.795</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
@@ -5433,22 +5001,22 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="C128" t="n">
         <v>28.8</v>
       </c>
       <c r="D128" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E128" t="n">
         <v>28.8</v>
       </c>
       <c r="F128" t="n">
-        <v>12211</v>
+        <v>9535.429400000001</v>
       </c>
       <c r="G128" t="n">
-        <v>28.83333333333333</v>
+        <v>28.81166666666667</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -5468,22 +5036,22 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C129" t="n">
         <v>28.8</v>
       </c>
-      <c r="C129" t="n">
-        <v>28.7</v>
-      </c>
       <c r="D129" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E129" t="n">
         <v>28.8</v>
       </c>
-      <c r="E129" t="n">
-        <v>28.7</v>
-      </c>
       <c r="F129" t="n">
-        <v>2540.9833</v>
+        <v>12211</v>
       </c>
       <c r="G129" t="n">
-        <v>28.76666666666666</v>
+        <v>28.81666666666667</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
@@ -5506,19 +5074,19 @@
         <v>28.8</v>
       </c>
       <c r="C130" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="D130" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E130" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F130" t="n">
-        <v>8821.405000000001</v>
+        <v>2540.9833</v>
       </c>
       <c r="G130" t="n">
-        <v>28.9</v>
+        <v>28.82833333333333</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
@@ -5541,19 +5109,19 @@
         <v>28.8</v>
       </c>
       <c r="C131" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D131" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="E131" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="F131" t="n">
-        <v>16900.2517</v>
+        <v>8821.405000000001</v>
       </c>
       <c r="G131" t="n">
-        <v>29</v>
+        <v>28.84666666666667</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5576,19 +5144,19 @@
         <v>28.8</v>
       </c>
       <c r="C132" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="D132" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="E132" t="n">
         <v>28.7</v>
       </c>
       <c r="F132" t="n">
-        <v>36612.1895</v>
+        <v>16900.2517</v>
       </c>
       <c r="G132" t="n">
-        <v>29</v>
+        <v>28.85666666666667</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5608,10 +5176,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C133" t="n">
         <v>28.7</v>
-      </c>
-      <c r="C133" t="n">
-        <v>28.8</v>
       </c>
       <c r="D133" t="n">
         <v>28.8</v>
@@ -5620,10 +5188,10 @@
         <v>28.7</v>
       </c>
       <c r="F133" t="n">
-        <v>11823.8096</v>
+        <v>36612.1895</v>
       </c>
       <c r="G133" t="n">
-        <v>28.86666666666666</v>
+        <v>28.86166666666667</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
@@ -5643,22 +5211,22 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="C134" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="D134" t="n">
-        <v>29.7</v>
+        <v>28.8</v>
       </c>
       <c r="E134" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="F134" t="n">
-        <v>93114.2509</v>
+        <v>11823.8096</v>
       </c>
       <c r="G134" t="n">
-        <v>29.06666666666666</v>
+        <v>28.86833333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
@@ -5678,22 +5246,22 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>29.4</v>
+        <v>29.2</v>
       </c>
       <c r="C135" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="D135" t="n">
-        <v>29.4</v>
+        <v>29.7</v>
       </c>
       <c r="E135" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="F135" t="n">
-        <v>76668.4091</v>
+        <v>93114.2509</v>
       </c>
       <c r="G135" t="n">
-        <v>29.26666666666666</v>
+        <v>28.9</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -5713,22 +5281,22 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C136" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="D136" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="E136" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="F136" t="n">
-        <v>400</v>
+        <v>76668.4091</v>
       </c>
       <c r="G136" t="n">
-        <v>29.3</v>
+        <v>28.92666666666667</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -5748,22 +5316,22 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="C137" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="D137" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="E137" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="F137" t="n">
-        <v>6049.5298</v>
+        <v>400</v>
       </c>
       <c r="G137" t="n">
-        <v>28.96666666666667</v>
+        <v>28.94166666666667</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
@@ -5795,10 +5363,10 @@
         <v>28.7</v>
       </c>
       <c r="F138" t="n">
-        <v>28886.1591</v>
+        <v>6049.5298</v>
       </c>
       <c r="G138" t="n">
-        <v>28.76666666666667</v>
+        <v>28.95333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5818,22 +5386,22 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="C139" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="D139" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="E139" t="n">
-        <v>28.6</v>
+        <v>28.7</v>
       </c>
       <c r="F139" t="n">
-        <v>380.461</v>
+        <v>28886.1591</v>
       </c>
       <c r="G139" t="n">
-        <v>28.66666666666667</v>
+        <v>28.96333333333333</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
@@ -5865,10 +5433,10 @@
         <v>28.6</v>
       </c>
       <c r="F140" t="n">
-        <v>33</v>
+        <v>380.461</v>
       </c>
       <c r="G140" t="n">
-        <v>28.63333333333333</v>
+        <v>28.96833333333334</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5900,10 +5468,10 @@
         <v>28.6</v>
       </c>
       <c r="F141" t="n">
-        <v>1895.4585</v>
+        <v>33</v>
       </c>
       <c r="G141" t="n">
-        <v>28.6</v>
+        <v>28.97166666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5923,22 +5491,22 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C142" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D142" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E142" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F142" t="n">
-        <v>3132.6628</v>
+        <v>1895.4585</v>
       </c>
       <c r="G142" t="n">
-        <v>28.63333333333334</v>
+        <v>28.97666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
@@ -5958,22 +5526,22 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C143" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D143" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E143" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F143" t="n">
-        <v>4920.1651</v>
+        <v>3132.6628</v>
       </c>
       <c r="G143" t="n">
-        <v>28.7</v>
+        <v>28.98166666666667</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
@@ -5993,22 +5561,22 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="C144" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="D144" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="E144" t="n">
-        <v>29.3</v>
+        <v>28.8</v>
       </c>
       <c r="F144" t="n">
-        <v>72402.1244</v>
+        <v>4920.1651</v>
       </c>
       <c r="G144" t="n">
-        <v>29</v>
+        <v>28.99</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
@@ -6031,19 +5599,19 @@
         <v>29.3</v>
       </c>
       <c r="C145" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D145" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="E145" t="n">
         <v>29.3</v>
       </c>
       <c r="F145" t="n">
-        <v>122294.8725</v>
+        <v>72402.1244</v>
       </c>
       <c r="G145" t="n">
-        <v>29.2</v>
+        <v>29.015</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -6063,22 +5631,22 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="C146" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="D146" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="E146" t="n">
-        <v>28.9</v>
+        <v>29.3</v>
       </c>
       <c r="F146" t="n">
-        <v>39917.1961</v>
+        <v>122294.8725</v>
       </c>
       <c r="G146" t="n">
-        <v>29.53333333333333</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -6098,7 +5666,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="C147" t="n">
         <v>29.8</v>
@@ -6107,13 +5675,13 @@
         <v>29.8</v>
       </c>
       <c r="E147" t="n">
-        <v>29.8</v>
+        <v>28.9</v>
       </c>
       <c r="F147" t="n">
-        <v>5107.2816</v>
+        <v>39917.1961</v>
       </c>
       <c r="G147" t="n">
-        <v>29.63333333333333</v>
+        <v>29.05833333333333</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -6145,10 +5713,10 @@
         <v>29.8</v>
       </c>
       <c r="F148" t="n">
-        <v>4078.7583</v>
+        <v>5107.2816</v>
       </c>
       <c r="G148" t="n">
-        <v>29.8</v>
+        <v>29.08333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6168,22 +5736,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="C149" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="D149" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="E149" t="n">
-        <v>28.7</v>
+        <v>29.8</v>
       </c>
       <c r="F149" t="n">
-        <v>5124.6101</v>
+        <v>4078.7583</v>
       </c>
       <c r="G149" t="n">
-        <v>29.7</v>
+        <v>29.10666666666666</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6203,22 +5771,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="C150" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="D150" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="E150" t="n">
         <v>28.7</v>
       </c>
       <c r="F150" t="n">
-        <v>3979.0106</v>
+        <v>5124.6101</v>
       </c>
       <c r="G150" t="n">
-        <v>29.33333333333333</v>
+        <v>29.12499999999999</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6238,22 +5806,22 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="C151" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D151" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="E151" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F151" t="n">
-        <v>8756.7549</v>
+        <v>3979.0106</v>
       </c>
       <c r="G151" t="n">
-        <v>29.06666666666667</v>
+        <v>29.13499999999999</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -6273,22 +5841,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="C152" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="D152" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E152" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F152" t="n">
-        <v>2046.4446</v>
+        <v>8756.7549</v>
       </c>
       <c r="G152" t="n">
-        <v>28.86666666666666</v>
+        <v>29.15333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6308,22 +5876,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C153" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="D153" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="E153" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="F153" t="n">
-        <v>4079.0585</v>
+        <v>2046.4446</v>
       </c>
       <c r="G153" t="n">
-        <v>28.96666666666667</v>
+        <v>29.16166666666666</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6355,10 +5923,10 @@
         <v>29</v>
       </c>
       <c r="F154" t="n">
-        <v>75574.6516</v>
+        <v>4079.0585</v>
       </c>
       <c r="G154" t="n">
-        <v>28.96666666666667</v>
+        <v>29.15666666666666</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6390,10 +5958,10 @@
         <v>29</v>
       </c>
       <c r="F155" t="n">
-        <v>11913.414</v>
+        <v>75574.6516</v>
       </c>
       <c r="G155" t="n">
-        <v>29</v>
+        <v>29.14833333333333</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6416,19 +5984,19 @@
         <v>29</v>
       </c>
       <c r="C156" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="D156" t="n">
         <v>29</v>
       </c>
       <c r="E156" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="F156" t="n">
-        <v>81708.64690000001</v>
+        <v>11913.414</v>
       </c>
       <c r="G156" t="n">
-        <v>28.96666666666667</v>
+        <v>29.15166666666666</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6448,22 +6016,22 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="C157" t="n">
-        <v>27</v>
+        <v>28.9</v>
       </c>
       <c r="D157" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="E157" t="n">
-        <v>27</v>
+        <v>28.9</v>
       </c>
       <c r="F157" t="n">
-        <v>286808.3073</v>
+        <v>81708.64690000001</v>
       </c>
       <c r="G157" t="n">
-        <v>28.3</v>
+        <v>29.15</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6483,22 +6051,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>27.3</v>
+        <v>29.1</v>
       </c>
       <c r="C158" t="n">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="D158" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="E158" t="n">
-        <v>27.3</v>
+        <v>27</v>
       </c>
       <c r="F158" t="n">
-        <v>5207.1287</v>
+        <v>286808.3073</v>
       </c>
       <c r="G158" t="n">
-        <v>28.26666666666667</v>
+        <v>29.11666666666666</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6518,22 +6086,22 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="C159" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="D159" t="n">
-        <v>28.6</v>
+        <v>28.9</v>
       </c>
       <c r="E159" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="F159" t="n">
-        <v>24475.5244</v>
+        <v>5207.1287</v>
       </c>
       <c r="G159" t="n">
-        <v>28.16666666666667</v>
+        <v>29.11333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6553,22 +6121,22 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="C160" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="D160" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="E160" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="F160" t="n">
-        <v>10</v>
+        <v>24475.5244</v>
       </c>
       <c r="G160" t="n">
-        <v>28.73333333333333</v>
+        <v>29.10666666666667</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6591,19 +6159,19 @@
         <v>28.7</v>
       </c>
       <c r="C161" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D161" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E161" t="n">
         <v>28.7</v>
       </c>
       <c r="F161" t="n">
-        <v>400</v>
+        <v>10</v>
       </c>
       <c r="G161" t="n">
-        <v>28.76666666666667</v>
+        <v>29.10166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6623,22 +6191,22 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>27.8</v>
+        <v>28.7</v>
       </c>
       <c r="C162" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="D162" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="E162" t="n">
-        <v>27.8</v>
+        <v>28.7</v>
       </c>
       <c r="F162" t="n">
-        <v>5415.8501</v>
+        <v>400</v>
       </c>
       <c r="G162" t="n">
-        <v>28.5</v>
+        <v>29.1</v>
       </c>
       <c r="H162" t="n">
         <v>0</v>
@@ -6658,22 +6226,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="C163" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="D163" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="E163" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="F163" t="n">
-        <v>10104.5296</v>
+        <v>5415.8501</v>
       </c>
       <c r="G163" t="n">
-        <v>28.5</v>
+        <v>29.075</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6696,19 +6264,19 @@
         <v>28.7</v>
       </c>
       <c r="C164" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D164" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E164" t="n">
         <v>28.7</v>
       </c>
       <c r="F164" t="n">
-        <v>7000</v>
+        <v>10104.5296</v>
       </c>
       <c r="G164" t="n">
-        <v>28.43333333333333</v>
+        <v>29.065</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6728,22 +6296,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>27.7</v>
+        <v>28.7</v>
       </c>
       <c r="C165" t="n">
-        <v>27.7</v>
+        <v>28.8</v>
       </c>
       <c r="D165" t="n">
-        <v>27.7</v>
+        <v>28.8</v>
       </c>
       <c r="E165" t="n">
-        <v>27.7</v>
+        <v>28.7</v>
       </c>
       <c r="F165" t="n">
-        <v>26124.1888</v>
+        <v>7000</v>
       </c>
       <c r="G165" t="n">
-        <v>28.4</v>
+        <v>29.05833333333333</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6763,22 +6331,22 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="C166" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="D166" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="E166" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="F166" t="n">
-        <v>11443.1483</v>
+        <v>26124.1888</v>
       </c>
       <c r="G166" t="n">
-        <v>28.1</v>
+        <v>29.03333333333333</v>
       </c>
       <c r="H166" t="n">
         <v>0</v>
@@ -6793,6 +6361,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E167" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>11443.1483</v>
+      </c>
+      <c r="G167" t="n">
+        <v>29.00833333333333</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M167"/>
+  <dimension ref="A1:N177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>13000</v>
       </c>
       <c r="G2" t="n">
+        <v>29.17333333333333</v>
+      </c>
+      <c r="H2" t="n">
         <v>28.54166666666665</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,24 +491,21 @@
         <v>213820.8307</v>
       </c>
       <c r="G3" t="n">
+        <v>29.13333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>28.56499999999999</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>29.1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M3" t="n">
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -524,24 +529,21 @@
         <v>37774.0203</v>
       </c>
       <c r="G4" t="n">
+        <v>29.05333333333333</v>
+      </c>
+      <c r="H4" t="n">
         <v>28.57166666666666</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>28.4</v>
+        <v>0</v>
       </c>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -565,24 +567,21 @@
         <v>11493.8279</v>
       </c>
       <c r="G5" t="n">
+        <v>28.99999999999999</v>
+      </c>
+      <c r="H5" t="n">
         <v>28.57999999999999</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>27.4</v>
+        <v>0</v>
       </c>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,24 +605,21 @@
         <v>2910.9425</v>
       </c>
       <c r="G6" t="n">
+        <v>28.89333333333333</v>
+      </c>
+      <c r="H6" t="n">
         <v>28.58166666666666</v>
       </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.9</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -647,22 +643,21 @@
         <v>300.885</v>
       </c>
       <c r="G7" t="n">
+        <v>28.76666666666666</v>
+      </c>
+      <c r="H7" t="n">
         <v>28.59166666666665</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -686,22 +681,21 @@
         <v>27826.5364</v>
       </c>
       <c r="G8" t="n">
+        <v>28.64666666666666</v>
+      </c>
+      <c r="H8" t="n">
         <v>28.60499999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -725,22 +719,21 @@
         <v>8030</v>
       </c>
       <c r="G9" t="n">
+        <v>28.55333333333333</v>
+      </c>
+      <c r="H9" t="n">
         <v>28.62499999999999</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -764,22 +757,21 @@
         <v>29403.841</v>
       </c>
       <c r="G10" t="n">
+        <v>28.43333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>28.63999999999999</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M10" t="n">
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -803,22 +795,21 @@
         <v>25427.4285</v>
       </c>
       <c r="G11" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="H11" t="n">
         <v>28.64666666666666</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -842,22 +833,27 @@
         <v>4607.6608</v>
       </c>
       <c r="G12" t="n">
+        <v>28.24666666666666</v>
+      </c>
+      <c r="H12" t="n">
         <v>28.67</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>28</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -881,22 +877,27 @@
         <v>78776.7066</v>
       </c>
       <c r="G13" t="n">
+        <v>28.12666666666666</v>
+      </c>
+      <c r="H13" t="n">
         <v>28.67333333333333</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -920,22 +921,25 @@
         <v>26181.814</v>
       </c>
       <c r="G14" t="n">
+        <v>28.03333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>28.69</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,22 +963,25 @@
         <v>33047.7351</v>
       </c>
       <c r="G15" t="n">
+        <v>28.06</v>
+      </c>
+      <c r="H15" t="n">
         <v>28.71833333333333</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr">
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -998,22 +1005,25 @@
         <v>29</v>
       </c>
       <c r="G16" t="n">
+        <v>28.11333333333333</v>
+      </c>
+      <c r="H16" t="n">
         <v>28.74833333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr">
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1037,22 +1047,25 @@
         <v>16018.2638</v>
       </c>
       <c r="G17" t="n">
+        <v>28.07999999999999</v>
+      </c>
+      <c r="H17" t="n">
         <v>28.76833333333333</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr">
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1076,22 +1089,25 @@
         <v>106706.9358</v>
       </c>
       <c r="G18" t="n">
+        <v>28.02</v>
+      </c>
+      <c r="H18" t="n">
         <v>28.77666666666666</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1115,22 +1131,25 @@
         <v>21332.6114</v>
       </c>
       <c r="G19" t="n">
+        <v>28.08</v>
+      </c>
+      <c r="H19" t="n">
         <v>28.79833333333333</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1154,22 +1173,25 @@
         <v>132077.7038</v>
       </c>
       <c r="G20" t="n">
+        <v>28.11333333333333</v>
+      </c>
+      <c r="H20" t="n">
         <v>28.82166666666666</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1193,22 +1215,25 @@
         <v>187555.803</v>
       </c>
       <c r="G21" t="n">
+        <v>28.16666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>28.845</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1232,22 +1257,25 @@
         <v>35123.0591</v>
       </c>
       <c r="G22" t="n">
+        <v>28.23999999999999</v>
+      </c>
+      <c r="H22" t="n">
         <v>28.86666666666666</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1271,22 +1299,25 @@
         <v>309.9991</v>
       </c>
       <c r="G23" t="n">
+        <v>28.30666666666666</v>
+      </c>
+      <c r="H23" t="n">
         <v>28.89333333333333</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1310,22 +1341,25 @@
         <v>18262.6193</v>
       </c>
       <c r="G24" t="n">
+        <v>28.34666666666666</v>
+      </c>
+      <c r="H24" t="n">
         <v>28.91666666666667</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1349,22 +1383,25 @@
         <v>177106.5265</v>
       </c>
       <c r="G25" t="n">
+        <v>28.37333333333333</v>
+      </c>
+      <c r="H25" t="n">
         <v>28.93</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1388,22 +1425,25 @@
         <v>33355.276</v>
       </c>
       <c r="G26" t="n">
+        <v>28.38666666666666</v>
+      </c>
+      <c r="H26" t="n">
         <v>28.94166666666667</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr">
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1427,22 +1467,25 @@
         <v>20721.1371</v>
       </c>
       <c r="G27" t="n">
+        <v>28.33999999999999</v>
+      </c>
+      <c r="H27" t="n">
         <v>28.94</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr">
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1466,22 +1509,25 @@
         <v>39398.7</v>
       </c>
       <c r="G28" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="H28" t="n">
         <v>28.93333333333333</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr">
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1505,22 +1551,25 @@
         <v>3600</v>
       </c>
       <c r="G29" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>28.93166666666667</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr">
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1544,22 +1593,25 @@
         <v>43974.2613</v>
       </c>
       <c r="G30" t="n">
+        <v>28.28666666666667</v>
+      </c>
+      <c r="H30" t="n">
         <v>28.92666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr">
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1583,22 +1635,25 @@
         <v>962</v>
       </c>
       <c r="G31" t="n">
+        <v>28.23333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>28.92166666666667</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr">
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1622,22 +1677,25 @@
         <v>20</v>
       </c>
       <c r="G32" t="n">
+        <v>28.16666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>28.90166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr">
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1661,22 +1719,25 @@
         <v>59313.7284</v>
       </c>
       <c r="G33" t="n">
+        <v>28.19333333333333</v>
+      </c>
+      <c r="H33" t="n">
         <v>28.88</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1700,22 +1761,25 @@
         <v>2307.2894</v>
       </c>
       <c r="G34" t="n">
+        <v>28.16666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>28.85833333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr">
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1739,22 +1803,25 @@
         <v>1610.439</v>
       </c>
       <c r="G35" t="n">
+        <v>28.18666666666666</v>
+      </c>
+      <c r="H35" t="n">
         <v>28.84666666666667</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,22 +1845,25 @@
         <v>263847.389</v>
       </c>
       <c r="G36" t="n">
+        <v>28.25999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>28.805</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr">
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1817,22 +1887,25 @@
         <v>280435.4556</v>
       </c>
       <c r="G37" t="n">
+        <v>28.27999999999999</v>
+      </c>
+      <c r="H37" t="n">
         <v>28.79500000000001</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr">
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1856,22 +1929,25 @@
         <v>74547.16099999999</v>
       </c>
       <c r="G38" t="n">
+        <v>28.34666666666666</v>
+      </c>
+      <c r="H38" t="n">
         <v>28.77166666666667</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr">
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1895,22 +1971,25 @@
         <v>279007.4233</v>
       </c>
       <c r="G39" t="n">
+        <v>28.42</v>
+      </c>
+      <c r="H39" t="n">
         <v>28.75333333333334</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,22 +2013,27 @@
         <v>2280.0716</v>
       </c>
       <c r="G40" t="n">
+        <v>28.53333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>28.74833333333334</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1971,18 +2055,25 @@
         <v>3864.0387</v>
       </c>
       <c r="G41" t="n">
+        <v>28.65333333333333</v>
+      </c>
+      <c r="H41" t="n">
         <v>28.72500000000001</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2006,18 +2097,25 @@
         <v>6257.5679</v>
       </c>
       <c r="G42" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H42" t="n">
         <v>28.70500000000001</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2041,18 +2139,25 @@
         <v>245221.054</v>
       </c>
       <c r="G43" t="n">
+        <v>28.93333333333333</v>
+      </c>
+      <c r="H43" t="n">
         <v>28.69166666666667</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2076,18 +2181,25 @@
         <v>12658.5789</v>
       </c>
       <c r="G44" t="n">
+        <v>29.09333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>28.70666666666667</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2111,18 +2223,25 @@
         <v>67979.7105</v>
       </c>
       <c r="G45" t="n">
+        <v>29.25333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>28.70666666666667</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2146,18 +2265,25 @@
         <v>9052.8228</v>
       </c>
       <c r="G46" t="n">
+        <v>29.36666666666666</v>
+      </c>
+      <c r="H46" t="n">
         <v>28.71166666666668</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2181,18 +2307,25 @@
         <v>21</v>
       </c>
       <c r="G47" t="n">
+        <v>29.54666666666666</v>
+      </c>
+      <c r="H47" t="n">
         <v>28.74166666666667</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2216,18 +2349,25 @@
         <v>123996.3585</v>
       </c>
       <c r="G48" t="n">
+        <v>29.71333333333332</v>
+      </c>
+      <c r="H48" t="n">
         <v>28.76500000000001</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2251,18 +2391,25 @@
         <v>24083.7828</v>
       </c>
       <c r="G49" t="n">
+        <v>29.86666666666666</v>
+      </c>
+      <c r="H49" t="n">
         <v>28.79166666666668</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2286,18 +2433,25 @@
         <v>279278.3167</v>
       </c>
       <c r="G50" t="n">
+        <v>29.87999999999999</v>
+      </c>
+      <c r="H50" t="n">
         <v>28.79500000000001</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2321,18 +2475,25 @@
         <v>11502.8172</v>
       </c>
       <c r="G51" t="n">
+        <v>29.86666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>28.79666666666668</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2356,18 +2517,25 @@
         <v>29336.1881</v>
       </c>
       <c r="G52" t="n">
+        <v>29.91999999999999</v>
+      </c>
+      <c r="H52" t="n">
         <v>28.80166666666668</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2391,20 +2559,25 @@
         <v>1710.2305</v>
       </c>
       <c r="G53" t="n">
+        <v>29.89333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>28.79833333333334</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2426,18 +2599,21 @@
         <v>2310</v>
       </c>
       <c r="G54" t="n">
+        <v>29.86</v>
+      </c>
+      <c r="H54" t="n">
         <v>28.79500000000001</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,18 +2637,21 @@
         <v>7707.5975</v>
       </c>
       <c r="G55" t="n">
+        <v>29.82666666666666</v>
+      </c>
+      <c r="H55" t="n">
         <v>28.79166666666667</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,18 +2675,21 @@
         <v>1278.0216</v>
       </c>
       <c r="G56" t="n">
+        <v>29.80666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>28.79500000000001</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2531,18 +2713,21 @@
         <v>1400</v>
       </c>
       <c r="G57" t="n">
+        <v>29.79333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>28.79500000000001</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2566,18 +2751,21 @@
         <v>5546.2214</v>
       </c>
       <c r="G58" t="n">
+        <v>29.78666666666666</v>
+      </c>
+      <c r="H58" t="n">
         <v>28.79500000000001</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2601,18 +2789,21 @@
         <v>8283.6661</v>
       </c>
       <c r="G59" t="n">
+        <v>29.71333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>28.79333333333334</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2636,18 +2827,21 @@
         <v>44.8989</v>
       </c>
       <c r="G60" t="n">
+        <v>29.66666666666666</v>
+      </c>
+      <c r="H60" t="n">
         <v>28.81666666666667</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2671,18 +2865,21 @@
         <v>426</v>
       </c>
       <c r="G61" t="n">
+        <v>29.65333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>28.84166666666668</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2706,18 +2903,21 @@
         <v>75100.3272</v>
       </c>
       <c r="G62" t="n">
+        <v>29.6</v>
+      </c>
+      <c r="H62" t="n">
         <v>28.84833333333334</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,18 +2941,21 @@
         <v>13243.8292</v>
       </c>
       <c r="G63" t="n">
+        <v>29.51333333333333</v>
+      </c>
+      <c r="H63" t="n">
         <v>28.86000000000001</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2776,18 +2979,21 @@
         <v>3814.6575</v>
       </c>
       <c r="G64" t="n">
+        <v>29.44666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>28.89</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2811,18 +3017,21 @@
         <v>104876.3599</v>
       </c>
       <c r="G65" t="n">
+        <v>29.46</v>
+      </c>
+      <c r="H65" t="n">
         <v>28.91</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2846,18 +3055,21 @@
         <v>3185.2914</v>
       </c>
       <c r="G66" t="n">
+        <v>29.45333333333333</v>
+      </c>
+      <c r="H66" t="n">
         <v>28.93666666666667</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2881,18 +3093,21 @@
         <v>16790.6896</v>
       </c>
       <c r="G67" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="H67" t="n">
         <v>28.96</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2916,18 +3131,21 @@
         <v>88670.46339999999</v>
       </c>
       <c r="G68" t="n">
+        <v>29.28666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>28.95833333333334</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2951,18 +3169,21 @@
         <v>25841.6325</v>
       </c>
       <c r="G69" t="n">
+        <v>29.22</v>
+      </c>
+      <c r="H69" t="n">
         <v>28.96166666666667</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2986,18 +3207,21 @@
         <v>7982.2928</v>
       </c>
       <c r="G70" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="H70" t="n">
         <v>28.96333333333333</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3021,18 +3245,21 @@
         <v>143344.1649</v>
       </c>
       <c r="G71" t="n">
+        <v>29.01333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>28.965</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3056,18 +3283,21 @@
         <v>2966.1014</v>
       </c>
       <c r="G72" t="n">
+        <v>28.93333333333334</v>
+      </c>
+      <c r="H72" t="n">
         <v>28.96666666666667</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,18 +3321,21 @@
         <v>7021.8238</v>
       </c>
       <c r="G73" t="n">
+        <v>28.86</v>
+      </c>
+      <c r="H73" t="n">
         <v>28.97833333333334</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3126,18 +3359,21 @@
         <v>20851.312</v>
       </c>
       <c r="G74" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H74" t="n">
         <v>28.985</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3161,18 +3397,21 @@
         <v>157292.0698</v>
       </c>
       <c r="G75" t="n">
+        <v>28.67333333333334</v>
+      </c>
+      <c r="H75" t="n">
         <v>28.97</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3196,18 +3435,21 @@
         <v>17699.4233</v>
       </c>
       <c r="G76" t="n">
+        <v>28.55333333333333</v>
+      </c>
+      <c r="H76" t="n">
         <v>28.95166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3231,18 +3473,21 @@
         <v>4795.4137</v>
       </c>
       <c r="G77" t="n">
+        <v>28.45333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>28.94166666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,18 +3511,21 @@
         <v>2750.7427</v>
       </c>
       <c r="G78" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="H78" t="n">
         <v>28.95</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3301,18 +3549,21 @@
         <v>36194.2348</v>
       </c>
       <c r="G79" t="n">
+        <v>28.30666666666667</v>
+      </c>
+      <c r="H79" t="n">
         <v>28.94666666666667</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3336,18 +3587,21 @@
         <v>432</v>
       </c>
       <c r="G80" t="n">
+        <v>28.25333333333333</v>
+      </c>
+      <c r="H80" t="n">
         <v>28.945</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3371,18 +3625,21 @@
         <v>10</v>
       </c>
       <c r="G81" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="H81" t="n">
         <v>28.945</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,18 +3663,21 @@
         <v>12</v>
       </c>
       <c r="G82" t="n">
+        <v>28.15333333333333</v>
+      </c>
+      <c r="H82" t="n">
         <v>28.93833333333333</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3441,18 +3701,21 @@
         <v>870.5133</v>
       </c>
       <c r="G83" t="n">
+        <v>28.19333333333333</v>
+      </c>
+      <c r="H83" t="n">
         <v>28.93</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3476,18 +3739,21 @@
         <v>27.4867</v>
       </c>
       <c r="G84" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="H84" t="n">
         <v>28.92</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3511,18 +3777,21 @@
         <v>6257.25</v>
       </c>
       <c r="G85" t="n">
+        <v>28.18</v>
+      </c>
+      <c r="H85" t="n">
         <v>28.915</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3546,18 +3815,21 @@
         <v>11250.6029</v>
       </c>
       <c r="G86" t="n">
+        <v>28.18666666666666</v>
+      </c>
+      <c r="H86" t="n">
         <v>28.915</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3581,18 +3853,21 @@
         <v>2068.2633</v>
       </c>
       <c r="G87" t="n">
+        <v>28.17333333333333</v>
+      </c>
+      <c r="H87" t="n">
         <v>28.925</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3616,18 +3891,21 @@
         <v>4092.0193</v>
       </c>
       <c r="G88" t="n">
+        <v>28.16666666666667</v>
+      </c>
+      <c r="H88" t="n">
         <v>28.93666666666666</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3651,18 +3929,21 @@
         <v>13342.5464</v>
       </c>
       <c r="G89" t="n">
+        <v>28.16666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>28.94333333333333</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3686,18 +3967,21 @@
         <v>47248.6619</v>
       </c>
       <c r="G90" t="n">
+        <v>28.20666666666666</v>
+      </c>
+      <c r="H90" t="n">
         <v>28.95</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,18 +4005,25 @@
         <v>271</v>
       </c>
       <c r="G91" t="n">
+        <v>28.23333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>28.95166666666666</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="L91" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,18 +4047,29 @@
         <v>16078.7826</v>
       </c>
       <c r="G92" t="n">
+        <v>28.22666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>28.95666666666667</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3791,18 +4093,29 @@
         <v>96.1619</v>
       </c>
       <c r="G93" t="n">
+        <v>28.25333333333333</v>
+      </c>
+      <c r="H93" t="n">
         <v>28.965</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L93" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3826,18 +4139,27 @@
         <v>100449.6253</v>
       </c>
       <c r="G94" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>28.98833333333333</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="L94" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3861,18 +4183,27 @@
         <v>56368.6925</v>
       </c>
       <c r="G95" t="n">
+        <v>28.41333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>29.00166666666667</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="L95" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3896,18 +4227,27 @@
         <v>1571.9393</v>
       </c>
       <c r="G96" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="H96" t="n">
         <v>28.99</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="L96" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3931,18 +4271,27 @@
         <v>22940.5313</v>
       </c>
       <c r="G97" t="n">
+        <v>28.48666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>28.99</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="L97" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3966,18 +4315,27 @@
         <v>2422.7746</v>
       </c>
       <c r="G98" t="n">
+        <v>28.52666666666666</v>
+      </c>
+      <c r="H98" t="n">
         <v>28.975</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="L98" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4001,18 +4359,27 @@
         <v>1552.0423</v>
       </c>
       <c r="G99" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="H99" t="n">
         <v>28.95999999999999</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="L99" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4036,18 +4403,27 @@
         <v>3863.2134</v>
       </c>
       <c r="G100" t="n">
+        <v>28.64666666666666</v>
+      </c>
+      <c r="H100" t="n">
         <v>28.94333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="L100" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4071,18 +4447,27 @@
         <v>22012.0116</v>
       </c>
       <c r="G101" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="H101" t="n">
         <v>28.92666666666666</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="L101" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4106,18 +4491,27 @@
         <v>3851.3615</v>
       </c>
       <c r="G102" t="n">
+        <v>28.75333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>28.91333333333332</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="L102" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4141,18 +4535,29 @@
         <v>3633</v>
       </c>
       <c r="G103" t="n">
+        <v>28.82</v>
+      </c>
+      <c r="H103" t="n">
         <v>28.90833333333332</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="L103" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4176,18 +4581,27 @@
         <v>402.6229</v>
       </c>
       <c r="G104" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="H104" t="n">
         <v>28.88999999999999</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="L104" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4211,18 +4625,27 @@
         <v>7084.0158</v>
       </c>
       <c r="G105" t="n">
+        <v>28.93333333333334</v>
+      </c>
+      <c r="H105" t="n">
         <v>28.86999999999999</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="L105" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4246,18 +4669,27 @@
         <v>14192.628</v>
       </c>
       <c r="G106" t="n">
+        <v>29.00666666666667</v>
+      </c>
+      <c r="H106" t="n">
         <v>28.86166666666666</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="L106" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4281,18 +4713,27 @@
         <v>11020.15</v>
       </c>
       <c r="G107" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="H107" t="n">
         <v>28.84499999999999</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="L107" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4316,18 +4757,27 @@
         <v>5542</v>
       </c>
       <c r="G108" t="n">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="H108" t="n">
         <v>28.82833333333332</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="L108" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4351,18 +4801,27 @@
         <v>142612.7607</v>
       </c>
       <c r="G109" t="n">
+        <v>29.20666666666667</v>
+      </c>
+      <c r="H109" t="n">
         <v>28.82333333333332</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="L109" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4386,18 +4845,27 @@
         <v>46407.5886</v>
       </c>
       <c r="G110" t="n">
+        <v>29.23333333333333</v>
+      </c>
+      <c r="H110" t="n">
         <v>28.83999999999999</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="L110" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4421,18 +4889,27 @@
         <v>121674.5017</v>
       </c>
       <c r="G111" t="n">
+        <v>29.34666666666667</v>
+      </c>
+      <c r="H111" t="n">
         <v>28.85999999999999</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="L111" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,18 +4933,27 @@
         <v>12954</v>
       </c>
       <c r="G112" t="n">
+        <v>29.40666666666666</v>
+      </c>
+      <c r="H112" t="n">
         <v>28.86166666666666</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
-        <v>1</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="L112" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4491,19 +4977,28 @@
         <v>29865.9013</v>
       </c>
       <c r="G113" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="H113" t="n">
         <v>28.87666666666666</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
+      <c r="L113" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>1.065422535211268</v>
       </c>
     </row>
     <row r="114">
@@ -4526,18 +5021,21 @@
         <v>29390.93187368</v>
       </c>
       <c r="G114" t="n">
+        <v>29.57999999999999</v>
+      </c>
+      <c r="H114" t="n">
         <v>28.88999999999999</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4561,18 +5059,21 @@
         <v>85742.7807</v>
       </c>
       <c r="G115" t="n">
+        <v>29.64666666666666</v>
+      </c>
+      <c r="H115" t="n">
         <v>28.89833333333333</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,18 +5097,21 @@
         <v>26605.2372</v>
       </c>
       <c r="G116" t="n">
+        <v>29.67333333333333</v>
+      </c>
+      <c r="H116" t="n">
         <v>28.89333333333333</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4631,18 +5135,21 @@
         <v>4099.983</v>
       </c>
       <c r="G117" t="n">
+        <v>29.69999999999999</v>
+      </c>
+      <c r="H117" t="n">
         <v>28.88999999999999</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>1</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4666,18 +5173,21 @@
         <v>425.17</v>
       </c>
       <c r="G118" t="n">
+        <v>29.70666666666666</v>
+      </c>
+      <c r="H118" t="n">
         <v>28.88833333333333</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4701,18 +5211,21 @@
         <v>53571.1189</v>
       </c>
       <c r="G119" t="n">
+        <v>29.67333333333332</v>
+      </c>
+      <c r="H119" t="n">
         <v>28.88</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>1</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4736,18 +5249,21 @@
         <v>4188.4882</v>
       </c>
       <c r="G120" t="n">
+        <v>29.61999999999999</v>
+      </c>
+      <c r="H120" t="n">
         <v>28.85833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4771,18 +5287,21 @@
         <v>89235.8438</v>
       </c>
       <c r="G121" t="n">
+        <v>29.56666666666666</v>
+      </c>
+      <c r="H121" t="n">
         <v>28.84</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4806,18 +5325,21 @@
         <v>37694.6236</v>
       </c>
       <c r="G122" t="n">
+        <v>29.49999999999999</v>
+      </c>
+      <c r="H122" t="n">
         <v>28.82</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4841,18 +5363,21 @@
         <v>23</v>
       </c>
       <c r="G123" t="n">
+        <v>29.41999999999999</v>
+      </c>
+      <c r="H123" t="n">
         <v>28.805</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4876,18 +5401,21 @@
         <v>27372.2388</v>
       </c>
       <c r="G124" t="n">
+        <v>29.32666666666666</v>
+      </c>
+      <c r="H124" t="n">
         <v>28.79333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4911,18 +5439,21 @@
         <v>46213.334</v>
       </c>
       <c r="G125" t="n">
+        <v>29.26666666666666</v>
+      </c>
+      <c r="H125" t="n">
         <v>28.79166666666667</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4946,18 +5477,21 @@
         <v>69623</v>
       </c>
       <c r="G126" t="n">
+        <v>29.19999999999999</v>
+      </c>
+      <c r="H126" t="n">
         <v>28.79666666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,18 +5515,21 @@
         <v>1389.4293</v>
       </c>
       <c r="G127" t="n">
+        <v>29.13333333333333</v>
+      </c>
+      <c r="H127" t="n">
         <v>28.795</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5016,18 +5553,21 @@
         <v>9535.429400000001</v>
       </c>
       <c r="G128" t="n">
+        <v>29.02666666666666</v>
+      </c>
+      <c r="H128" t="n">
         <v>28.81166666666667</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5051,18 +5591,21 @@
         <v>12211</v>
       </c>
       <c r="G129" t="n">
+        <v>28.92666666666666</v>
+      </c>
+      <c r="H129" t="n">
         <v>28.81666666666667</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5086,18 +5629,21 @@
         <v>2540.9833</v>
       </c>
       <c r="G130" t="n">
+        <v>28.83999999999999</v>
+      </c>
+      <c r="H130" t="n">
         <v>28.82833333333333</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5121,18 +5667,21 @@
         <v>8821.405000000001</v>
       </c>
       <c r="G131" t="n">
+        <v>28.82666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>28.84666666666667</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5156,18 +5705,21 @@
         <v>16900.2517</v>
       </c>
       <c r="G132" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="H132" t="n">
         <v>28.85666666666667</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,18 +5743,21 @@
         <v>36612.1895</v>
       </c>
       <c r="G133" t="n">
+        <v>28.75333333333333</v>
+      </c>
+      <c r="H133" t="n">
         <v>28.86166666666667</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5226,18 +5781,21 @@
         <v>11823.8096</v>
       </c>
       <c r="G134" t="n">
+        <v>28.75333333333333</v>
+      </c>
+      <c r="H134" t="n">
         <v>28.86833333333333</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5261,18 +5819,21 @@
         <v>93114.2509</v>
       </c>
       <c r="G135" t="n">
+        <v>28.84</v>
+      </c>
+      <c r="H135" t="n">
         <v>28.9</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5296,18 +5857,21 @@
         <v>76668.4091</v>
       </c>
       <c r="G136" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="H136" t="n">
         <v>28.92666666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5331,18 +5895,21 @@
         <v>400</v>
       </c>
       <c r="G137" t="n">
+        <v>28.94</v>
+      </c>
+      <c r="H137" t="n">
         <v>28.94166666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5366,18 +5933,21 @@
         <v>6049.5298</v>
       </c>
       <c r="G138" t="n">
+        <v>28.97333333333333</v>
+      </c>
+      <c r="H138" t="n">
         <v>28.95333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5401,18 +5971,21 @@
         <v>28886.1591</v>
       </c>
       <c r="G139" t="n">
+        <v>28.98666666666666</v>
+      </c>
+      <c r="H139" t="n">
         <v>28.96333333333333</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5436,18 +6009,21 @@
         <v>380.461</v>
       </c>
       <c r="G140" t="n">
+        <v>28.96</v>
+      </c>
+      <c r="H140" t="n">
         <v>28.96833333333334</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5471,18 +6047,21 @@
         <v>33</v>
       </c>
       <c r="G141" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="H141" t="n">
         <v>28.97166666666667</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5506,18 +6085,21 @@
         <v>1895.4585</v>
       </c>
       <c r="G142" t="n">
+        <v>28.88</v>
+      </c>
+      <c r="H142" t="n">
         <v>28.97666666666667</v>
       </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5541,18 +6123,21 @@
         <v>3132.6628</v>
       </c>
       <c r="G143" t="n">
+        <v>28.87333333333333</v>
+      </c>
+      <c r="H143" t="n">
         <v>28.98166666666667</v>
       </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5576,18 +6161,21 @@
         <v>4920.1651</v>
       </c>
       <c r="G144" t="n">
+        <v>28.87333333333333</v>
+      </c>
+      <c r="H144" t="n">
         <v>28.99</v>
       </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,18 +6199,21 @@
         <v>72402.1244</v>
       </c>
       <c r="G145" t="n">
+        <v>28.92666666666667</v>
+      </c>
+      <c r="H145" t="n">
         <v>29.015</v>
       </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5646,18 +6237,21 @@
         <v>122294.8725</v>
       </c>
       <c r="G146" t="n">
+        <v>28.93333333333334</v>
+      </c>
+      <c r="H146" t="n">
         <v>29.03333333333333</v>
       </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5681,18 +6275,21 @@
         <v>39917.1961</v>
       </c>
       <c r="G147" t="n">
+        <v>28.98</v>
+      </c>
+      <c r="H147" t="n">
         <v>29.05833333333333</v>
       </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5716,18 +6313,21 @@
         <v>5107.2816</v>
       </c>
       <c r="G148" t="n">
+        <v>29.05333333333334</v>
+      </c>
+      <c r="H148" t="n">
         <v>29.08333333333333</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5751,18 +6351,21 @@
         <v>4078.7583</v>
       </c>
       <c r="G149" t="n">
+        <v>29.12</v>
+      </c>
+      <c r="H149" t="n">
         <v>29.10666666666666</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5786,18 +6389,21 @@
         <v>5124.6101</v>
       </c>
       <c r="G150" t="n">
+        <v>29.10666666666667</v>
+      </c>
+      <c r="H150" t="n">
         <v>29.12499999999999</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5821,18 +6427,21 @@
         <v>3979.0106</v>
       </c>
       <c r="G151" t="n">
+        <v>29.06666666666667</v>
+      </c>
+      <c r="H151" t="n">
         <v>29.13499999999999</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5856,18 +6465,21 @@
         <v>8756.7549</v>
       </c>
       <c r="G152" t="n">
+        <v>29.07333333333334</v>
+      </c>
+      <c r="H152" t="n">
         <v>29.15333333333333</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5891,18 +6503,21 @@
         <v>2046.4446</v>
       </c>
       <c r="G153" t="n">
+        <v>29.08666666666667</v>
+      </c>
+      <c r="H153" t="n">
         <v>29.16166666666666</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,18 +6541,21 @@
         <v>4079.0585</v>
       </c>
       <c r="G154" t="n">
+        <v>29.10666666666667</v>
+      </c>
+      <c r="H154" t="n">
         <v>29.15666666666666</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5961,18 +6579,21 @@
         <v>75574.6516</v>
       </c>
       <c r="G155" t="n">
+        <v>29.13333333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>29.14833333333333</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5996,18 +6617,21 @@
         <v>11913.414</v>
       </c>
       <c r="G156" t="n">
+        <v>29.16</v>
+      </c>
+      <c r="H156" t="n">
         <v>29.15166666666666</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6031,18 +6655,21 @@
         <v>81708.64690000001</v>
       </c>
       <c r="G157" t="n">
+        <v>29.18</v>
+      </c>
+      <c r="H157" t="n">
         <v>29.15</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6066,18 +6693,21 @@
         <v>286808.3073</v>
       </c>
       <c r="G158" t="n">
+        <v>29.06666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>29.11666666666666</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6101,18 +6731,21 @@
         <v>5207.1287</v>
       </c>
       <c r="G159" t="n">
+        <v>29.07333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>29.11333333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6136,18 +6769,21 @@
         <v>24475.5244</v>
       </c>
       <c r="G160" t="n">
+        <v>29.01333333333333</v>
+      </c>
+      <c r="H160" t="n">
         <v>29.10666666666667</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6171,18 +6807,21 @@
         <v>10</v>
       </c>
       <c r="G161" t="n">
+        <v>28.97333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>29.10166666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6206,18 +6845,21 @@
         <v>400</v>
       </c>
       <c r="G162" t="n">
+        <v>28.92</v>
+      </c>
+      <c r="H162" t="n">
         <v>29.1</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,18 +6883,21 @@
         <v>5415.8501</v>
       </c>
       <c r="G163" t="n">
+        <v>28.78666666666667</v>
+      </c>
+      <c r="H163" t="n">
         <v>29.075</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6276,18 +6921,25 @@
         <v>10104.5296</v>
       </c>
       <c r="G164" t="n">
+        <v>28.71333333333333</v>
+      </c>
+      <c r="H164" t="n">
         <v>29.065</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L164" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,18 +6963,29 @@
         <v>7000</v>
       </c>
       <c r="G165" t="n">
+        <v>28.66666666666666</v>
+      </c>
+      <c r="H165" t="n">
         <v>29.05833333333333</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L165" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6346,18 +7009,27 @@
         <v>26124.1888</v>
       </c>
       <c r="G166" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="H166" t="n">
         <v>29.03333333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
+      <c r="L166" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6381,18 +7053,475 @@
         <v>11443.1483</v>
       </c>
       <c r="G167" t="n">
+        <v>28.52</v>
+      </c>
+      <c r="H167" t="n">
         <v>29.00833333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="L167" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C168" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D168" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4660.9254</v>
+      </c>
+      <c r="G168" t="n">
+        <v>28.50666666666666</v>
+      </c>
+      <c r="H168" t="n">
+        <v>28.99666666666667</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="L168" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>28</v>
+      </c>
+      <c r="C169" t="n">
+        <v>28</v>
+      </c>
+      <c r="D169" t="n">
+        <v>28</v>
+      </c>
+      <c r="E169" t="n">
+        <v>28</v>
+      </c>
+      <c r="F169" t="n">
+        <v>24934.3928</v>
+      </c>
+      <c r="G169" t="n">
+        <v>28.44</v>
+      </c>
+      <c r="H169" t="n">
+        <v>28.965</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="L169" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>28</v>
+      </c>
+      <c r="C170" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>28</v>
+      </c>
+      <c r="E170" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F170" t="n">
+        <v>8386.6582</v>
+      </c>
+      <c r="G170" t="n">
+        <v>28.36666666666666</v>
+      </c>
+      <c r="H170" t="n">
+        <v>28.93166666666666</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>28</v>
+      </c>
+      <c r="L170" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C171" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E171" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>34209.7586</v>
+      </c>
+      <c r="G171" t="n">
+        <v>28.35333333333333</v>
+      </c>
+      <c r="H171" t="n">
+        <v>28.90333333333333</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="L171" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>28</v>
+      </c>
+      <c r="D172" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E172" t="n">
+        <v>28</v>
+      </c>
+      <c r="F172" t="n">
+        <v>10078.2565</v>
+      </c>
+      <c r="G172" t="n">
+        <v>28.29333333333333</v>
+      </c>
+      <c r="H172" t="n">
+        <v>28.87166666666666</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="L172" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C173" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D173" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F173" t="n">
+        <v>186.2473</v>
+      </c>
+      <c r="G173" t="n">
+        <v>28.38</v>
+      </c>
+      <c r="H173" t="n">
+        <v>28.83666666666666</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C174" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D174" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E174" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F174" t="n">
+        <v>241.7667</v>
+      </c>
+      <c r="G174" t="n">
+        <v>28.34</v>
+      </c>
+      <c r="H174" t="n">
+        <v>28.80333333333333</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>28</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D175" t="n">
+        <v>28</v>
+      </c>
+      <c r="E175" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F175" t="n">
+        <v>127485.1171</v>
+      </c>
+      <c r="G175" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="H175" t="n">
+        <v>28.76499999999999</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C176" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D176" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E176" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F176" t="n">
+        <v>25185.3118</v>
+      </c>
+      <c r="G176" t="n">
+        <v>28.25333333333333</v>
+      </c>
+      <c r="H176" t="n">
+        <v>28.74666666666666</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C177" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D177" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F177" t="n">
+        <v>94281.6102</v>
+      </c>
+      <c r="G177" t="n">
+        <v>28.19333333333334</v>
+      </c>
+      <c r="H177" t="n">
+        <v>28.72333333333332</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M206"/>
+  <dimension ref="A1:N164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,31 +427,36 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_point</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
+        <v>28</v>
+      </c>
+      <c r="C2" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D2" t="n">
         <v>28.8</v>
       </c>
-      <c r="C2" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.2</v>
-      </c>
       <c r="E2" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="F2" t="n">
-        <v>86251.493</v>
+        <v>33047.7351</v>
       </c>
       <c r="G2" t="n">
-        <v>746329.9458046199</v>
+        <v>28.13333333333333</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -462,28 +467,29 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C3" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="D3" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E3" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="F3" t="n">
-        <v>48580.7902</v>
+        <v>29</v>
       </c>
       <c r="G3" t="n">
-        <v>746329.9458046199</v>
+        <v>28.49999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -497,28 +503,29 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="C4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="D4" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="E4" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="F4" t="n">
-        <v>168556.5544</v>
+        <v>16018.2638</v>
       </c>
       <c r="G4" t="n">
-        <v>914886.50020462</v>
+        <v>28.69999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -532,28 +539,29 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29.4</v>
+        <v>27.7</v>
       </c>
       <c r="C5" t="n">
-        <v>32</v>
+        <v>27.5</v>
       </c>
       <c r="D5" t="n">
-        <v>32</v>
+        <v>27.7</v>
       </c>
       <c r="E5" t="n">
-        <v>29.4</v>
+        <v>27.5</v>
       </c>
       <c r="F5" t="n">
-        <v>123549.0698</v>
+        <v>106706.9358</v>
       </c>
       <c r="G5" t="n">
-        <v>1038435.57000462</v>
+        <v>28.29999999999999</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -567,28 +575,29 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31.6</v>
+        <v>27.4</v>
       </c>
       <c r="C6" t="n">
-        <v>29.6</v>
+        <v>28.3</v>
       </c>
       <c r="D6" t="n">
-        <v>31.6</v>
+        <v>28.3</v>
       </c>
       <c r="E6" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="F6" t="n">
-        <v>243096.7476</v>
+        <v>21332.6114</v>
       </c>
       <c r="G6" t="n">
-        <v>795338.8224046199</v>
+        <v>28.13333333333332</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -602,63 +611,71 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>30.1</v>
+        <v>27.9</v>
       </c>
       <c r="C7" t="n">
-        <v>31.3</v>
+        <v>28.4</v>
       </c>
       <c r="D7" t="n">
-        <v>31.7</v>
+        <v>28.5</v>
       </c>
       <c r="E7" t="n">
-        <v>30</v>
+        <v>27.9</v>
       </c>
       <c r="F7" t="n">
-        <v>128911.9437</v>
+        <v>132077.7038</v>
       </c>
       <c r="G7" t="n">
-        <v>924250.76610462</v>
+        <v>28.06666666666665</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>28.3</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>31.2</v>
+        <v>28.5</v>
       </c>
       <c r="C8" t="n">
-        <v>31.1</v>
+        <v>28.4</v>
       </c>
       <c r="D8" t="n">
-        <v>31.3</v>
+        <v>28.5</v>
       </c>
       <c r="E8" t="n">
-        <v>29.8</v>
+        <v>28.4</v>
       </c>
       <c r="F8" t="n">
-        <v>203893.3914</v>
+        <v>187555.803</v>
       </c>
       <c r="G8" t="n">
-        <v>720357.37470462</v>
+        <v>28.36666666666666</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -668,32 +685,37 @@
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>31.1</v>
+        <v>28.4</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3</v>
+        <v>28.7</v>
       </c>
       <c r="D9" t="n">
-        <v>31.2</v>
+        <v>28.7</v>
       </c>
       <c r="E9" t="n">
-        <v>29.8</v>
+        <v>28.4</v>
       </c>
       <c r="F9" t="n">
-        <v>61386.26466204</v>
+        <v>35123.0591</v>
       </c>
       <c r="G9" t="n">
-        <v>658971.1100425799</v>
+        <v>28.49999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -703,32 +725,37 @@
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30.3</v>
+        <v>28.7</v>
       </c>
       <c r="C10" t="n">
-        <v>31.4</v>
+        <v>28.9</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="n">
-        <v>29.8</v>
+        <v>28.7</v>
       </c>
       <c r="F10" t="n">
-        <v>101164.8537975</v>
+        <v>309.9991</v>
       </c>
       <c r="G10" t="n">
-        <v>760135.96384008</v>
+        <v>28.66666666666666</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -738,32 +765,37 @@
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>31.4</v>
+        <v>28.9</v>
       </c>
       <c r="C11" t="n">
-        <v>31.1</v>
+        <v>28.9</v>
       </c>
       <c r="D11" t="n">
-        <v>31.4</v>
+        <v>28.9</v>
       </c>
       <c r="E11" t="n">
-        <v>31.1</v>
+        <v>28.9</v>
       </c>
       <c r="F11" t="n">
-        <v>39640.46896496</v>
+        <v>18262.6193</v>
       </c>
       <c r="G11" t="n">
-        <v>720495.49487512</v>
+        <v>28.83333333333333</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -773,102 +805,117 @@
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31.1</v>
+        <v>28.4</v>
       </c>
       <c r="C12" t="n">
-        <v>30.4</v>
+        <v>28.3</v>
       </c>
       <c r="D12" t="n">
-        <v>31.1</v>
+        <v>28.4</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="F12" t="n">
-        <v>315128.9198</v>
+        <v>177106.5265</v>
       </c>
       <c r="G12" t="n">
-        <v>405366.57507512</v>
+        <v>28.69999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>30.5</v>
+        <v>28.2</v>
       </c>
       <c r="C13" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="D13" t="n">
-        <v>30.5</v>
+        <v>28.2</v>
       </c>
       <c r="E13" t="n">
-        <v>29.3</v>
+        <v>28.2</v>
       </c>
       <c r="F13" t="n">
-        <v>87107.67690000001</v>
+        <v>33355.276</v>
       </c>
       <c r="G13" t="n">
-        <v>318258.89817512</v>
+        <v>28.46666666666666</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.4</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>30.4</v>
+        <v>27.7</v>
       </c>
       <c r="D14" t="n">
-        <v>30.4</v>
+        <v>28</v>
       </c>
       <c r="E14" t="n">
-        <v>29.5</v>
+        <v>27.7</v>
       </c>
       <c r="F14" t="n">
-        <v>43697.2263</v>
+        <v>20721.1371</v>
       </c>
       <c r="G14" t="n">
-        <v>361956.12447512</v>
+        <v>28.06666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -878,32 +925,37 @@
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>30.2</v>
+        <v>28.1</v>
       </c>
       <c r="C15" t="n">
-        <v>29.4</v>
+        <v>27.6</v>
       </c>
       <c r="D15" t="n">
-        <v>30.2</v>
+        <v>28.1</v>
       </c>
       <c r="E15" t="n">
-        <v>29.4</v>
+        <v>27.6</v>
       </c>
       <c r="F15" t="n">
-        <v>58411.2531</v>
+        <v>39398.7</v>
       </c>
       <c r="G15" t="n">
-        <v>303544.87137512</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -913,32 +965,37 @@
       </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>29.4</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="D16" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="E16" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="F16" t="n">
-        <v>242214.826</v>
+        <v>3600</v>
       </c>
       <c r="G16" t="n">
-        <v>61330.04537512001</v>
+        <v>27.76666666666666</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -948,32 +1005,37 @@
       </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="C17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
-        <v>29.2</v>
+        <v>28.1</v>
       </c>
       <c r="E17" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>90144.26949999999</v>
+        <v>43974.2613</v>
       </c>
       <c r="G17" t="n">
-        <v>151474.31487512</v>
+        <v>27.86666666666666</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -983,32 +1045,37 @@
       </c>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="E18" t="n">
-        <v>28.2</v>
+        <v>28</v>
       </c>
       <c r="F18" t="n">
-        <v>59012.7353</v>
+        <v>962</v>
       </c>
       <c r="G18" t="n">
-        <v>92461.57957512001</v>
+        <v>27.99999999999999</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1018,32 +1085,37 @@
       </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="C19" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="D19" t="n">
-        <v>29.6</v>
+        <v>28.2</v>
       </c>
       <c r="E19" t="n">
-        <v>28.3</v>
+        <v>27.6</v>
       </c>
       <c r="F19" t="n">
-        <v>157258.3258</v>
+        <v>20</v>
       </c>
       <c r="G19" t="n">
-        <v>249719.90537512</v>
+        <v>27.86666666666666</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1053,32 +1125,37 @@
       </c>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="C20" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="D20" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="E20" t="n">
-        <v>28.6</v>
+        <v>27.3</v>
       </c>
       <c r="F20" t="n">
-        <v>152941.6108</v>
+        <v>59313.7284</v>
       </c>
       <c r="G20" t="n">
-        <v>402661.51617512</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1088,32 +1165,37 @@
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="C21" t="n">
-        <v>29.5</v>
+        <v>27.9</v>
       </c>
       <c r="D21" t="n">
-        <v>29.5</v>
+        <v>27.9</v>
       </c>
       <c r="E21" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="F21" t="n">
-        <v>11000</v>
+        <v>2307.2894</v>
       </c>
       <c r="G21" t="n">
-        <v>413661.51617512</v>
+        <v>27.79999999999999</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1123,32 +1205,37 @@
       </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="C22" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="D22" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="E22" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="F22" t="n">
-        <v>41954.1207</v>
+        <v>1610.439</v>
       </c>
       <c r="G22" t="n">
-        <v>455615.63687512</v>
+        <v>28.16666666666666</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1158,32 +1245,37 @@
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C23" t="n">
         <v>29.5</v>
       </c>
-      <c r="C23" t="n">
-        <v>29.7</v>
-      </c>
       <c r="D23" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="E23" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="F23" t="n">
-        <v>18019.5931</v>
+        <v>263847.389</v>
       </c>
       <c r="G23" t="n">
-        <v>455615.63687512</v>
+        <v>28.69999999999999</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1193,32 +1285,37 @@
       </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.7</v>
+        <v>29.5</v>
       </c>
       <c r="C24" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="D24" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="E24" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="F24" t="n">
-        <v>7432</v>
+        <v>280435.4556</v>
       </c>
       <c r="G24" t="n">
-        <v>455615.63687512</v>
+        <v>29.06666666666665</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1228,32 +1325,37 @@
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="D25" t="n">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="E25" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="F25" t="n">
-        <v>24880.5423</v>
+        <v>74547.16099999999</v>
       </c>
       <c r="G25" t="n">
-        <v>430735.09457512</v>
+        <v>29.46666666666665</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1263,32 +1365,37 @@
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="C26" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="D26" t="n">
-        <v>29.8</v>
+        <v>30</v>
       </c>
       <c r="E26" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="F26" t="n">
-        <v>125</v>
+        <v>279007.4233</v>
       </c>
       <c r="G26" t="n">
-        <v>430860.09457512</v>
+        <v>29.63333333333332</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1298,32 +1405,37 @@
       </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="D27" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="E27" t="n">
-        <v>28.4</v>
+        <v>30</v>
       </c>
       <c r="F27" t="n">
-        <v>61113.4364</v>
+        <v>2280.0716</v>
       </c>
       <c r="G27" t="n">
-        <v>369746.65817512</v>
+        <v>29.96666666666665</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1333,32 +1445,37 @@
       </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>29.1</v>
+        <v>30</v>
       </c>
       <c r="C28" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="D28" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="F28" t="n">
-        <v>54615.5862</v>
+        <v>3864.0387</v>
       </c>
       <c r="G28" t="n">
-        <v>315131.07197512</v>
+        <v>29.99999999999999</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1368,32 +1485,37 @@
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="C29" t="n">
-        <v>28.3</v>
+        <v>29.9</v>
       </c>
       <c r="D29" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="E29" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="F29" t="n">
-        <v>60283.6273</v>
+        <v>6257.5679</v>
       </c>
       <c r="G29" t="n">
-        <v>254847.44467512</v>
+        <v>29.96666666666666</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1403,32 +1525,37 @@
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28.2</v>
+        <v>29.9</v>
       </c>
       <c r="C30" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="D30" t="n">
-        <v>28.2</v>
+        <v>30</v>
       </c>
       <c r="E30" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="F30" t="n">
-        <v>70713.52469999999</v>
+        <v>245221.054</v>
       </c>
       <c r="G30" t="n">
-        <v>184133.91997512</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1438,32 +1565,37 @@
       </c>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="C31" t="n">
-        <v>29.1</v>
+        <v>30.4</v>
       </c>
       <c r="D31" t="n">
-        <v>29.1</v>
+        <v>30.4</v>
       </c>
       <c r="E31" t="n">
-        <v>28.3</v>
+        <v>30.1</v>
       </c>
       <c r="F31" t="n">
-        <v>13000</v>
+        <v>12658.5789</v>
       </c>
       <c r="G31" t="n">
-        <v>197133.91997512</v>
+        <v>29.96666666666666</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1473,32 +1605,37 @@
       </c>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>28.1</v>
+        <v>30</v>
       </c>
       <c r="C32" t="n">
-        <v>28.4</v>
+        <v>30.4</v>
       </c>
       <c r="D32" t="n">
-        <v>28.4</v>
+        <v>30.4</v>
       </c>
       <c r="E32" t="n">
-        <v>27.8</v>
+        <v>30</v>
       </c>
       <c r="F32" t="n">
-        <v>213820.8307</v>
+        <v>67979.7105</v>
       </c>
       <c r="G32" t="n">
-        <v>-16686.91072488</v>
+        <v>30.13333333333333</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1508,32 +1645,37 @@
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="C33" t="n">
-        <v>27.4</v>
+        <v>29.7</v>
       </c>
       <c r="D33" t="n">
-        <v>29</v>
+        <v>30.3</v>
       </c>
       <c r="E33" t="n">
-        <v>27.4</v>
+        <v>29.7</v>
       </c>
       <c r="F33" t="n">
-        <v>37774.0203</v>
+        <v>9052.8228</v>
       </c>
       <c r="G33" t="n">
-        <v>-54460.93102488</v>
+        <v>30.16666666666666</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1543,32 +1685,37 @@
       </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>28.2</v>
+        <v>30.3</v>
       </c>
       <c r="C34" t="n">
-        <v>27.9</v>
+        <v>30.3</v>
       </c>
       <c r="D34" t="n">
-        <v>28.2</v>
+        <v>30.3</v>
       </c>
       <c r="E34" t="n">
-        <v>27.9</v>
+        <v>30.3</v>
       </c>
       <c r="F34" t="n">
-        <v>11493.8279</v>
+        <v>21</v>
       </c>
       <c r="G34" t="n">
-        <v>-42967.10312488</v>
+        <v>30.13333333333333</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1578,32 +1725,37 @@
       </c>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>27.8</v>
+        <v>29.8</v>
       </c>
       <c r="C35" t="n">
-        <v>27.6</v>
+        <v>30.4</v>
       </c>
       <c r="D35" t="n">
-        <v>28.7</v>
+        <v>30.4</v>
       </c>
       <c r="E35" t="n">
-        <v>27.6</v>
+        <v>29.6</v>
       </c>
       <c r="F35" t="n">
-        <v>2910.9425</v>
+        <v>123996.3585</v>
       </c>
       <c r="G35" t="n">
-        <v>-45878.04562488</v>
+        <v>30.13333333333333</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1613,32 +1765,37 @@
       </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>28.2</v>
+        <v>30.4</v>
       </c>
       <c r="C36" t="n">
-        <v>27.6</v>
+        <v>30.2</v>
       </c>
       <c r="D36" t="n">
-        <v>28.4</v>
+        <v>30.4</v>
       </c>
       <c r="E36" t="n">
-        <v>27.6</v>
+        <v>29.5</v>
       </c>
       <c r="F36" t="n">
-        <v>300.885</v>
+        <v>24083.7828</v>
       </c>
       <c r="G36" t="n">
-        <v>-45878.04562488</v>
+        <v>30.29999999999999</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1648,32 +1805,37 @@
       </c>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>28</v>
+        <v>29.6</v>
       </c>
       <c r="C37" t="n">
-        <v>27.9</v>
+        <v>28.9</v>
       </c>
       <c r="D37" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="E37" t="n">
-        <v>27.9</v>
+        <v>28.9</v>
       </c>
       <c r="F37" t="n">
-        <v>27826.5364</v>
+        <v>279278.3167</v>
       </c>
       <c r="G37" t="n">
-        <v>-18051.50922488</v>
+        <v>29.83333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1683,32 +1845,37 @@
       </c>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="C38" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="D38" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="E38" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="F38" t="n">
-        <v>8030</v>
+        <v>11502.8172</v>
       </c>
       <c r="G38" t="n">
-        <v>-10021.50922488</v>
+        <v>29.46666666666666</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1718,32 +1885,37 @@
       </c>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="C39" t="n">
-        <v>27.9</v>
+        <v>29.8</v>
       </c>
       <c r="D39" t="n">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
       <c r="E39" t="n">
-        <v>27.5</v>
+        <v>29.3</v>
       </c>
       <c r="F39" t="n">
-        <v>29403.841</v>
+        <v>29336.1881</v>
       </c>
       <c r="G39" t="n">
-        <v>-39425.35022487999</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1753,32 +1925,37 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>28.1</v>
+        <v>29.5</v>
       </c>
       <c r="C40" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="D40" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="E40" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="F40" t="n">
-        <v>25427.4285</v>
+        <v>1710.2305</v>
       </c>
       <c r="G40" t="n">
-        <v>-13997.92172487999</v>
+        <v>29.53333333333332</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1788,32 +1965,37 @@
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="C41" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="D41" t="n">
-        <v>28.7</v>
+        <v>30.1</v>
       </c>
       <c r="E41" t="n">
-        <v>28</v>
+        <v>29.5</v>
       </c>
       <c r="F41" t="n">
-        <v>4607.6608</v>
+        <v>2310</v>
       </c>
       <c r="G41" t="n">
-        <v>-9390.260924879991</v>
+        <v>29.59999999999999</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1823,32 +2005,37 @@
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
       <c r="C42" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="D42" t="n">
-        <v>28.3</v>
+        <v>29.8</v>
       </c>
       <c r="E42" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="F42" t="n">
-        <v>78776.7066</v>
+        <v>7707.5975</v>
       </c>
       <c r="G42" t="n">
-        <v>-88166.96752487999</v>
+        <v>29.49999999999999</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1858,32 +2045,37 @@
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="C43" t="n">
-        <v>28</v>
+        <v>29.7</v>
       </c>
       <c r="D43" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="E43" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="F43" t="n">
-        <v>26181.814</v>
+        <v>1278.0216</v>
       </c>
       <c r="G43" t="n">
-        <v>-61985.15352487999</v>
+        <v>29.56666666666666</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1893,32 +2085,37 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>28</v>
+        <v>29.7</v>
       </c>
       <c r="C44" t="n">
-        <v>28.7</v>
+        <v>29.7</v>
       </c>
       <c r="D44" t="n">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="E44" t="n">
-        <v>28</v>
+        <v>29.7</v>
       </c>
       <c r="F44" t="n">
-        <v>33047.7351</v>
+        <v>1400</v>
       </c>
       <c r="G44" t="n">
-        <v>-28937.41842487999</v>
+        <v>29.63333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1928,32 +2125,37 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="C45" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="D45" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="E45" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="F45" t="n">
-        <v>29</v>
+        <v>5546.2214</v>
       </c>
       <c r="G45" t="n">
-        <v>-28908.41842487999</v>
+        <v>29.63333333333333</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1963,32 +2165,37 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="C46" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="D46" t="n">
-        <v>28.6</v>
+        <v>29.5</v>
       </c>
       <c r="E46" t="n">
-        <v>28.2</v>
+        <v>29.3</v>
       </c>
       <c r="F46" t="n">
-        <v>16018.2638</v>
+        <v>8283.6661</v>
       </c>
       <c r="G46" t="n">
-        <v>-44926.68222487999</v>
+        <v>29.49999999999999</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -1998,32 +2205,37 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="C47" t="n">
-        <v>27.5</v>
+        <v>29.7</v>
       </c>
       <c r="D47" t="n">
-        <v>27.7</v>
+        <v>29.7</v>
       </c>
       <c r="E47" t="n">
-        <v>27.5</v>
+        <v>29.5</v>
       </c>
       <c r="F47" t="n">
-        <v>106706.9358</v>
+        <v>44.8989</v>
       </c>
       <c r="G47" t="n">
-        <v>-151633.61802488</v>
+        <v>29.49999999999999</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2033,32 +2245,37 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>27.4</v>
+        <v>29.5</v>
       </c>
       <c r="C48" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="D48" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="E48" t="n">
-        <v>27.3</v>
+        <v>29.5</v>
       </c>
       <c r="F48" t="n">
-        <v>21332.6114</v>
+        <v>426</v>
       </c>
       <c r="G48" t="n">
-        <v>-130301.00662488</v>
+        <v>29.49999999999999</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2068,32 +2285,37 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>27.9</v>
+        <v>29.5</v>
       </c>
       <c r="C49" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="D49" t="n">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="E49" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="F49" t="n">
-        <v>132077.7038</v>
+        <v>75100.3272</v>
       </c>
       <c r="G49" t="n">
-        <v>1776.697175119974</v>
+        <v>29.56666666666666</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2103,32 +2325,37 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="C50" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="D50" t="n">
-        <v>28.5</v>
+        <v>29.2</v>
       </c>
       <c r="E50" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="F50" t="n">
-        <v>187555.803</v>
+        <v>13243.8292</v>
       </c>
       <c r="G50" t="n">
-        <v>1776.697175119974</v>
+        <v>29.36666666666666</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2138,32 +2365,37 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="C51" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="D51" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="E51" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="F51" t="n">
-        <v>35123.0591</v>
+        <v>3814.6575</v>
       </c>
       <c r="G51" t="n">
-        <v>36899.75627511997</v>
+        <v>29.26666666666666</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2173,32 +2405,37 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="C52" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="D52" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E52" t="n">
         <v>29</v>
       </c>
-      <c r="E52" t="n">
-        <v>28.7</v>
-      </c>
       <c r="F52" t="n">
-        <v>309.9991</v>
+        <v>104876.3599</v>
       </c>
       <c r="G52" t="n">
-        <v>37209.75537511997</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2208,10 +2445,15 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2221,19 +2463,19 @@
         <v>28.9</v>
       </c>
       <c r="C53" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="D53" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E53" t="n">
         <v>28.9</v>
       </c>
       <c r="F53" t="n">
-        <v>18262.6193</v>
+        <v>3185.2914</v>
       </c>
       <c r="G53" t="n">
-        <v>37209.75537511997</v>
+        <v>29.16666666666666</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2243,32 +2485,37 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="C54" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="D54" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="E54" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="F54" t="n">
-        <v>177106.5265</v>
+        <v>16790.6896</v>
       </c>
       <c r="G54" t="n">
-        <v>-139896.77112488</v>
+        <v>29.09999999999999</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2278,32 +2525,37 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
       <c r="C55" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="D55" t="n">
-        <v>28.2</v>
+        <v>29</v>
       </c>
       <c r="E55" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="F55" t="n">
-        <v>33355.276</v>
+        <v>88670.46339999999</v>
       </c>
       <c r="G55" t="n">
-        <v>-173252.04712488</v>
+        <v>28.66666666666666</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2313,32 +2565,37 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="C56" t="n">
-        <v>27.7</v>
+        <v>28.5</v>
       </c>
       <c r="D56" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="E56" t="n">
-        <v>27.7</v>
+        <v>27.9</v>
       </c>
       <c r="F56" t="n">
-        <v>20721.1371</v>
+        <v>25841.6325</v>
       </c>
       <c r="G56" t="n">
-        <v>-193973.18422488</v>
+        <v>28.43333333333332</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2348,32 +2605,37 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C57" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="D57" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="E57" t="n">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="F57" t="n">
-        <v>39398.7</v>
+        <v>7982.2928</v>
       </c>
       <c r="G57" t="n">
-        <v>-233371.88422488</v>
+        <v>28.09999999999999</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2383,10 +2645,15 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2396,19 +2663,19 @@
         <v>28</v>
       </c>
       <c r="C58" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="D58" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="E58" t="n">
         <v>28</v>
       </c>
       <c r="F58" t="n">
-        <v>3600</v>
+        <v>143344.1649</v>
       </c>
       <c r="G58" t="n">
-        <v>-229771.88422488</v>
+        <v>28.19999999999999</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2418,10 +2685,15 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2431,19 +2703,19 @@
         <v>28.1</v>
       </c>
       <c r="C59" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="D59" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E59" t="n">
         <v>28.1</v>
       </c>
-      <c r="E59" t="n">
-        <v>28</v>
-      </c>
       <c r="F59" t="n">
-        <v>43974.2613</v>
+        <v>2966.1014</v>
       </c>
       <c r="G59" t="n">
-        <v>-229771.88422488</v>
+        <v>28.19999999999999</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2453,32 +2725,37 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="D60" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="E60" t="n">
-        <v>28</v>
+        <v>28.1</v>
       </c>
       <c r="F60" t="n">
-        <v>962</v>
+        <v>7021.8238</v>
       </c>
       <c r="G60" t="n">
-        <v>-229771.88422488</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2488,10 +2765,15 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2501,19 +2783,19 @@
         <v>28.2</v>
       </c>
       <c r="C61" t="n">
-        <v>27.6</v>
+        <v>28.4</v>
       </c>
       <c r="D61" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E61" t="n">
         <v>28.2</v>
       </c>
-      <c r="E61" t="n">
-        <v>27.6</v>
-      </c>
       <c r="F61" t="n">
-        <v>20</v>
+        <v>20851.312</v>
       </c>
       <c r="G61" t="n">
-        <v>-229791.88422488</v>
+        <v>28.43333333333333</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2523,32 +2805,37 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="C62" t="n">
-        <v>27.9</v>
+        <v>27.8</v>
       </c>
       <c r="D62" t="n">
-        <v>27.9</v>
+        <v>28.1</v>
       </c>
       <c r="E62" t="n">
-        <v>27.3</v>
+        <v>27.8</v>
       </c>
       <c r="F62" t="n">
-        <v>59313.7284</v>
+        <v>157292.0698</v>
       </c>
       <c r="G62" t="n">
-        <v>-170478.15582488</v>
+        <v>28.19999999999999</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2558,10 +2845,15 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2571,19 +2863,19 @@
         <v>27.9</v>
       </c>
       <c r="C63" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="D63" t="n">
         <v>27.9</v>
       </c>
       <c r="E63" t="n">
-        <v>27.9</v>
+        <v>27.7</v>
       </c>
       <c r="F63" t="n">
-        <v>2307.2894</v>
+        <v>17699.4233</v>
       </c>
       <c r="G63" t="n">
-        <v>-170478.15582488</v>
+        <v>27.96666666666666</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2593,32 +2885,37 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="C64" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="E64" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="F64" t="n">
-        <v>1610.439</v>
+        <v>4795.4137</v>
       </c>
       <c r="G64" t="n">
-        <v>-168867.71682488</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2628,32 +2925,37 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="C65" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
-        <v>29.5</v>
+        <v>28</v>
       </c>
       <c r="E65" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="F65" t="n">
-        <v>263847.389</v>
+        <v>2750.7427</v>
       </c>
       <c r="G65" t="n">
-        <v>94979.67217512001</v>
+        <v>27.89999999999999</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2663,32 +2965,37 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>29.5</v>
+        <v>28.1</v>
       </c>
       <c r="C66" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="D66" t="n">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="E66" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="F66" t="n">
-        <v>280435.4556</v>
+        <v>36194.2348</v>
       </c>
       <c r="G66" t="n">
-        <v>-185455.78342488</v>
+        <v>28.03333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2698,32 +3005,37 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="C67" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="D67" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="E67" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="F67" t="n">
-        <v>74547.16099999999</v>
+        <v>432</v>
       </c>
       <c r="G67" t="n">
-        <v>-110908.62242488</v>
+        <v>28.13333333333333</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2733,32 +3045,37 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>29.9</v>
+        <v>28.4</v>
       </c>
       <c r="C68" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="D68" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="E68" t="n">
-        <v>29.9</v>
+        <v>28.4</v>
       </c>
       <c r="F68" t="n">
-        <v>279007.4233</v>
+        <v>10</v>
       </c>
       <c r="G68" t="n">
-        <v>168098.80087512</v>
+        <v>28.26666666666666</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2768,32 +3085,37 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C69" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D69" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E69" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="F69" t="n">
-        <v>2280.0716</v>
+        <v>12</v>
       </c>
       <c r="G69" t="n">
-        <v>168098.80087512</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2803,32 +3125,37 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C70" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="D70" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="E70" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="F70" t="n">
-        <v>3864.0387</v>
+        <v>870.5133</v>
       </c>
       <c r="G70" t="n">
-        <v>168098.80087512</v>
+        <v>28.36666666666666</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2838,32 +3165,37 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C71" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="D71" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E71" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="F71" t="n">
-        <v>6257.5679</v>
+        <v>27.4867</v>
       </c>
       <c r="G71" t="n">
-        <v>161841.23297512</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2873,32 +3205,37 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>29.9</v>
+        <v>28</v>
       </c>
       <c r="C72" t="n">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="D72" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E72" t="n">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="F72" t="n">
-        <v>245221.054</v>
+        <v>6257.25</v>
       </c>
       <c r="G72" t="n">
-        <v>-83379.82102487996</v>
+        <v>28.23333333333332</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2908,32 +3245,37 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>30.1</v>
+        <v>27.9</v>
       </c>
       <c r="C73" t="n">
-        <v>30.4</v>
+        <v>28.2</v>
       </c>
       <c r="D73" t="n">
-        <v>30.4</v>
+        <v>28.2</v>
       </c>
       <c r="E73" t="n">
-        <v>30.1</v>
+        <v>27.9</v>
       </c>
       <c r="F73" t="n">
-        <v>12658.5789</v>
+        <v>11250.6029</v>
       </c>
       <c r="G73" t="n">
-        <v>-70721.24212487997</v>
+        <v>28.16666666666666</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2943,32 +3285,37 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C74" t="n">
-        <v>30.4</v>
+        <v>28.3</v>
       </c>
       <c r="D74" t="n">
-        <v>30.4</v>
+        <v>28.3</v>
       </c>
       <c r="E74" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="F74" t="n">
-        <v>67979.7105</v>
+        <v>2068.2633</v>
       </c>
       <c r="G74" t="n">
-        <v>-70721.24212487997</v>
+        <v>28.16666666666666</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -2978,32 +3325,37 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="C75" t="n">
-        <v>29.7</v>
+        <v>28.3</v>
       </c>
       <c r="D75" t="n">
-        <v>30.3</v>
+        <v>28.3</v>
       </c>
       <c r="E75" t="n">
-        <v>29.7</v>
+        <v>28.3</v>
       </c>
       <c r="F75" t="n">
-        <v>9052.8228</v>
+        <v>4092.0193</v>
       </c>
       <c r="G75" t="n">
-        <v>-79774.06492487996</v>
+        <v>28.26666666666666</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3013,32 +3365,37 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>30.3</v>
+        <v>28.3</v>
       </c>
       <c r="C76" t="n">
-        <v>30.3</v>
+        <v>28.4</v>
       </c>
       <c r="D76" t="n">
-        <v>30.3</v>
+        <v>28.4</v>
       </c>
       <c r="E76" t="n">
-        <v>30.3</v>
+        <v>28.3</v>
       </c>
       <c r="F76" t="n">
-        <v>21</v>
+        <v>13342.5464</v>
       </c>
       <c r="G76" t="n">
-        <v>-79753.06492487996</v>
+        <v>28.33333333333332</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3048,32 +3405,37 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>29.8</v>
+        <v>28.4</v>
       </c>
       <c r="C77" t="n">
-        <v>30.4</v>
+        <v>28.4</v>
       </c>
       <c r="D77" t="n">
-        <v>30.4</v>
+        <v>28.4</v>
       </c>
       <c r="E77" t="n">
-        <v>29.6</v>
+        <v>28.4</v>
       </c>
       <c r="F77" t="n">
-        <v>123996.3585</v>
+        <v>47248.6619</v>
       </c>
       <c r="G77" t="n">
-        <v>44243.29357512004</v>
+        <v>28.36666666666665</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3083,32 +3445,37 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>30.4</v>
+        <v>28.1</v>
       </c>
       <c r="C78" t="n">
-        <v>30.2</v>
+        <v>28.1</v>
       </c>
       <c r="D78" t="n">
-        <v>30.4</v>
+        <v>28.1</v>
       </c>
       <c r="E78" t="n">
-        <v>29.5</v>
+        <v>28.1</v>
       </c>
       <c r="F78" t="n">
-        <v>24083.7828</v>
+        <v>271</v>
       </c>
       <c r="G78" t="n">
-        <v>20159.51077512004</v>
+        <v>28.29999999999999</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3118,32 +3485,37 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="C79" t="n">
-        <v>28.9</v>
+        <v>27.9</v>
       </c>
       <c r="D79" t="n">
-        <v>29.6</v>
+        <v>28</v>
       </c>
       <c r="E79" t="n">
-        <v>28.9</v>
+        <v>27.9</v>
       </c>
       <c r="F79" t="n">
-        <v>279278.3167</v>
+        <v>16078.7826</v>
       </c>
       <c r="G79" t="n">
-        <v>-259118.80592488</v>
+        <v>28.13333333333332</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3153,32 +3525,37 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="C80" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="D80" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="E80" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="F80" t="n">
-        <v>11502.8172</v>
+        <v>96.1619</v>
       </c>
       <c r="G80" t="n">
-        <v>-247615.98872488</v>
+        <v>28.13333333333332</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3188,32 +3565,37 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C81" t="n">
         <v>29.3</v>
       </c>
-      <c r="C81" t="n">
-        <v>29.8</v>
-      </c>
       <c r="D81" t="n">
-        <v>29.8</v>
+        <v>29.3</v>
       </c>
       <c r="E81" t="n">
-        <v>29.3</v>
+        <v>28.4</v>
       </c>
       <c r="F81" t="n">
-        <v>29336.1881</v>
+        <v>100449.6253</v>
       </c>
       <c r="G81" t="n">
-        <v>-218279.80062488</v>
+        <v>28.53333333333331</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3223,17 +3605,22 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C82" t="n">
         <v>29.5</v>
@@ -3242,13 +3629,13 @@
         <v>29.5</v>
       </c>
       <c r="E82" t="n">
-        <v>29.4</v>
+        <v>28.9</v>
       </c>
       <c r="F82" t="n">
-        <v>1710.2305</v>
+        <v>56368.6925</v>
       </c>
       <c r="G82" t="n">
-        <v>-219990.03112488</v>
+        <v>29.06666666666665</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3258,32 +3645,37 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="C83" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="D83" t="n">
-        <v>30.1</v>
+        <v>28.8</v>
       </c>
       <c r="E83" t="n">
-        <v>29.5</v>
+        <v>28.8</v>
       </c>
       <c r="F83" t="n">
-        <v>2310</v>
+        <v>1571.9393</v>
       </c>
       <c r="G83" t="n">
-        <v>-219990.03112488</v>
+        <v>29.19999999999998</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3293,32 +3685,37 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="C84" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="D84" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="E84" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="F84" t="n">
-        <v>7707.5975</v>
+        <v>22940.5313</v>
       </c>
       <c r="G84" t="n">
-        <v>-219990.03112488</v>
+        <v>29.09999999999998</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3328,32 +3725,37 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="C85" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="D85" t="n">
-        <v>29.8</v>
+        <v>29.1</v>
       </c>
       <c r="E85" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="F85" t="n">
-        <v>1278.0216</v>
+        <v>2422.7746</v>
       </c>
       <c r="G85" t="n">
-        <v>-218712.00952488</v>
+        <v>28.93333333333331</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3363,32 +3765,37 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="C86" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="D86" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="E86" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="F86" t="n">
-        <v>1400</v>
+        <v>1552.0423</v>
       </c>
       <c r="G86" t="n">
-        <v>-218712.00952488</v>
+        <v>29.03333333333332</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3398,32 +3805,37 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="C87" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="D87" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="E87" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="F87" t="n">
-        <v>5546.2214</v>
+        <v>3863.2134</v>
       </c>
       <c r="G87" t="n">
-        <v>-224258.23092488</v>
+        <v>29.03333333333332</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3433,32 +3845,37 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C88" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="D88" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="E88" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="F88" t="n">
-        <v>8283.6661</v>
+        <v>22012.0116</v>
       </c>
       <c r="G88" t="n">
-        <v>-232541.89702488</v>
+        <v>29.03333333333332</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3468,32 +3885,37 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="C89" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="D89" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="E89" t="n">
-        <v>29.5</v>
+        <v>29.1</v>
       </c>
       <c r="F89" t="n">
-        <v>44.8989</v>
+        <v>3851.3615</v>
       </c>
       <c r="G89" t="n">
-        <v>-232496.99812488</v>
+        <v>29.03333333333332</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3503,32 +3925,37 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="C90" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="D90" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E90" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="F90" t="n">
-        <v>426</v>
+        <v>3633</v>
       </c>
       <c r="G90" t="n">
-        <v>-232922.99812488</v>
+        <v>29.13333333333332</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3538,32 +3965,37 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="C91" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="D91" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="E91" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="F91" t="n">
-        <v>75100.3272</v>
+        <v>402.6229</v>
       </c>
       <c r="G91" t="n">
-        <v>-232922.99812488</v>
+        <v>29.23333333333332</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3573,10 +4005,15 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3586,19 +4023,19 @@
         <v>29.2</v>
       </c>
       <c r="C92" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="D92" t="n">
         <v>29.2</v>
       </c>
       <c r="E92" t="n">
-        <v>29.1</v>
+        <v>29.2</v>
       </c>
       <c r="F92" t="n">
-        <v>13243.8292</v>
+        <v>7084.0158</v>
       </c>
       <c r="G92" t="n">
-        <v>-246166.82732488</v>
+        <v>29.26666666666665</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3608,10 +4045,15 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3630,10 +4072,10 @@
         <v>29.2</v>
       </c>
       <c r="F93" t="n">
-        <v>3814.6575</v>
+        <v>14192.628</v>
       </c>
       <c r="G93" t="n">
-        <v>-242352.16982488</v>
+        <v>29.23333333333332</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3643,32 +4085,37 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="C94" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="D94" t="n">
-        <v>29.1</v>
+        <v>29.3</v>
       </c>
       <c r="E94" t="n">
-        <v>29</v>
+        <v>29.3</v>
       </c>
       <c r="F94" t="n">
-        <v>104876.3599</v>
+        <v>11020.15</v>
       </c>
       <c r="G94" t="n">
-        <v>-347228.52972488</v>
+        <v>29.23333333333332</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3678,32 +4125,37 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="C95" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="D95" t="n">
-        <v>29.2</v>
+        <v>29.4</v>
       </c>
       <c r="E95" t="n">
-        <v>28.9</v>
+        <v>29.4</v>
       </c>
       <c r="F95" t="n">
-        <v>3185.2914</v>
+        <v>5542</v>
       </c>
       <c r="G95" t="n">
-        <v>-344043.23832488</v>
+        <v>29.29999999999999</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3713,32 +4165,37 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C96" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="D96" t="n">
-        <v>29.2</v>
+        <v>29.9</v>
       </c>
       <c r="E96" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="F96" t="n">
-        <v>16790.6896</v>
+        <v>142612.7607</v>
       </c>
       <c r="G96" t="n">
-        <v>-360833.92792488</v>
+        <v>29.53333333333332</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3748,32 +4205,37 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29</v>
+        <v>29.7</v>
       </c>
       <c r="C97" t="n">
-        <v>27.8</v>
+        <v>29.9</v>
       </c>
       <c r="D97" t="n">
-        <v>29</v>
+        <v>29.9</v>
       </c>
       <c r="E97" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="F97" t="n">
-        <v>88670.46339999999</v>
+        <v>46407.5886</v>
       </c>
       <c r="G97" t="n">
-        <v>-449504.39132488</v>
+        <v>29.73333333333332</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3783,32 +4245,37 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>29.3</v>
+        <v>29.9</v>
       </c>
       <c r="C98" t="n">
-        <v>28.5</v>
+        <v>30.5</v>
       </c>
       <c r="D98" t="n">
-        <v>29.3</v>
+        <v>30.5</v>
       </c>
       <c r="E98" t="n">
-        <v>27.9</v>
+        <v>29.7</v>
       </c>
       <c r="F98" t="n">
-        <v>25841.6325</v>
+        <v>121674.5017</v>
       </c>
       <c r="G98" t="n">
-        <v>-423662.75882488</v>
+        <v>30.09999999999998</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3818,32 +4285,37 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="C99" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="D99" t="n">
-        <v>28</v>
+        <v>29.9</v>
       </c>
       <c r="E99" t="n">
-        <v>28</v>
+        <v>29.8</v>
       </c>
       <c r="F99" t="n">
-        <v>7982.2928</v>
+        <v>12954</v>
       </c>
       <c r="G99" t="n">
-        <v>-431645.05162488</v>
+        <v>30.09999999999998</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3853,32 +4325,37 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>28</v>
+        <v>30.4</v>
       </c>
       <c r="C100" t="n">
-        <v>28.1</v>
+        <v>30.4</v>
       </c>
       <c r="D100" t="n">
-        <v>28.5</v>
+        <v>30.4</v>
       </c>
       <c r="E100" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F100" t="n">
-        <v>143344.1649</v>
+        <v>29865.9013</v>
       </c>
       <c r="G100" t="n">
-        <v>-288300.88672488</v>
+        <v>30.26666666666665</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3888,32 +4365,37 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>28.1</v>
+        <v>30.4</v>
       </c>
       <c r="C101" t="n">
-        <v>28.5</v>
+        <v>30.3</v>
       </c>
       <c r="D101" t="n">
-        <v>28.5</v>
+        <v>30.4</v>
       </c>
       <c r="E101" t="n">
-        <v>28.1</v>
+        <v>30.1</v>
       </c>
       <c r="F101" t="n">
-        <v>2966.1014</v>
+        <v>29390.93187368</v>
       </c>
       <c r="G101" t="n">
-        <v>-285334.78532488</v>
+        <v>30.19999999999999</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3923,32 +4405,37 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>28.1</v>
+        <v>30.1</v>
       </c>
       <c r="C102" t="n">
-        <v>28.4</v>
+        <v>30</v>
       </c>
       <c r="D102" t="n">
-        <v>28.4</v>
+        <v>30.3</v>
       </c>
       <c r="E102" t="n">
-        <v>28.1</v>
+        <v>30</v>
       </c>
       <c r="F102" t="n">
-        <v>7021.8238</v>
+        <v>85742.7807</v>
       </c>
       <c r="G102" t="n">
-        <v>-292356.60912488</v>
+        <v>30.23333333333332</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3958,67 +4445,75 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>28.2</v>
+        <v>30.2</v>
       </c>
       <c r="C103" t="n">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="D103" t="n">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="E103" t="n">
-        <v>28.2</v>
+        <v>29.4</v>
       </c>
       <c r="F103" t="n">
-        <v>20851.312</v>
+        <v>26605.2372</v>
       </c>
       <c r="G103" t="n">
-        <v>-292356.60912488</v>
+        <v>29.89999999999999</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>28.1</v>
+        <v>30.1</v>
       </c>
       <c r="C104" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="D104" t="n">
-        <v>28.1</v>
+        <v>30.1</v>
       </c>
       <c r="E104" t="n">
-        <v>27.8</v>
+        <v>29.5</v>
       </c>
       <c r="F104" t="n">
-        <v>157292.0698</v>
+        <v>4099.983</v>
       </c>
       <c r="G104" t="n">
-        <v>-449648.67892488</v>
+        <v>29.63333333333332</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4032,28 +4527,29 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="C105" t="n">
-        <v>27.7</v>
+        <v>29.4</v>
       </c>
       <c r="D105" t="n">
-        <v>27.9</v>
+        <v>29.4</v>
       </c>
       <c r="E105" t="n">
-        <v>27.7</v>
+        <v>29.4</v>
       </c>
       <c r="F105" t="n">
-        <v>17699.4233</v>
+        <v>425.17</v>
       </c>
       <c r="G105" t="n">
-        <v>-467348.10222488</v>
+        <v>29.43333333333332</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4067,28 +4563,29 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>27.7</v>
+        <v>29.3</v>
       </c>
       <c r="C106" t="n">
-        <v>28</v>
+        <v>28.8</v>
       </c>
       <c r="D106" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="E106" t="n">
-        <v>27.7</v>
+        <v>28.8</v>
       </c>
       <c r="F106" t="n">
-        <v>4795.4137</v>
+        <v>53571.1189</v>
       </c>
       <c r="G106" t="n">
-        <v>-462552.68852488</v>
+        <v>29.23333333333332</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4102,28 +4599,29 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="C107" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="D107" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="E107" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="F107" t="n">
-        <v>2750.7427</v>
+        <v>4188.4882</v>
       </c>
       <c r="G107" t="n">
-        <v>-462552.68852488</v>
+        <v>28.86666666666666</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4137,28 +4635,29 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="C108" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="D108" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="E108" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="F108" t="n">
-        <v>36194.2348</v>
+        <v>89235.8438</v>
       </c>
       <c r="G108" t="n">
-        <v>-426358.4537248801</v>
+        <v>28.53333333333332</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4172,6 +4671,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4190,10 +4690,10 @@
         <v>28.3</v>
       </c>
       <c r="F109" t="n">
-        <v>432</v>
+        <v>37694.6236</v>
       </c>
       <c r="G109" t="n">
-        <v>-425926.4537248801</v>
+        <v>28.36666666666666</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4207,45 +4707,43 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="C110" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="D110" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="E110" t="n">
-        <v>28.4</v>
+        <v>28.2</v>
       </c>
       <c r="F110" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G110" t="n">
-        <v>-425916.4537248801</v>
+        <v>28.29999999999999</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K110" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4255,105 +4753,91 @@
         <v>28.3</v>
       </c>
       <c r="C111" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="D111" t="n">
-        <v>28.3</v>
+        <v>28.5</v>
       </c>
       <c r="E111" t="n">
         <v>28.3</v>
       </c>
       <c r="F111" t="n">
-        <v>12</v>
+        <v>27372.2388</v>
       </c>
       <c r="G111" t="n">
-        <v>-425928.4537248801</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K111" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="C112" t="n">
-        <v>28.4</v>
+        <v>29</v>
       </c>
       <c r="D112" t="n">
-        <v>28.4</v>
+        <v>29</v>
       </c>
       <c r="E112" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="F112" t="n">
-        <v>870.5133</v>
+        <v>46213.334</v>
       </c>
       <c r="G112" t="n">
-        <v>-425057.9404248801</v>
+        <v>28.56666666666666</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K112" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>28.3</v>
+        <v>29</v>
       </c>
       <c r="C113" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="D113" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="E113" t="n">
-        <v>28.3</v>
+        <v>28.9</v>
       </c>
       <c r="F113" t="n">
-        <v>27.4867</v>
+        <v>69623</v>
       </c>
       <c r="G113" t="n">
-        <v>-425085.4271248801</v>
+        <v>28.99999999999999</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4362,39 +4846,34 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="C114" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="D114" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="E114" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="F114" t="n">
-        <v>6257.25</v>
+        <v>1389.4293</v>
       </c>
       <c r="G114" t="n">
-        <v>-431342.6771248801</v>
+        <v>29.13333333333333</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4403,39 +4882,34 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="C115" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="D115" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="E115" t="n">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="F115" t="n">
-        <v>11250.6029</v>
+        <v>9535.429400000001</v>
       </c>
       <c r="G115" t="n">
-        <v>-420092.0742248801</v>
+        <v>29.06666666666666</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4444,39 +4918,34 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="C116" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="D116" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="E116" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="F116" t="n">
-        <v>2068.2633</v>
+        <v>12211</v>
       </c>
       <c r="G116" t="n">
-        <v>-418023.8109248801</v>
+        <v>28.83333333333333</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4485,39 +4954,34 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="C117" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="D117" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="E117" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="F117" t="n">
-        <v>4092.0193</v>
+        <v>2540.9833</v>
       </c>
       <c r="G117" t="n">
-        <v>-418023.8109248801</v>
+        <v>28.76666666666666</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -4526,39 +4990,34 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="C118" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="D118" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="E118" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="F118" t="n">
-        <v>13342.5464</v>
+        <v>8821.405000000001</v>
       </c>
       <c r="G118" t="n">
-        <v>-404681.2645248801</v>
+        <v>28.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4567,39 +5026,34 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.4</v>
+        <v>28.8</v>
       </c>
       <c r="C119" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="D119" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="E119" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F119" t="n">
-        <v>47248.6619</v>
+        <v>16900.2517</v>
       </c>
       <c r="G119" t="n">
-        <v>-404681.2645248801</v>
+        <v>29</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4608,39 +5062,34 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.1</v>
+        <v>28.8</v>
       </c>
       <c r="C120" t="n">
-        <v>28.1</v>
+        <v>28.7</v>
       </c>
       <c r="D120" t="n">
-        <v>28.1</v>
+        <v>28.8</v>
       </c>
       <c r="E120" t="n">
-        <v>28.1</v>
+        <v>28.7</v>
       </c>
       <c r="F120" t="n">
-        <v>271</v>
+        <v>36612.1895</v>
       </c>
       <c r="G120" t="n">
-        <v>-404952.2645248801</v>
+        <v>29</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -4649,449 +5098,394 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="C121" t="n">
-        <v>27.9</v>
+        <v>28.8</v>
       </c>
       <c r="D121" t="n">
-        <v>28</v>
+        <v>28.8</v>
       </c>
       <c r="E121" t="n">
-        <v>27.9</v>
+        <v>28.7</v>
       </c>
       <c r="F121" t="n">
-        <v>16078.7826</v>
+        <v>11823.8096</v>
       </c>
       <c r="G121" t="n">
-        <v>-421031.0471248801</v>
+        <v>28.86666666666666</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="C122" t="n">
-        <v>28.4</v>
+        <v>29.7</v>
       </c>
       <c r="D122" t="n">
-        <v>28.4</v>
+        <v>29.7</v>
       </c>
       <c r="E122" t="n">
-        <v>28.4</v>
+        <v>29.2</v>
       </c>
       <c r="F122" t="n">
-        <v>96.1619</v>
+        <v>93114.2509</v>
       </c>
       <c r="G122" t="n">
-        <v>-420934.8852248801</v>
+        <v>29.06666666666666</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>28.4</v>
+        <v>29.4</v>
       </c>
       <c r="C123" t="n">
         <v>29.3</v>
       </c>
       <c r="D123" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E123" t="n">
         <v>29.3</v>
       </c>
-      <c r="E123" t="n">
-        <v>28.4</v>
-      </c>
       <c r="F123" t="n">
-        <v>100449.6253</v>
+        <v>76668.4091</v>
       </c>
       <c r="G123" t="n">
-        <v>-320485.2599248801</v>
+        <v>29.26666666666666</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C124" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="D124" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="E124" t="n">
         <v>28.9</v>
       </c>
       <c r="F124" t="n">
-        <v>56368.6925</v>
+        <v>400</v>
       </c>
       <c r="G124" t="n">
-        <v>-264116.56742488</v>
+        <v>29.3</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="C125" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D125" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="E125" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F125" t="n">
-        <v>1571.9393</v>
+        <v>6049.5298</v>
       </c>
       <c r="G125" t="n">
-        <v>-265688.5067248801</v>
+        <v>28.96666666666667</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="C126" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D126" t="n">
-        <v>29.1</v>
+        <v>28.7</v>
       </c>
       <c r="E126" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F126" t="n">
-        <v>22940.5313</v>
+        <v>28886.1591</v>
       </c>
       <c r="G126" t="n">
-        <v>-242747.9754248801</v>
+        <v>28.76666666666667</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="C127" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="D127" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="E127" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="F127" t="n">
-        <v>2422.7746</v>
+        <v>380.461</v>
       </c>
       <c r="G127" t="n">
-        <v>-242747.9754248801</v>
+        <v>28.66666666666667</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="C128" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="D128" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="E128" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F128" t="n">
-        <v>1552.0423</v>
+        <v>33</v>
       </c>
       <c r="G128" t="n">
-        <v>-241195.9331248801</v>
+        <v>28.63333333333333</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="C129" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="D129" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="E129" t="n">
-        <v>29</v>
+        <v>28.6</v>
       </c>
       <c r="F129" t="n">
-        <v>3863.2134</v>
+        <v>1895.4585</v>
       </c>
       <c r="G129" t="n">
-        <v>-245059.1465248801</v>
+        <v>28.6</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="C130" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="D130" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="E130" t="n">
-        <v>29</v>
+        <v>28.7</v>
       </c>
       <c r="F130" t="n">
-        <v>22012.0116</v>
+        <v>3132.6628</v>
       </c>
       <c r="G130" t="n">
-        <v>-245059.1465248801</v>
+        <v>28.63333333333334</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="C131" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="D131" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="E131" t="n">
-        <v>29.1</v>
+        <v>28.8</v>
       </c>
       <c r="F131" t="n">
-        <v>3851.3615</v>
+        <v>4920.1651</v>
       </c>
       <c r="G131" t="n">
-        <v>-241207.7850248801</v>
+        <v>28.7</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5100,39 +5494,34 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>29.6</v>
+        <v>29.3</v>
       </c>
       <c r="C132" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D132" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="E132" t="n">
         <v>29.3</v>
       </c>
       <c r="F132" t="n">
-        <v>3633</v>
+        <v>72402.1244</v>
       </c>
       <c r="G132" t="n">
-        <v>-237574.7850248801</v>
+        <v>29</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5141,17 +5530,12 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5170,502 +5554,442 @@
         <v>29.3</v>
       </c>
       <c r="F133" t="n">
-        <v>402.6229</v>
+        <v>122294.8725</v>
       </c>
       <c r="G133" t="n">
-        <v>-237574.7850248801</v>
+        <v>29.2</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="C134" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="D134" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="E134" t="n">
-        <v>29.2</v>
+        <v>28.9</v>
       </c>
       <c r="F134" t="n">
-        <v>7084.0158</v>
+        <v>39917.1961</v>
       </c>
       <c r="G134" t="n">
-        <v>-244658.8008248801</v>
+        <v>29.53333333333333</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="C135" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="D135" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="E135" t="n">
-        <v>29.2</v>
+        <v>29.8</v>
       </c>
       <c r="F135" t="n">
-        <v>14192.628</v>
+        <v>5107.2816</v>
       </c>
       <c r="G135" t="n">
-        <v>-244658.8008248801</v>
+        <v>29.63333333333333</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="C136" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="D136" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="E136" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="F136" t="n">
-        <v>11020.15</v>
+        <v>4078.7583</v>
       </c>
       <c r="G136" t="n">
-        <v>-233638.6508248801</v>
+        <v>29.8</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C137" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="D137" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="E137" t="n">
-        <v>29.4</v>
+        <v>28.7</v>
       </c>
       <c r="F137" t="n">
-        <v>5542</v>
+        <v>5124.6101</v>
       </c>
       <c r="G137" t="n">
-        <v>-228096.6508248801</v>
+        <v>29.7</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="C138" t="n">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
       <c r="D138" t="n">
-        <v>29.9</v>
+        <v>28.7</v>
       </c>
       <c r="E138" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="F138" t="n">
-        <v>142612.7607</v>
+        <v>3979.0106</v>
       </c>
       <c r="G138" t="n">
-        <v>-85483.89012488007</v>
+        <v>29.33333333333333</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="C139" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D139" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="E139" t="n">
-        <v>29.7</v>
+        <v>29</v>
       </c>
       <c r="F139" t="n">
-        <v>46407.5886</v>
+        <v>8756.7549</v>
       </c>
       <c r="G139" t="n">
-        <v>-85483.89012488007</v>
+        <v>29.06666666666667</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="C140" t="n">
-        <v>30.5</v>
+        <v>28.9</v>
       </c>
       <c r="D140" t="n">
-        <v>30.5</v>
+        <v>28.9</v>
       </c>
       <c r="E140" t="n">
-        <v>29.7</v>
+        <v>28.9</v>
       </c>
       <c r="F140" t="n">
-        <v>121674.5017</v>
+        <v>2046.4446</v>
       </c>
       <c r="G140" t="n">
-        <v>36190.61157511992</v>
+        <v>28.86666666666666</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="C141" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="D141" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="E141" t="n">
-        <v>29.8</v>
+        <v>29</v>
       </c>
       <c r="F141" t="n">
-        <v>12954</v>
+        <v>4079.0585</v>
       </c>
       <c r="G141" t="n">
-        <v>23236.61157511992</v>
+        <v>28.96666666666667</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="C142" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="D142" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="E142" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F142" t="n">
-        <v>29865.9013</v>
+        <v>75574.6516</v>
       </c>
       <c r="G142" t="n">
-        <v>53102.51287511992</v>
+        <v>28.96666666666667</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="C143" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="D143" t="n">
-        <v>30.4</v>
+        <v>29</v>
       </c>
       <c r="E143" t="n">
-        <v>30.1</v>
+        <v>29</v>
       </c>
       <c r="F143" t="n">
-        <v>29390.93187368</v>
+        <v>11913.414</v>
       </c>
       <c r="G143" t="n">
-        <v>23711.58100143992</v>
+        <v>29</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>30.1</v>
+        <v>29</v>
       </c>
       <c r="C144" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="D144" t="n">
-        <v>30.3</v>
+        <v>29</v>
       </c>
       <c r="E144" t="n">
-        <v>30</v>
+        <v>28.9</v>
       </c>
       <c r="F144" t="n">
-        <v>85742.7807</v>
+        <v>81708.64690000001</v>
       </c>
       <c r="G144" t="n">
-        <v>-62031.19969856009</v>
+        <v>28.96666666666667</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
+      <c r="N144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="C145" t="n">
-        <v>29.4</v>
+        <v>27</v>
       </c>
       <c r="D145" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="E145" t="n">
-        <v>29.4</v>
+        <v>27</v>
       </c>
       <c r="F145" t="n">
-        <v>26605.2372</v>
+        <v>286808.3073</v>
       </c>
       <c r="G145" t="n">
-        <v>-88636.43689856009</v>
+        <v>28.3</v>
       </c>
       <c r="H145" t="n">
         <v>0</v>
@@ -5674,39 +5998,34 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
+      <c r="N145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>30.1</v>
+        <v>27.3</v>
       </c>
       <c r="C146" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="D146" t="n">
-        <v>30.1</v>
+        <v>28.9</v>
       </c>
       <c r="E146" t="n">
-        <v>29.5</v>
+        <v>27.3</v>
       </c>
       <c r="F146" t="n">
-        <v>4099.983</v>
+        <v>5207.1287</v>
       </c>
       <c r="G146" t="n">
-        <v>-84536.45389856008</v>
+        <v>28.26666666666667</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
@@ -5715,39 +6034,34 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
+      <c r="N146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="C147" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="D147" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="E147" t="n">
-        <v>29.4</v>
+        <v>28.6</v>
       </c>
       <c r="F147" t="n">
-        <v>425.17</v>
+        <v>24475.5244</v>
       </c>
       <c r="G147" t="n">
-        <v>-84961.62389856008</v>
+        <v>28.16666666666667</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
@@ -5756,39 +6070,34 @@
         <v>0</v>
       </c>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
+      <c r="N147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C148" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="D148" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="E148" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="F148" t="n">
-        <v>53571.1189</v>
+        <v>10</v>
       </c>
       <c r="G148" t="n">
-        <v>-138532.7427985601</v>
+        <v>28.73333333333333</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5797,39 +6106,34 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
+      <c r="N148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="C149" t="n">
-        <v>28.4</v>
+        <v>29</v>
       </c>
       <c r="D149" t="n">
-        <v>28.4</v>
+        <v>29</v>
       </c>
       <c r="E149" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F149" t="n">
-        <v>4188.4882</v>
+        <v>400</v>
       </c>
       <c r="G149" t="n">
-        <v>-142721.2309985601</v>
+        <v>28.76666666666667</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5838,40 +6142,35 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
+      <c r="N149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E150" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>5415.8501</v>
+      </c>
+      <c r="G150" t="n">
         <v>28.5</v>
       </c>
-      <c r="C150" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="D150" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="E150" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="F150" t="n">
-        <v>89235.8438</v>
-      </c>
-      <c r="G150" t="n">
-        <v>-142721.2309985601</v>
-      </c>
       <c r="H150" t="n">
         <v>0</v>
       </c>
@@ -5879,39 +6178,34 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
+      <c r="N150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="C151" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="D151" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="E151" t="n">
-        <v>28.3</v>
+        <v>28.7</v>
       </c>
       <c r="F151" t="n">
-        <v>37694.6236</v>
+        <v>10104.5296</v>
       </c>
       <c r="G151" t="n">
-        <v>-180415.8545985601</v>
+        <v>28.5</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5920,39 +6214,34 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
+      <c r="N151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
       <c r="C152" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="D152" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="E152" t="n">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
       <c r="F152" t="n">
-        <v>23</v>
+        <v>7000</v>
       </c>
       <c r="G152" t="n">
-        <v>-180438.8545985601</v>
+        <v>28.43333333333333</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5961,39 +6250,34 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
+      <c r="N152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="C153" t="n">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="D153" t="n">
-        <v>28.5</v>
+        <v>27.7</v>
       </c>
       <c r="E153" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="F153" t="n">
-        <v>27372.2388</v>
+        <v>26124.1888</v>
       </c>
       <c r="G153" t="n">
-        <v>-153066.6157985601</v>
+        <v>28.4</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6002,125 +6286,106 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
+      <c r="N153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="C154" t="n">
-        <v>29</v>
+        <v>27.8</v>
       </c>
       <c r="D154" t="n">
-        <v>29</v>
+        <v>27.8</v>
       </c>
       <c r="E154" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="F154" t="n">
-        <v>46213.334</v>
+        <v>11443.1483</v>
       </c>
       <c r="G154" t="n">
-        <v>-106853.2817985601</v>
+        <v>28.1</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="K154" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
+      <c r="N154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>29</v>
+        <v>27.8</v>
       </c>
       <c r="C155" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="D155" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="E155" t="n">
-        <v>28.9</v>
+        <v>27.8</v>
       </c>
       <c r="F155" t="n">
-        <v>69623</v>
+        <v>4660.9254</v>
       </c>
       <c r="G155" t="n">
-        <v>-37230.28179856006</v>
+        <v>28.06666666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>29</v>
-      </c>
-      <c r="K155" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
+      <c r="N155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="C156" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="D156" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="E156" t="n">
-        <v>28.9</v>
+        <v>28</v>
       </c>
       <c r="F156" t="n">
-        <v>1389.4293</v>
+        <v>24934.3928</v>
       </c>
       <c r="G156" t="n">
-        <v>-38619.71109856006</v>
+        <v>28.16666666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6129,80 +6394,76 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
+      <c r="N156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="C157" t="n">
-        <v>28.8</v>
+        <v>27.9</v>
       </c>
       <c r="D157" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="E157" t="n">
-        <v>28.8</v>
+        <v>27.9</v>
       </c>
       <c r="F157" t="n">
-        <v>9535.429400000001</v>
+        <v>8386.6582</v>
       </c>
       <c r="G157" t="n">
-        <v>-48155.14049856006</v>
+        <v>28.2</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J157" t="n">
+        <v>28</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
+      <c r="N157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="C158" t="n">
         <v>28.8</v>
       </c>
       <c r="D158" t="n">
-        <v>29.2</v>
+        <v>28.8</v>
       </c>
       <c r="E158" t="n">
         <v>28.8</v>
       </c>
       <c r="F158" t="n">
-        <v>12211</v>
+        <v>34209.7586</v>
       </c>
       <c r="G158" t="n">
-        <v>-48155.14049856006</v>
+        <v>28.23333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>1</v>
@@ -6211,11 +6472,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K158" t="n">
-        <v>28.3</v>
-      </c>
+        <v>27.9</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6224,28 +6483,29 @@
       <c r="M158" t="n">
         <v>1</v>
       </c>
+      <c r="N158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>28.8</v>
+        <v>28.1</v>
       </c>
       <c r="C159" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="D159" t="n">
-        <v>28.8</v>
+        <v>28.1</v>
       </c>
       <c r="E159" t="n">
-        <v>28.7</v>
+        <v>28</v>
       </c>
       <c r="F159" t="n">
-        <v>2540.9833</v>
+        <v>10078.2565</v>
       </c>
       <c r="G159" t="n">
-        <v>-50696.12379856006</v>
+        <v>28.23333333333333</v>
       </c>
       <c r="H159" t="n">
         <v>1</v>
@@ -6256,9 +6516,7 @@
       <c r="J159" t="n">
         <v>28.8</v>
       </c>
-      <c r="K159" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6267,28 +6525,29 @@
       <c r="M159" t="n">
         <v>1</v>
       </c>
+      <c r="N159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="C160" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="D160" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="E160" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="F160" t="n">
-        <v>8821.405000000001</v>
+        <v>186.2473</v>
       </c>
       <c r="G160" t="n">
-        <v>-41874.71879856006</v>
+        <v>28.36666666666666</v>
       </c>
       <c r="H160" t="n">
         <v>1</v>
@@ -6297,11 +6556,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K160" t="n">
-        <v>28.3</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6310,28 +6567,29 @@
       <c r="M160" t="n">
         <v>1</v>
       </c>
+      <c r="N160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="C161" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="D161" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="E161" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="F161" t="n">
-        <v>16900.2517</v>
+        <v>241.7667</v>
       </c>
       <c r="G161" t="n">
-        <v>-58774.97049856006</v>
+        <v>28.2</v>
       </c>
       <c r="H161" t="n">
         <v>1</v>
@@ -6340,11 +6598,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="K161" t="n">
         <v>28.3</v>
       </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6353,28 +6609,29 @@
       <c r="M161" t="n">
         <v>1</v>
       </c>
+      <c r="N161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="C162" t="n">
-        <v>28.7</v>
+        <v>27.7</v>
       </c>
       <c r="D162" t="n">
-        <v>28.8</v>
+        <v>28</v>
       </c>
       <c r="E162" t="n">
-        <v>28.7</v>
+        <v>27.7</v>
       </c>
       <c r="F162" t="n">
-        <v>36612.1895</v>
+        <v>127485.1171</v>
       </c>
       <c r="G162" t="n">
-        <v>-95387.15999856006</v>
+        <v>28.1</v>
       </c>
       <c r="H162" t="n">
         <v>1</v>
@@ -6383,11 +6640,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="K162" t="n">
         <v>28.3</v>
       </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6396,28 +6651,29 @@
       <c r="M162" t="n">
         <v>1</v>
       </c>
+      <c r="N162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="C163" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="D163" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="E163" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="F163" t="n">
-        <v>11823.8096</v>
+        <v>25185.3118</v>
       </c>
       <c r="G163" t="n">
-        <v>-83563.35039856005</v>
+        <v>28.1</v>
       </c>
       <c r="H163" t="n">
         <v>1</v>
@@ -6426,11 +6682,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K163" t="n">
-        <v>28.3</v>
-      </c>
+        <v>27.7</v>
+      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6439,28 +6693,29 @@
       <c r="M163" t="n">
         <v>1</v>
       </c>
+      <c r="N163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>29.2</v>
+        <v>27.5</v>
       </c>
       <c r="C164" t="n">
-        <v>29.7</v>
+        <v>28.1</v>
       </c>
       <c r="D164" t="n">
-        <v>29.7</v>
+        <v>28.1</v>
       </c>
       <c r="E164" t="n">
-        <v>29.2</v>
+        <v>27.2</v>
       </c>
       <c r="F164" t="n">
-        <v>93114.2509</v>
+        <v>94281.6102</v>
       </c>
       <c r="G164" t="n">
-        <v>9550.900501439944</v>
+        <v>28.03333333333333</v>
       </c>
       <c r="H164" t="n">
         <v>1</v>
@@ -6469,11 +6724,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K164" t="n">
         <v>28.3</v>
       </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6482,1744 +6735,7 @@
       <c r="M164" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="C165" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D165" t="n">
-        <v>29.4</v>
-      </c>
-      <c r="E165" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F165" t="n">
-        <v>76668.4091</v>
-      </c>
-      <c r="G165" t="n">
-        <v>-67117.50859856006</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="K165" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C166" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D166" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E166" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F166" t="n">
-        <v>400</v>
-      </c>
-      <c r="G166" t="n">
-        <v>-67517.50859856006</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K166" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C167" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D167" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E167" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F167" t="n">
-        <v>6049.5298</v>
-      </c>
-      <c r="G167" t="n">
-        <v>-73567.03839856006</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="K167" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C168" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D168" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E168" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F168" t="n">
-        <v>28886.1591</v>
-      </c>
-      <c r="G168" t="n">
-        <v>-73567.03839856006</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K168" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C169" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D169" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E169" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F169" t="n">
-        <v>380.461</v>
-      </c>
-      <c r="G169" t="n">
-        <v>-73947.49939856006</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="K169" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C170" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D170" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E170" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F170" t="n">
-        <v>33</v>
-      </c>
-      <c r="G170" t="n">
-        <v>-73947.49939856006</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="K170" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C171" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D171" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E171" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F171" t="n">
-        <v>1895.4585</v>
-      </c>
-      <c r="G171" t="n">
-        <v>-73947.49939856006</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C172" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D172" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E172" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F172" t="n">
-        <v>3132.6628</v>
-      </c>
-      <c r="G172" t="n">
-        <v>-70814.83659856005</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C173" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D173" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E173" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F173" t="n">
-        <v>4920.1651</v>
-      </c>
-      <c r="G173" t="n">
-        <v>-65894.67149856006</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C174" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D174" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E174" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F174" t="n">
-        <v>72402.1244</v>
-      </c>
-      <c r="G174" t="n">
-        <v>6507.452901439945</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="C175" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="D175" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="E175" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="F175" t="n">
-        <v>122294.8725</v>
-      </c>
-      <c r="G175" t="n">
-        <v>-115787.4195985601</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C176" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D176" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E176" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F176" t="n">
-        <v>39917.1961</v>
-      </c>
-      <c r="G176" t="n">
-        <v>-75870.22349856005</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C177" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D177" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E177" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F177" t="n">
-        <v>5107.2816</v>
-      </c>
-      <c r="G177" t="n">
-        <v>-75870.22349856005</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="C178" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="D178" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E178" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F178" t="n">
-        <v>4078.7583</v>
-      </c>
-      <c r="G178" t="n">
-        <v>-75870.22349856005</v>
-      </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="C179" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="D179" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="E179" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F179" t="n">
-        <v>5124.6101</v>
-      </c>
-      <c r="G179" t="n">
-        <v>-80994.83359856006</v>
-      </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C180" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D180" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E180" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F180" t="n">
-        <v>3979.0106</v>
-      </c>
-      <c r="G180" t="n">
-        <v>-84973.84419856005</v>
-      </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C181" t="n">
-        <v>29</v>
-      </c>
-      <c r="D181" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E181" t="n">
-        <v>29</v>
-      </c>
-      <c r="F181" t="n">
-        <v>8756.7549</v>
-      </c>
-      <c r="G181" t="n">
-        <v>-76217.08929856005</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="C182" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D182" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E182" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F182" t="n">
-        <v>2046.4446</v>
-      </c>
-      <c r="G182" t="n">
-        <v>-78263.53389856005</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>29</v>
-      </c>
-      <c r="C183" t="n">
-        <v>29</v>
-      </c>
-      <c r="D183" t="n">
-        <v>29</v>
-      </c>
-      <c r="E183" t="n">
-        <v>29</v>
-      </c>
-      <c r="F183" t="n">
-        <v>4079.0585</v>
-      </c>
-      <c r="G183" t="n">
-        <v>-74184.47539856005</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>29</v>
-      </c>
-      <c r="C184" t="n">
-        <v>29</v>
-      </c>
-      <c r="D184" t="n">
-        <v>29</v>
-      </c>
-      <c r="E184" t="n">
-        <v>29</v>
-      </c>
-      <c r="F184" t="n">
-        <v>75574.6516</v>
-      </c>
-      <c r="G184" t="n">
-        <v>-74184.47539856005</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>29</v>
-      </c>
-      <c r="C185" t="n">
-        <v>29</v>
-      </c>
-      <c r="D185" t="n">
-        <v>29</v>
-      </c>
-      <c r="E185" t="n">
-        <v>29</v>
-      </c>
-      <c r="F185" t="n">
-        <v>11913.414</v>
-      </c>
-      <c r="G185" t="n">
-        <v>-74184.47539856005</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>29</v>
-      </c>
-      <c r="C186" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D186" t="n">
-        <v>29</v>
-      </c>
-      <c r="E186" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="F186" t="n">
-        <v>81708.64690000001</v>
-      </c>
-      <c r="G186" t="n">
-        <v>-155893.12229856</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="C187" t="n">
-        <v>27</v>
-      </c>
-      <c r="D187" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="E187" t="n">
-        <v>27</v>
-      </c>
-      <c r="F187" t="n">
-        <v>286808.3073</v>
-      </c>
-      <c r="G187" t="n">
-        <v>-442701.42959856</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="C188" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="D188" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="E188" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="F188" t="n">
-        <v>5207.1287</v>
-      </c>
-      <c r="G188" t="n">
-        <v>-437494.30089856</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="C189" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="D189" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="E189" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="F189" t="n">
-        <v>24475.5244</v>
-      </c>
-      <c r="G189" t="n">
-        <v>-461969.82529856</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C190" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D190" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E190" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F190" t="n">
-        <v>10</v>
-      </c>
-      <c r="G190" t="n">
-        <v>-461959.82529856</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C191" t="n">
-        <v>29</v>
-      </c>
-      <c r="D191" t="n">
-        <v>29</v>
-      </c>
-      <c r="E191" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F191" t="n">
-        <v>400</v>
-      </c>
-      <c r="G191" t="n">
-        <v>-461559.82529856</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C192" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D192" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E192" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F192" t="n">
-        <v>5415.8501</v>
-      </c>
-      <c r="G192" t="n">
-        <v>-466975.67539856</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C193" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D193" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E193" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F193" t="n">
-        <v>10104.5296</v>
-      </c>
-      <c r="G193" t="n">
-        <v>-456871.14579856</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="C194" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D194" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E194" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="F194" t="n">
-        <v>7000</v>
-      </c>
-      <c r="G194" t="n">
-        <v>-449871.14579856</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="C195" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D195" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E195" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F195" t="n">
-        <v>26124.1888</v>
-      </c>
-      <c r="G195" t="n">
-        <v>-475995.33459856</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C196" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="D196" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="E196" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F196" t="n">
-        <v>11443.1483</v>
-      </c>
-      <c r="G196" t="n">
-        <v>-464552.18629856</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="C197" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="D197" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="E197" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="F197" t="n">
-        <v>4660.9254</v>
-      </c>
-      <c r="G197" t="n">
-        <v>-459891.26089856</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>28</v>
-      </c>
-      <c r="C198" t="n">
-        <v>28</v>
-      </c>
-      <c r="D198" t="n">
-        <v>28</v>
-      </c>
-      <c r="E198" t="n">
-        <v>28</v>
-      </c>
-      <c r="F198" t="n">
-        <v>24934.3928</v>
-      </c>
-      <c r="G198" t="n">
-        <v>-484825.65369856</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>28</v>
-      </c>
-      <c r="C199" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="D199" t="n">
-        <v>28</v>
-      </c>
-      <c r="E199" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="F199" t="n">
-        <v>8386.6582</v>
-      </c>
-      <c r="G199" t="n">
-        <v>-493212.31189856</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="C200" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="D200" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="E200" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="F200" t="n">
-        <v>34209.7586</v>
-      </c>
-      <c r="G200" t="n">
-        <v>-459002.55329856</v>
-      </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="C201" t="n">
-        <v>28</v>
-      </c>
-      <c r="D201" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E201" t="n">
-        <v>28</v>
-      </c>
-      <c r="F201" t="n">
-        <v>10078.2565</v>
-      </c>
-      <c r="G201" t="n">
-        <v>-469080.80979856</v>
-      </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C202" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D202" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E202" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F202" t="n">
-        <v>186.2473</v>
-      </c>
-      <c r="G202" t="n">
-        <v>-468894.56249856</v>
-      </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="C203" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D203" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E203" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="F203" t="n">
-        <v>241.7667</v>
-      </c>
-      <c r="G203" t="n">
-        <v>-468894.56249856</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
-      <c r="J203" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K203" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>28</v>
-      </c>
-      <c r="C204" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="D204" t="n">
-        <v>28</v>
-      </c>
-      <c r="E204" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="F204" t="n">
-        <v>127485.1171</v>
-      </c>
-      <c r="G204" t="n">
-        <v>-596379.67959856</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>27.6</v>
-      </c>
-      <c r="C205" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="D205" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="E205" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F205" t="n">
-        <v>25185.3118</v>
-      </c>
-      <c r="G205" t="n">
-        <v>-571194.3677985599</v>
-      </c>
-      <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="K205" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="C206" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="D206" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="E206" t="n">
-        <v>27.2</v>
-      </c>
-      <c r="F206" t="n">
-        <v>94281.6102</v>
-      </c>
-      <c r="G206" t="n">
-        <v>-665475.9779985599</v>
-      </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
+      <c r="N164" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N164"/>
+  <dimension ref="A1:N235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,22 +438,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" t="n">
-        <v>28.7</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>28.8</v>
+        <v>27</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F2" t="n">
-        <v>33047.7351</v>
+        <v>27.2969</v>
       </c>
       <c r="G2" t="n">
-        <v>28.13333333333333</v>
+        <v>238120.90850462</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -474,31 +474,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28.8</v>
+        <v>27.4</v>
       </c>
       <c r="C3" t="n">
-        <v>28.8</v>
+        <v>27.4</v>
       </c>
       <c r="D3" t="n">
-        <v>28.8</v>
+        <v>27.4</v>
       </c>
       <c r="E3" t="n">
-        <v>28.8</v>
+        <v>27.4</v>
       </c>
       <c r="F3" t="n">
-        <v>29</v>
+        <v>1500</v>
       </c>
       <c r="G3" t="n">
-        <v>28.49999999999999</v>
+        <v>239620.90850462</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
+      <c r="K3" t="n">
+        <v>27</v>
+      </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -510,32 +514,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="C4" t="n">
-        <v>28.6</v>
+        <v>27.5</v>
       </c>
       <c r="D4" t="n">
-        <v>28.6</v>
+        <v>27.5</v>
       </c>
       <c r="E4" t="n">
-        <v>28.2</v>
+        <v>27.4</v>
       </c>
       <c r="F4" t="n">
-        <v>16018.2638</v>
+        <v>1500</v>
       </c>
       <c r="G4" t="n">
-        <v>28.69999999999999</v>
+        <v>241120.90850462</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K4" t="n">
+        <v>27</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -546,32 +558,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27.7</v>
+        <v>27.1</v>
       </c>
       <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>16635.9224</v>
+      </c>
+      <c r="G5" t="n">
+        <v>224484.98610462</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>27.5</v>
       </c>
-      <c r="D5" t="n">
-        <v>27.7</v>
-      </c>
-      <c r="E5" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="F5" t="n">
-        <v>106706.9358</v>
-      </c>
-      <c r="G5" t="n">
-        <v>28.29999999999999</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>27</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -582,32 +602,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>27.4</v>
+        <v>27.1</v>
       </c>
       <c r="C6" t="n">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="D6" t="n">
-        <v>28.3</v>
+        <v>27.1</v>
       </c>
       <c r="E6" t="n">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="F6" t="n">
-        <v>21332.6114</v>
+        <v>331.3954</v>
       </c>
       <c r="G6" t="n">
-        <v>28.13333333333332</v>
+        <v>224816.38150462</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>27</v>
+      </c>
+      <c r="K6" t="n">
+        <v>27</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -618,36 +646,36 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="C7" t="n">
-        <v>28.4</v>
+        <v>27.1</v>
       </c>
       <c r="D7" t="n">
-        <v>28.5</v>
+        <v>27.1</v>
       </c>
       <c r="E7" t="n">
-        <v>27.9</v>
+        <v>27.1</v>
       </c>
       <c r="F7" t="n">
-        <v>132077.7038</v>
+        <v>1233.8954</v>
       </c>
       <c r="G7" t="n">
-        <v>28.06666666666665</v>
+        <v>224816.38150462</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>27</v>
+      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M7" t="n">
@@ -660,22 +688,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>28.5</v>
+        <v>27</v>
       </c>
       <c r="E8" t="n">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>187555.803</v>
+        <v>3947.0963</v>
       </c>
       <c r="G8" t="n">
-        <v>28.36666666666666</v>
+        <v>220869.28520462</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -684,7 +712,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>27</v>
+      </c>
       <c r="L8" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -700,22 +730,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="C9" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="D9" t="n">
-        <v>28.7</v>
+        <v>27.6</v>
       </c>
       <c r="E9" t="n">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>35123.0591</v>
+        <v>47768.5491</v>
       </c>
       <c r="G9" t="n">
-        <v>28.49999999999999</v>
+        <v>268637.83430462</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -724,7 +754,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>27</v>
+      </c>
       <c r="L9" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -740,22 +772,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>28.7</v>
+        <v>27.1</v>
       </c>
       <c r="C10" t="n">
-        <v>28.9</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>27.1</v>
       </c>
       <c r="E10" t="n">
-        <v>28.7</v>
+        <v>27</v>
       </c>
       <c r="F10" t="n">
-        <v>309.9991</v>
+        <v>155045.4395</v>
       </c>
       <c r="G10" t="n">
-        <v>28.66666666666666</v>
+        <v>113592.39480462</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -764,7 +796,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>27</v>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -780,22 +814,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28.9</v>
+        <v>27.2</v>
       </c>
       <c r="C11" t="n">
-        <v>28.9</v>
+        <v>27.5</v>
       </c>
       <c r="D11" t="n">
-        <v>28.9</v>
+        <v>27.5</v>
       </c>
       <c r="E11" t="n">
-        <v>28.9</v>
+        <v>27.2</v>
       </c>
       <c r="F11" t="n">
-        <v>18262.6193</v>
+        <v>114937.4205</v>
       </c>
       <c r="G11" t="n">
-        <v>28.83333333333333</v>
+        <v>228529.81530462</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -804,7 +838,9 @@
         <v>0</v>
       </c>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>27</v>
+      </c>
       <c r="L11" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -820,22 +856,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>28.3</v>
+        <v>27</v>
       </c>
       <c r="D12" t="n">
-        <v>28.4</v>
+        <v>27</v>
       </c>
       <c r="E12" t="n">
-        <v>28.3</v>
+        <v>27</v>
       </c>
       <c r="F12" t="n">
-        <v>177106.5265</v>
+        <v>22.9407</v>
       </c>
       <c r="G12" t="n">
-        <v>28.69999999999999</v>
+        <v>228506.87460462</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -844,7 +880,9 @@
         <v>0</v>
       </c>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>27</v>
+      </c>
       <c r="L12" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -860,22 +898,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28.2</v>
+        <v>27.1</v>
       </c>
       <c r="C13" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>28.2</v>
+        <v>27.1</v>
       </c>
       <c r="E13" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="F13" t="n">
-        <v>33355.276</v>
+        <v>17951.7067</v>
       </c>
       <c r="G13" t="n">
-        <v>28.46666666666666</v>
+        <v>228506.87460462</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -884,7 +922,9 @@
         <v>0</v>
       </c>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>27</v>
+      </c>
       <c r="L13" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -900,31 +940,35 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="D14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" t="n">
-        <v>27.7</v>
+        <v>27</v>
       </c>
       <c r="F14" t="n">
-        <v>20721.1371</v>
+        <v>2275</v>
       </c>
       <c r="G14" t="n">
-        <v>28.06666666666666</v>
+        <v>228506.87460462</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>27</v>
+      </c>
+      <c r="K14" t="n">
+        <v>27</v>
+      </c>
       <c r="L14" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -940,31 +984,35 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="C15" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="D15" t="n">
-        <v>28.1</v>
+        <v>27.4</v>
       </c>
       <c r="E15" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="F15" t="n">
-        <v>39398.7</v>
+        <v>272.5182</v>
       </c>
       <c r="G15" t="n">
-        <v>27.83333333333333</v>
+        <v>228779.3928046199</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>27</v>
+      </c>
+      <c r="K15" t="n">
+        <v>27</v>
+      </c>
       <c r="L15" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -980,22 +1028,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F16" t="n">
-        <v>3600</v>
+        <v>2053</v>
       </c>
       <c r="G16" t="n">
-        <v>27.76666666666666</v>
+        <v>226726.3928046199</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1004,7 +1052,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>27</v>
+      </c>
       <c r="L16" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1020,31 +1070,35 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>28.1</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="n">
-        <v>28.1</v>
+        <v>27</v>
       </c>
       <c r="E17" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F17" t="n">
-        <v>43974.2613</v>
+        <v>12737</v>
       </c>
       <c r="G17" t="n">
-        <v>27.86666666666666</v>
+        <v>226726.3928046199</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>27</v>
+      </c>
+      <c r="K17" t="n">
+        <v>27</v>
+      </c>
       <c r="L17" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1060,31 +1114,35 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F18" t="n">
-        <v>962</v>
+        <v>24452</v>
       </c>
       <c r="G18" t="n">
-        <v>27.99999999999999</v>
+        <v>226726.3928046199</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>27</v>
+      </c>
+      <c r="K18" t="n">
+        <v>27</v>
+      </c>
       <c r="L18" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1100,31 +1158,35 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="C19" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="D19" t="n">
-        <v>28.2</v>
+        <v>27</v>
       </c>
       <c r="E19" t="n">
-        <v>27.6</v>
+        <v>27</v>
       </c>
       <c r="F19" t="n">
-        <v>20</v>
+        <v>2353</v>
       </c>
       <c r="G19" t="n">
-        <v>27.86666666666666</v>
+        <v>226726.3928046199</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>27</v>
+      </c>
+      <c r="K19" t="n">
+        <v>27</v>
+      </c>
       <c r="L19" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1140,31 +1202,35 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>27.6</v>
+        <v>27.4</v>
       </c>
       <c r="C20" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="D20" t="n">
-        <v>27.9</v>
+        <v>27.4</v>
       </c>
       <c r="E20" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="F20" t="n">
-        <v>59313.7284</v>
+        <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>27.83333333333333</v>
+        <v>226738.3928046199</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>27</v>
+      </c>
+      <c r="K20" t="n">
+        <v>27</v>
+      </c>
       <c r="L20" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1180,31 +1246,35 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>27.9</v>
+        <v>27</v>
       </c>
       <c r="C21" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="D21" t="n">
-        <v>27.9</v>
+        <v>27.3</v>
       </c>
       <c r="E21" t="n">
-        <v>27.9</v>
+        <v>26.9</v>
       </c>
       <c r="F21" t="n">
-        <v>2307.2894</v>
+        <v>104344.0063</v>
       </c>
       <c r="G21" t="n">
-        <v>27.79999999999999</v>
+        <v>122394.3865046199</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>27.4</v>
+      </c>
+      <c r="K21" t="n">
+        <v>27</v>
+      </c>
       <c r="L21" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1220,31 +1290,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="C22" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="D22" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="E22" t="n">
-        <v>28.3</v>
+        <v>27.4</v>
       </c>
       <c r="F22" t="n">
-        <v>1610.439</v>
+        <v>73625.8124</v>
       </c>
       <c r="G22" t="n">
-        <v>28.16666666666666</v>
+        <v>196020.19890462</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="K22" t="n">
+        <v>27</v>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1260,31 +1334,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="C23" t="n">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="D23" t="n">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="E23" t="n">
-        <v>28.7</v>
+        <v>27.5</v>
       </c>
       <c r="F23" t="n">
-        <v>263847.389</v>
+        <v>7278.8436</v>
       </c>
       <c r="G23" t="n">
-        <v>28.69999999999999</v>
+        <v>196020.19890462</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>27</v>
+      </c>
       <c r="L23" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1300,31 +1378,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>29.5</v>
+        <v>27.5</v>
       </c>
       <c r="C24" t="n">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="D24" t="n">
-        <v>30</v>
+        <v>27.5</v>
       </c>
       <c r="E24" t="n">
-        <v>29</v>
+        <v>27.5</v>
       </c>
       <c r="F24" t="n">
-        <v>280435.4556</v>
+        <v>18392.9051</v>
       </c>
       <c r="G24" t="n">
-        <v>29.06666666666665</v>
+        <v>196020.19890462</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27</v>
+      </c>
       <c r="L24" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1340,31 +1422,35 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>29</v>
+        <v>27.6</v>
       </c>
       <c r="C25" t="n">
-        <v>29.9</v>
+        <v>27.8</v>
       </c>
       <c r="D25" t="n">
-        <v>29.9</v>
+        <v>27.8</v>
       </c>
       <c r="E25" t="n">
-        <v>28.9</v>
+        <v>27.6</v>
       </c>
       <c r="F25" t="n">
-        <v>74547.16099999999</v>
+        <v>32135.4341</v>
       </c>
       <c r="G25" t="n">
-        <v>29.46666666666665</v>
+        <v>228155.63300462</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="K25" t="n">
+        <v>27</v>
+      </c>
       <c r="L25" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1380,31 +1466,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>29.9</v>
+        <v>27.9</v>
       </c>
       <c r="C26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D26" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" t="n">
-        <v>29.9</v>
+        <v>27.9</v>
       </c>
       <c r="F26" t="n">
-        <v>279007.4233</v>
+        <v>21173.4152</v>
       </c>
       <c r="G26" t="n">
-        <v>29.63333333333332</v>
+        <v>249329.04820462</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="K26" t="n">
+        <v>27</v>
+      </c>
       <c r="L26" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1420,31 +1510,35 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="C27" t="n">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="D27" t="n">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="E27" t="n">
-        <v>30</v>
+        <v>28.1</v>
       </c>
       <c r="F27" t="n">
-        <v>2280.0716</v>
+        <v>32123.4341</v>
       </c>
       <c r="G27" t="n">
-        <v>29.96666666666665</v>
+        <v>281452.48230462</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>28</v>
+      </c>
+      <c r="K27" t="n">
+        <v>27</v>
+      </c>
       <c r="L27" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1460,31 +1554,35 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="C28" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="D28" t="n">
-        <v>30</v>
+        <v>28.3</v>
       </c>
       <c r="E28" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="F28" t="n">
-        <v>3864.0387</v>
+        <v>38768.2547</v>
       </c>
       <c r="G28" t="n">
-        <v>29.99999999999999</v>
+        <v>320220.73700462</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="K28" t="n">
+        <v>27</v>
+      </c>
       <c r="L28" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1500,31 +1598,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>30</v>
+        <v>28.4</v>
       </c>
       <c r="C29" t="n">
-        <v>29.9</v>
+        <v>28.3</v>
       </c>
       <c r="D29" t="n">
-        <v>30</v>
+        <v>28.5</v>
       </c>
       <c r="E29" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="F29" t="n">
-        <v>6257.5679</v>
+        <v>44061.6603</v>
       </c>
       <c r="G29" t="n">
-        <v>29.96666666666666</v>
+        <v>320220.73700462</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K29" t="n">
+        <v>27</v>
+      </c>
       <c r="L29" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1540,31 +1642,35 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="C30" t="n">
-        <v>29.6</v>
+        <v>28.8</v>
       </c>
       <c r="D30" t="n">
-        <v>30</v>
+        <v>28.8</v>
       </c>
       <c r="E30" t="n">
-        <v>29.6</v>
+        <v>28.5</v>
       </c>
       <c r="F30" t="n">
-        <v>245221.054</v>
+        <v>339857.7158</v>
       </c>
       <c r="G30" t="n">
-        <v>29.83333333333333</v>
+        <v>660078.4528046199</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="K30" t="n">
+        <v>27</v>
+      </c>
       <c r="L30" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1580,22 +1686,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>30.1</v>
+        <v>28.8</v>
       </c>
       <c r="C31" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="D31" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="E31" t="n">
-        <v>30.1</v>
+        <v>28.8</v>
       </c>
       <c r="F31" t="n">
-        <v>12658.5789</v>
+        <v>86251.493</v>
       </c>
       <c r="G31" t="n">
-        <v>29.96666666666666</v>
+        <v>746329.9458046199</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1604,7 +1710,9 @@
         <v>0</v>
       </c>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>27</v>
+      </c>
       <c r="L31" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1620,22 +1728,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="C32" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="D32" t="n">
-        <v>30.4</v>
+        <v>29.2</v>
       </c>
       <c r="E32" t="n">
-        <v>30</v>
+        <v>29.1</v>
       </c>
       <c r="F32" t="n">
-        <v>67979.7105</v>
+        <v>48580.7902</v>
       </c>
       <c r="G32" t="n">
-        <v>30.13333333333333</v>
+        <v>746329.9458046199</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1644,7 +1752,9 @@
         <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>27</v>
+      </c>
       <c r="L32" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1660,22 +1770,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>29.9</v>
+        <v>29.1</v>
       </c>
       <c r="C33" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="D33" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="E33" t="n">
-        <v>29.7</v>
+        <v>29.1</v>
       </c>
       <c r="F33" t="n">
-        <v>9052.8228</v>
+        <v>168556.5544</v>
       </c>
       <c r="G33" t="n">
-        <v>30.16666666666666</v>
+        <v>914886.50020462</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1684,7 +1794,9 @@
         <v>0</v>
       </c>
       <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>27</v>
+      </c>
       <c r="L33" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1700,22 +1812,22 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="C34" t="n">
-        <v>30.3</v>
+        <v>32</v>
       </c>
       <c r="D34" t="n">
-        <v>30.3</v>
+        <v>32</v>
       </c>
       <c r="E34" t="n">
-        <v>30.3</v>
+        <v>29.4</v>
       </c>
       <c r="F34" t="n">
-        <v>21</v>
+        <v>123549.0698</v>
       </c>
       <c r="G34" t="n">
-        <v>30.13333333333333</v>
+        <v>1038435.57000462</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1724,7 +1836,9 @@
         <v>0</v>
       </c>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>27</v>
+      </c>
       <c r="L34" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1740,22 +1854,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>29.8</v>
+        <v>31.6</v>
       </c>
       <c r="C35" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="D35" t="n">
-        <v>30.4</v>
+        <v>31.6</v>
       </c>
       <c r="E35" t="n">
-        <v>29.6</v>
+        <v>29.5</v>
       </c>
       <c r="F35" t="n">
-        <v>123996.3585</v>
+        <v>243096.7476</v>
       </c>
       <c r="G35" t="n">
-        <v>30.13333333333333</v>
+        <v>795338.8224046199</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1764,7 +1878,9 @@
         <v>0</v>
       </c>
       <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>27</v>
+      </c>
       <c r="L35" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1780,22 +1896,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>30.4</v>
+        <v>30.1</v>
       </c>
       <c r="C36" t="n">
-        <v>30.2</v>
+        <v>31.3</v>
       </c>
       <c r="D36" t="n">
-        <v>30.4</v>
+        <v>31.7</v>
       </c>
       <c r="E36" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F36" t="n">
-        <v>24083.7828</v>
+        <v>128911.9437</v>
       </c>
       <c r="G36" t="n">
-        <v>30.29999999999999</v>
+        <v>924250.76610462</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1804,7 +1920,9 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>27</v>
+      </c>
       <c r="L36" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1820,22 +1938,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>29.6</v>
+        <v>31.2</v>
       </c>
       <c r="C37" t="n">
-        <v>28.9</v>
+        <v>31.1</v>
       </c>
       <c r="D37" t="n">
-        <v>29.6</v>
+        <v>31.3</v>
       </c>
       <c r="E37" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="F37" t="n">
-        <v>279278.3167</v>
+        <v>203893.3914</v>
       </c>
       <c r="G37" t="n">
-        <v>29.83333333333333</v>
+        <v>720357.37470462</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1844,7 +1962,9 @@
         <v>0</v>
       </c>
       <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>27</v>
+      </c>
       <c r="L37" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -1860,62 +1980,66 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>29.1</v>
+        <v>31.1</v>
       </c>
       <c r="C38" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="D38" t="n">
-        <v>29.3</v>
+        <v>31.2</v>
       </c>
       <c r="E38" t="n">
-        <v>29.1</v>
+        <v>29.8</v>
       </c>
       <c r="F38" t="n">
-        <v>11502.8172</v>
+        <v>61386.26466204</v>
       </c>
       <c r="G38" t="n">
-        <v>29.46666666666666</v>
+        <v>658971.1100425799</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>27</v>
+      </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>1.117222222222222</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>29.3</v>
+        <v>30.3</v>
       </c>
       <c r="C39" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" t="n">
         <v>29.8</v>
       </c>
-      <c r="D39" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="E39" t="n">
-        <v>29.3</v>
-      </c>
       <c r="F39" t="n">
-        <v>29336.1881</v>
+        <v>101164.8537975</v>
       </c>
       <c r="G39" t="n">
-        <v>29.33333333333333</v>
+        <v>760135.96384008</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1925,11 +2049,7 @@
       </c>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1940,36 +2060,32 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>29.5</v>
+        <v>31.4</v>
       </c>
       <c r="C40" t="n">
-        <v>29.5</v>
+        <v>31.1</v>
       </c>
       <c r="D40" t="n">
-        <v>29.5</v>
+        <v>31.4</v>
       </c>
       <c r="E40" t="n">
-        <v>29.4</v>
+        <v>31.1</v>
       </c>
       <c r="F40" t="n">
-        <v>1710.2305</v>
+        <v>39640.46896496</v>
       </c>
       <c r="G40" t="n">
-        <v>29.53333333333332</v>
+        <v>720495.49487512</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1980,36 +2096,32 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>29.5</v>
+        <v>31.1</v>
       </c>
       <c r="C41" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="D41" t="n">
-        <v>30.1</v>
+        <v>31.1</v>
       </c>
       <c r="E41" t="n">
-        <v>29.5</v>
+        <v>30</v>
       </c>
       <c r="F41" t="n">
-        <v>2310</v>
+        <v>315128.9198</v>
       </c>
       <c r="G41" t="n">
-        <v>29.59999999999999</v>
+        <v>405366.57507512</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2020,36 +2132,32 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="C42" t="n">
         <v>29.5</v>
       </c>
       <c r="D42" t="n">
-        <v>29.8</v>
+        <v>30.5</v>
       </c>
       <c r="E42" t="n">
-        <v>29.5</v>
+        <v>29.3</v>
       </c>
       <c r="F42" t="n">
-        <v>7707.5975</v>
+        <v>87107.67690000001</v>
       </c>
       <c r="G42" t="n">
-        <v>29.49999999999999</v>
+        <v>318258.89817512</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2060,22 +2168,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29.5</v>
+        <v>30.4</v>
       </c>
       <c r="C43" t="n">
-        <v>29.7</v>
+        <v>30.4</v>
       </c>
       <c r="D43" t="n">
-        <v>29.8</v>
+        <v>30.4</v>
       </c>
       <c r="E43" t="n">
         <v>29.5</v>
       </c>
       <c r="F43" t="n">
-        <v>1278.0216</v>
+        <v>43697.2263</v>
       </c>
       <c r="G43" t="n">
-        <v>29.56666666666666</v>
+        <v>361956.12447512</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -2085,11 +2193,7 @@
       </c>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2100,22 +2204,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="C44" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="D44" t="n">
-        <v>29.7</v>
+        <v>30.2</v>
       </c>
       <c r="E44" t="n">
-        <v>29.7</v>
+        <v>29.4</v>
       </c>
       <c r="F44" t="n">
-        <v>1400</v>
+        <v>58411.2531</v>
       </c>
       <c r="G44" t="n">
-        <v>29.63333333333333</v>
+        <v>303544.87137512</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -2125,11 +2229,7 @@
       </c>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2140,22 +2240,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>29.5</v>
+        <v>29.4</v>
       </c>
       <c r="C45" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="D45" t="n">
         <v>29.5</v>
       </c>
       <c r="E45" t="n">
-        <v>29.5</v>
+        <v>28.5</v>
       </c>
       <c r="F45" t="n">
-        <v>5546.2214</v>
+        <v>242214.826</v>
       </c>
       <c r="G45" t="n">
-        <v>29.63333333333333</v>
+        <v>61330.04537512001</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -2165,11 +2265,7 @@
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2180,22 +2276,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="C46" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="D46" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="E46" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="F46" t="n">
-        <v>8283.6661</v>
+        <v>90144.26949999999</v>
       </c>
       <c r="G46" t="n">
-        <v>29.49999999999999</v>
+        <v>151474.31487512</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2205,11 +2301,7 @@
       </c>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2220,22 +2312,22 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="C47" t="n">
-        <v>29.7</v>
+        <v>28.6</v>
       </c>
       <c r="D47" t="n">
-        <v>29.7</v>
+        <v>28.7</v>
       </c>
       <c r="E47" t="n">
-        <v>29.5</v>
+        <v>28.2</v>
       </c>
       <c r="F47" t="n">
-        <v>44.8989</v>
+        <v>59012.7353</v>
       </c>
       <c r="G47" t="n">
-        <v>29.49999999999999</v>
+        <v>92461.57957512001</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2245,11 +2337,7 @@
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2260,22 +2348,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="C48" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="D48" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="E48" t="n">
-        <v>29.5</v>
+        <v>28.3</v>
       </c>
       <c r="F48" t="n">
-        <v>426</v>
+        <v>157258.3258</v>
       </c>
       <c r="G48" t="n">
-        <v>29.49999999999999</v>
+        <v>249719.90537512</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2285,11 +2373,7 @@
       </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2300,22 +2384,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>29.5</v>
+        <v>28.7</v>
       </c>
       <c r="C49" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="D49" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="E49" t="n">
-        <v>29.1</v>
+        <v>28.6</v>
       </c>
       <c r="F49" t="n">
-        <v>75100.3272</v>
+        <v>152941.6108</v>
       </c>
       <c r="G49" t="n">
-        <v>29.56666666666666</v>
+        <v>402661.51617512</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2325,11 +2409,7 @@
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2343,19 +2423,19 @@
         <v>29.2</v>
       </c>
       <c r="C50" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="D50" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E50" t="n">
         <v>29.2</v>
       </c>
-      <c r="E50" t="n">
-        <v>29.1</v>
-      </c>
       <c r="F50" t="n">
-        <v>13243.8292</v>
+        <v>11000</v>
       </c>
       <c r="G50" t="n">
-        <v>29.36666666666666</v>
+        <v>413661.51617512</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2365,11 +2445,7 @@
       </c>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2380,22 +2456,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C51" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="D51" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="E51" t="n">
-        <v>29.2</v>
+        <v>29</v>
       </c>
       <c r="F51" t="n">
-        <v>3814.6575</v>
+        <v>41954.1207</v>
       </c>
       <c r="G51" t="n">
-        <v>29.26666666666666</v>
+        <v>455615.63687512</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2405,11 +2481,7 @@
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2420,22 +2492,22 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="C52" t="n">
-        <v>29.1</v>
+        <v>29.7</v>
       </c>
       <c r="D52" t="n">
-        <v>29.1</v>
+        <v>29.7</v>
       </c>
       <c r="E52" t="n">
-        <v>29</v>
+        <v>29.4</v>
       </c>
       <c r="F52" t="n">
-        <v>104876.3599</v>
+        <v>18019.5931</v>
       </c>
       <c r="G52" t="n">
-        <v>29.13333333333333</v>
+        <v>455615.63687512</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2445,11 +2517,7 @@
       </c>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2460,22 +2528,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>28.9</v>
+        <v>29.7</v>
       </c>
       <c r="C53" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="D53" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="E53" t="n">
-        <v>28.9</v>
+        <v>29.7</v>
       </c>
       <c r="F53" t="n">
-        <v>3185.2914</v>
+        <v>7432</v>
       </c>
       <c r="G53" t="n">
-        <v>29.16666666666666</v>
+        <v>455615.63687512</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2485,11 +2553,7 @@
       </c>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2500,22 +2564,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C54" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="D54" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E54" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="F54" t="n">
-        <v>16790.6896</v>
+        <v>24880.5423</v>
       </c>
       <c r="G54" t="n">
-        <v>29.09999999999999</v>
+        <v>430735.09457512</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2525,11 +2589,7 @@
       </c>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2540,22 +2600,22 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="C55" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="D55" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="E55" t="n">
-        <v>27.8</v>
+        <v>29.7</v>
       </c>
       <c r="F55" t="n">
-        <v>88670.46339999999</v>
+        <v>125</v>
       </c>
       <c r="G55" t="n">
-        <v>28.66666666666666</v>
+        <v>430860.09457512</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2565,11 +2625,7 @@
       </c>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2580,22 +2636,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="C56" t="n">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="D56" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="E56" t="n">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
       <c r="F56" t="n">
-        <v>25841.6325</v>
+        <v>61113.4364</v>
       </c>
       <c r="G56" t="n">
-        <v>28.43333333333332</v>
+        <v>369746.65817512</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2605,11 +2661,7 @@
       </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2620,22 +2672,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="C57" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="D57" t="n">
-        <v>28</v>
+        <v>29.4</v>
       </c>
       <c r="E57" t="n">
-        <v>28</v>
+        <v>28.9</v>
       </c>
       <c r="F57" t="n">
-        <v>7982.2928</v>
+        <v>54615.5862</v>
       </c>
       <c r="G57" t="n">
-        <v>28.09999999999999</v>
+        <v>315131.07197512</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2645,11 +2697,7 @@
       </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2660,22 +2708,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="C58" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="D58" t="n">
-        <v>28.5</v>
+        <v>28.6</v>
       </c>
       <c r="E58" t="n">
-        <v>28</v>
+        <v>28.3</v>
       </c>
       <c r="F58" t="n">
-        <v>143344.1649</v>
+        <v>60283.6273</v>
       </c>
       <c r="G58" t="n">
-        <v>28.19999999999999</v>
+        <v>254847.44467512</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2685,11 +2733,7 @@
       </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2700,22 +2744,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>28.1</v>
+        <v>28.2</v>
       </c>
       <c r="C59" t="n">
-        <v>28.5</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
-        <v>28.5</v>
+        <v>28.2</v>
       </c>
       <c r="E59" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="F59" t="n">
-        <v>2966.1014</v>
+        <v>70713.52469999999</v>
       </c>
       <c r="G59" t="n">
-        <v>28.19999999999999</v>
+        <v>184133.91997512</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2725,11 +2769,7 @@
       </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2740,22 +2780,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="C60" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="D60" t="n">
-        <v>28.4</v>
+        <v>29.1</v>
       </c>
       <c r="E60" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="F60" t="n">
-        <v>7021.8238</v>
+        <v>13000</v>
       </c>
       <c r="G60" t="n">
-        <v>28.33333333333333</v>
+        <v>197133.91997512</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2765,11 +2805,7 @@
       </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2780,7 +2816,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="C61" t="n">
         <v>28.4</v>
@@ -2789,13 +2825,13 @@
         <v>28.4</v>
       </c>
       <c r="E61" t="n">
-        <v>28.2</v>
+        <v>27.8</v>
       </c>
       <c r="F61" t="n">
-        <v>20851.312</v>
+        <v>213820.8307</v>
       </c>
       <c r="G61" t="n">
-        <v>28.43333333333333</v>
+        <v>-16686.91072488</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2805,11 +2841,7 @@
       </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2820,22 +2852,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="C62" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="D62" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="E62" t="n">
-        <v>27.8</v>
+        <v>27.4</v>
       </c>
       <c r="F62" t="n">
-        <v>157292.0698</v>
+        <v>37774.0203</v>
       </c>
       <c r="G62" t="n">
-        <v>28.19999999999999</v>
+        <v>-54460.93102488</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2845,11 +2877,7 @@
       </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2860,22 +2888,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C63" t="n">
         <v>27.9</v>
       </c>
-      <c r="C63" t="n">
-        <v>27.7</v>
-      </c>
       <c r="D63" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E63" t="n">
         <v>27.9</v>
       </c>
-      <c r="E63" t="n">
-        <v>27.7</v>
-      </c>
       <c r="F63" t="n">
-        <v>17699.4233</v>
+        <v>11493.8279</v>
       </c>
       <c r="G63" t="n">
-        <v>27.96666666666666</v>
+        <v>-42967.10312488</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2885,11 +2913,7 @@
       </c>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2900,22 +2924,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>27.7</v>
+        <v>27.8</v>
       </c>
       <c r="C64" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D64" t="n">
-        <v>28</v>
+        <v>28.7</v>
       </c>
       <c r="E64" t="n">
-        <v>27.7</v>
+        <v>27.6</v>
       </c>
       <c r="F64" t="n">
-        <v>4795.4137</v>
+        <v>2910.9425</v>
       </c>
       <c r="G64" t="n">
-        <v>27.83333333333333</v>
+        <v>-45878.04562488</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2925,11 +2949,7 @@
       </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2940,22 +2960,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="C65" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="D65" t="n">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="E65" t="n">
-        <v>28</v>
+        <v>27.6</v>
       </c>
       <c r="F65" t="n">
-        <v>2750.7427</v>
+        <v>300.885</v>
       </c>
       <c r="G65" t="n">
-        <v>27.89999999999999</v>
+        <v>-45878.04562488</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2965,11 +2985,7 @@
       </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2980,22 +2996,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>28.1</v>
+        <v>28</v>
       </c>
       <c r="C66" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="D66" t="n">
-        <v>28.1</v>
+        <v>28.3</v>
       </c>
       <c r="E66" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="F66" t="n">
-        <v>36194.2348</v>
+        <v>27826.5364</v>
       </c>
       <c r="G66" t="n">
-        <v>28.03333333333333</v>
+        <v>-18051.50922488</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -3005,11 +3021,7 @@
       </c>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3020,7 +3032,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="C67" t="n">
         <v>28.3</v>
@@ -3029,13 +3041,13 @@
         <v>28.3</v>
       </c>
       <c r="E67" t="n">
-        <v>28.3</v>
+        <v>27.9</v>
       </c>
       <c r="F67" t="n">
-        <v>432</v>
+        <v>8030</v>
       </c>
       <c r="G67" t="n">
-        <v>28.13333333333333</v>
+        <v>-10021.50922488</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -3045,11 +3057,7 @@
       </c>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3060,22 +3068,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="C68" t="n">
-        <v>28.4</v>
+        <v>27.9</v>
       </c>
       <c r="D68" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E68" t="n">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="F68" t="n">
-        <v>10</v>
+        <v>29403.841</v>
       </c>
       <c r="G68" t="n">
-        <v>28.26666666666666</v>
+        <v>-39425.35022487999</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -3085,11 +3093,7 @@
       </c>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3100,22 +3104,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>28.3</v>
+        <v>28.1</v>
       </c>
       <c r="C69" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
-        <v>28.3</v>
+        <v>28.4</v>
       </c>
       <c r="E69" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F69" t="n">
-        <v>12</v>
+        <v>25427.4285</v>
       </c>
       <c r="G69" t="n">
-        <v>28.33333333333333</v>
+        <v>-13997.92172487999</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -3125,11 +3129,7 @@
       </c>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +3140,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="C70" t="n">
         <v>28.4</v>
       </c>
       <c r="D70" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="E70" t="n">
-        <v>28.3</v>
+        <v>28</v>
       </c>
       <c r="F70" t="n">
-        <v>870.5133</v>
+        <v>4607.6608</v>
       </c>
       <c r="G70" t="n">
-        <v>28.36666666666666</v>
+        <v>-9390.260924879991</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -3165,11 +3165,7 @@
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3183,19 +3179,19 @@
         <v>28.3</v>
       </c>
       <c r="C71" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="D71" t="n">
         <v>28.3</v>
       </c>
       <c r="E71" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="F71" t="n">
-        <v>27.4867</v>
+        <v>78776.7066</v>
       </c>
       <c r="G71" t="n">
-        <v>28.33333333333333</v>
+        <v>-88166.96752487999</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -3205,11 +3201,7 @@
       </c>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3220,7 +3212,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="C72" t="n">
         <v>28</v>
@@ -3229,13 +3221,13 @@
         <v>28</v>
       </c>
       <c r="E72" t="n">
-        <v>28</v>
+        <v>27.5</v>
       </c>
       <c r="F72" t="n">
-        <v>6257.25</v>
+        <v>26181.814</v>
       </c>
       <c r="G72" t="n">
-        <v>28.23333333333332</v>
+        <v>-61985.15352487999</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3245,11 +3237,7 @@
       </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3260,22 +3248,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="C73" t="n">
-        <v>28.2</v>
+        <v>28.7</v>
       </c>
       <c r="D73" t="n">
-        <v>28.2</v>
+        <v>28.8</v>
       </c>
       <c r="E73" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="F73" t="n">
-        <v>11250.6029</v>
+        <v>33047.7351</v>
       </c>
       <c r="G73" t="n">
-        <v>28.16666666666666</v>
+        <v>-28937.41842487999</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3285,11 +3273,7 @@
       </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3300,22 +3284,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="C74" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="D74" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="E74" t="n">
-        <v>28.3</v>
+        <v>28.8</v>
       </c>
       <c r="F74" t="n">
-        <v>2068.2633</v>
+        <v>29</v>
       </c>
       <c r="G74" t="n">
-        <v>28.16666666666666</v>
+        <v>-28908.41842487999</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3325,11 +3309,7 @@
       </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3343,19 +3323,19 @@
         <v>28.3</v>
       </c>
       <c r="C75" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="D75" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="E75" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="F75" t="n">
-        <v>4092.0193</v>
+        <v>16018.2638</v>
       </c>
       <c r="G75" t="n">
-        <v>28.26666666666666</v>
+        <v>-44926.68222487999</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3365,11 +3345,7 @@
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3380,22 +3356,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>28.3</v>
+        <v>27.7</v>
       </c>
       <c r="C76" t="n">
-        <v>28.4</v>
+        <v>27.5</v>
       </c>
       <c r="D76" t="n">
-        <v>28.4</v>
+        <v>27.7</v>
       </c>
       <c r="E76" t="n">
-        <v>28.3</v>
+        <v>27.5</v>
       </c>
       <c r="F76" t="n">
-        <v>13342.5464</v>
+        <v>106706.9358</v>
       </c>
       <c r="G76" t="n">
-        <v>28.33333333333332</v>
+        <v>-151633.61802488</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3405,11 +3381,7 @@
       </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3420,22 +3392,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>28.4</v>
+        <v>27.4</v>
       </c>
       <c r="C77" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="D77" t="n">
-        <v>28.4</v>
+        <v>28.3</v>
       </c>
       <c r="E77" t="n">
-        <v>28.4</v>
+        <v>27.3</v>
       </c>
       <c r="F77" t="n">
-        <v>47248.6619</v>
+        <v>21332.6114</v>
       </c>
       <c r="G77" t="n">
-        <v>28.36666666666665</v>
+        <v>-130301.00662488</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3445,11 +3417,7 @@
       </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3460,22 +3428,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="C78" t="n">
-        <v>28.1</v>
+        <v>28.4</v>
       </c>
       <c r="D78" t="n">
-        <v>28.1</v>
+        <v>28.5</v>
       </c>
       <c r="E78" t="n">
-        <v>28.1</v>
+        <v>27.9</v>
       </c>
       <c r="F78" t="n">
-        <v>271</v>
+        <v>132077.7038</v>
       </c>
       <c r="G78" t="n">
-        <v>28.29999999999999</v>
+        <v>1776.697175119974</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3485,11 +3453,7 @@
       </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3500,22 +3464,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="C79" t="n">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
       <c r="D79" t="n">
-        <v>28</v>
+        <v>28.5</v>
       </c>
       <c r="E79" t="n">
-        <v>27.9</v>
+        <v>28.4</v>
       </c>
       <c r="F79" t="n">
-        <v>16078.7826</v>
+        <v>187555.803</v>
       </c>
       <c r="G79" t="n">
-        <v>28.13333333333332</v>
+        <v>1776.697175119974</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3525,11 +3489,7 @@
       </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3543,19 +3503,19 @@
         <v>28.4</v>
       </c>
       <c r="C80" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="D80" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="E80" t="n">
         <v>28.4</v>
       </c>
       <c r="F80" t="n">
-        <v>96.1619</v>
+        <v>35123.0591</v>
       </c>
       <c r="G80" t="n">
-        <v>28.13333333333332</v>
+        <v>36899.75627511997</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3565,11 +3525,7 @@
       </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3580,22 +3536,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="C81" t="n">
-        <v>29.3</v>
+        <v>28.9</v>
       </c>
       <c r="D81" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="E81" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="F81" t="n">
-        <v>100449.6253</v>
+        <v>309.9991</v>
       </c>
       <c r="G81" t="n">
-        <v>28.53333333333331</v>
+        <v>37209.75537511997</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3605,11 +3561,7 @@
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3620,22 +3572,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="C82" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="D82" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="E82" t="n">
         <v>28.9</v>
       </c>
       <c r="F82" t="n">
-        <v>56368.6925</v>
+        <v>18262.6193</v>
       </c>
       <c r="G82" t="n">
-        <v>29.06666666666665</v>
+        <v>37209.75537511997</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3645,11 +3597,7 @@
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3660,22 +3608,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="C83" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="D83" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="E83" t="n">
-        <v>28.8</v>
+        <v>28.3</v>
       </c>
       <c r="F83" t="n">
-        <v>1571.9393</v>
+        <v>177106.5265</v>
       </c>
       <c r="G83" t="n">
-        <v>29.19999999999998</v>
+        <v>-139896.77112488</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3685,11 +3633,7 @@
       </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3700,22 +3644,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="C84" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="D84" t="n">
-        <v>29.1</v>
+        <v>28.2</v>
       </c>
       <c r="E84" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="F84" t="n">
-        <v>22940.5313</v>
+        <v>33355.276</v>
       </c>
       <c r="G84" t="n">
-        <v>29.09999999999998</v>
+        <v>-173252.04712488</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3725,11 +3669,7 @@
       </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3740,22 +3680,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="C85" t="n">
-        <v>29</v>
+        <v>27.7</v>
       </c>
       <c r="D85" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="E85" t="n">
-        <v>29</v>
+        <v>27.7</v>
       </c>
       <c r="F85" t="n">
-        <v>2422.7746</v>
+        <v>20721.1371</v>
       </c>
       <c r="G85" t="n">
-        <v>28.93333333333331</v>
+        <v>-193973.18422488</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3765,11 +3705,7 @@
       </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3780,22 +3716,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>29.1</v>
+        <v>28.1</v>
       </c>
       <c r="C86" t="n">
-        <v>29.1</v>
+        <v>27.6</v>
       </c>
       <c r="D86" t="n">
-        <v>29.1</v>
+        <v>28.1</v>
       </c>
       <c r="E86" t="n">
-        <v>29.1</v>
+        <v>27.6</v>
       </c>
       <c r="F86" t="n">
-        <v>1552.0423</v>
+        <v>39398.7</v>
       </c>
       <c r="G86" t="n">
-        <v>29.03333333333332</v>
+        <v>-233371.88422488</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3805,11 +3741,7 @@
       </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3820,22 +3752,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="C87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D87" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="E87" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F87" t="n">
-        <v>3863.2134</v>
+        <v>3600</v>
       </c>
       <c r="G87" t="n">
-        <v>29.03333333333332</v>
+        <v>-229771.88422488</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3845,11 +3777,7 @@
       </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3860,22 +3788,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="C88" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D88" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="E88" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F88" t="n">
-        <v>22012.0116</v>
+        <v>43974.2613</v>
       </c>
       <c r="G88" t="n">
-        <v>29.03333333333332</v>
+        <v>-229771.88422488</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3885,11 +3813,7 @@
       </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3900,22 +3824,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="C89" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="D89" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="E89" t="n">
-        <v>29.1</v>
+        <v>28</v>
       </c>
       <c r="F89" t="n">
-        <v>3851.3615</v>
+        <v>962</v>
       </c>
       <c r="G89" t="n">
-        <v>29.03333333333332</v>
+        <v>-229771.88422488</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3925,11 +3849,7 @@
       </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3940,22 +3860,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>29.6</v>
+        <v>28.2</v>
       </c>
       <c r="C90" t="n">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="D90" t="n">
-        <v>29.6</v>
+        <v>28.2</v>
       </c>
       <c r="E90" t="n">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="F90" t="n">
-        <v>3633</v>
+        <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>29.13333333333332</v>
+        <v>-229791.88422488</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3965,11 +3885,7 @@
       </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3980,22 +3896,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>29.3</v>
+        <v>27.6</v>
       </c>
       <c r="C91" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="D91" t="n">
-        <v>29.3</v>
+        <v>27.9</v>
       </c>
       <c r="E91" t="n">
-        <v>29.3</v>
+        <v>27.3</v>
       </c>
       <c r="F91" t="n">
-        <v>402.6229</v>
+        <v>59313.7284</v>
       </c>
       <c r="G91" t="n">
-        <v>29.23333333333332</v>
+        <v>-170478.15582488</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -4005,11 +3921,7 @@
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4020,22 +3932,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="C92" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="D92" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="E92" t="n">
-        <v>29.2</v>
+        <v>27.9</v>
       </c>
       <c r="F92" t="n">
-        <v>7084.0158</v>
+        <v>2307.2894</v>
       </c>
       <c r="G92" t="n">
-        <v>29.26666666666665</v>
+        <v>-170478.15582488</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -4045,11 +3957,7 @@
       </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4060,22 +3968,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="C93" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="D93" t="n">
-        <v>29.2</v>
+        <v>28.7</v>
       </c>
       <c r="E93" t="n">
-        <v>29.2</v>
+        <v>28.3</v>
       </c>
       <c r="F93" t="n">
-        <v>14192.628</v>
+        <v>1610.439</v>
       </c>
       <c r="G93" t="n">
-        <v>29.23333333333332</v>
+        <v>-168867.71682488</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4085,11 +3993,7 @@
       </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4100,22 +4004,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="C94" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="D94" t="n">
-        <v>29.3</v>
+        <v>29.5</v>
       </c>
       <c r="E94" t="n">
-        <v>29.3</v>
+        <v>28.7</v>
       </c>
       <c r="F94" t="n">
-        <v>11020.15</v>
+        <v>263847.389</v>
       </c>
       <c r="G94" t="n">
-        <v>29.23333333333332</v>
+        <v>94979.67217512001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -4125,11 +4029,7 @@
       </c>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4140,22 +4040,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="C95" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="D95" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="E95" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="F95" t="n">
-        <v>5542</v>
+        <v>280435.4556</v>
       </c>
       <c r="G95" t="n">
-        <v>29.29999999999999</v>
+        <v>-185455.78342488</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -4165,11 +4065,7 @@
       </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4180,7 +4076,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="C96" t="n">
         <v>29.9</v>
@@ -4189,13 +4085,13 @@
         <v>29.9</v>
       </c>
       <c r="E96" t="n">
-        <v>29.5</v>
+        <v>28.9</v>
       </c>
       <c r="F96" t="n">
-        <v>142612.7607</v>
+        <v>74547.16099999999</v>
       </c>
       <c r="G96" t="n">
-        <v>29.53333333333332</v>
+        <v>-110908.62242488</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -4205,11 +4101,7 @@
       </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4220,22 +4112,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>29.7</v>
+        <v>29.9</v>
       </c>
       <c r="C97" t="n">
+        <v>30</v>
+      </c>
+      <c r="D97" t="n">
+        <v>30</v>
+      </c>
+      <c r="E97" t="n">
         <v>29.9</v>
       </c>
-      <c r="D97" t="n">
-        <v>29.9</v>
-      </c>
-      <c r="E97" t="n">
-        <v>29.7</v>
-      </c>
       <c r="F97" t="n">
-        <v>46407.5886</v>
+        <v>279007.4233</v>
       </c>
       <c r="G97" t="n">
-        <v>29.73333333333332</v>
+        <v>168098.80087512</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -4245,11 +4137,7 @@
       </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4260,22 +4148,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C98" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="D98" t="n">
-        <v>30.5</v>
+        <v>30</v>
       </c>
       <c r="E98" t="n">
-        <v>29.7</v>
+        <v>30</v>
       </c>
       <c r="F98" t="n">
-        <v>121674.5017</v>
+        <v>2280.0716</v>
       </c>
       <c r="G98" t="n">
-        <v>30.09999999999998</v>
+        <v>168098.80087512</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -4285,11 +4173,7 @@
       </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4300,22 +4184,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="C99" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="D99" t="n">
-        <v>29.9</v>
+        <v>30</v>
       </c>
       <c r="E99" t="n">
-        <v>29.8</v>
+        <v>29.5</v>
       </c>
       <c r="F99" t="n">
-        <v>12954</v>
+        <v>3864.0387</v>
       </c>
       <c r="G99" t="n">
-        <v>30.09999999999998</v>
+        <v>168098.80087512</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -4325,11 +4209,7 @@
       </c>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4340,22 +4220,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="C100" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="D100" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="E100" t="n">
-        <v>30</v>
+        <v>29.5</v>
       </c>
       <c r="F100" t="n">
-        <v>29865.9013</v>
+        <v>6257.5679</v>
       </c>
       <c r="G100" t="n">
-        <v>30.26666666666665</v>
+        <v>161841.23297512</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4365,11 +4245,7 @@
       </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4380,22 +4256,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>30.4</v>
+        <v>29.9</v>
       </c>
       <c r="C101" t="n">
-        <v>30.3</v>
+        <v>29.6</v>
       </c>
       <c r="D101" t="n">
-        <v>30.4</v>
+        <v>30</v>
       </c>
       <c r="E101" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="F101" t="n">
-        <v>29390.93187368</v>
+        <v>245221.054</v>
       </c>
       <c r="G101" t="n">
-        <v>30.19999999999999</v>
+        <v>-83379.82102487996</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4405,11 +4281,7 @@
       </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4423,19 +4295,19 @@
         <v>30.1</v>
       </c>
       <c r="C102" t="n">
-        <v>30</v>
+        <v>30.4</v>
       </c>
       <c r="D102" t="n">
-        <v>30.3</v>
+        <v>30.4</v>
       </c>
       <c r="E102" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="F102" t="n">
-        <v>85742.7807</v>
+        <v>12658.5789</v>
       </c>
       <c r="G102" t="n">
-        <v>30.23333333333332</v>
+        <v>-70721.24212487997</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4445,11 +4317,7 @@
       </c>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4460,37 +4328,35 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>30.2</v>
+        <v>30</v>
       </c>
       <c r="C103" t="n">
-        <v>29.4</v>
+        <v>30.4</v>
       </c>
       <c r="D103" t="n">
-        <v>30.2</v>
+        <v>30.4</v>
       </c>
       <c r="E103" t="n">
-        <v>29.4</v>
+        <v>30</v>
       </c>
       <c r="F103" t="n">
-        <v>26605.2372</v>
+        <v>67979.7105</v>
       </c>
       <c r="G103" t="n">
-        <v>29.89999999999999</v>
+        <v>-70721.24212487997</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
       <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
@@ -4498,22 +4364,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>30.1</v>
+        <v>29.9</v>
       </c>
       <c r="C104" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="D104" t="n">
-        <v>30.1</v>
+        <v>30.3</v>
       </c>
       <c r="E104" t="n">
-        <v>29.5</v>
+        <v>29.7</v>
       </c>
       <c r="F104" t="n">
-        <v>4099.983</v>
+        <v>9052.8228</v>
       </c>
       <c r="G104" t="n">
-        <v>29.63333333333332</v>
+        <v>-79774.06492487996</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4534,22 +4400,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="C105" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="D105" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="E105" t="n">
-        <v>29.4</v>
+        <v>30.3</v>
       </c>
       <c r="F105" t="n">
-        <v>425.17</v>
+        <v>21</v>
       </c>
       <c r="G105" t="n">
-        <v>29.43333333333332</v>
+        <v>-79753.06492487996</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4570,22 +4436,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>29.3</v>
+        <v>29.8</v>
       </c>
       <c r="C106" t="n">
-        <v>28.8</v>
+        <v>30.4</v>
       </c>
       <c r="D106" t="n">
-        <v>29.3</v>
+        <v>30.4</v>
       </c>
       <c r="E106" t="n">
-        <v>28.8</v>
+        <v>29.6</v>
       </c>
       <c r="F106" t="n">
-        <v>53571.1189</v>
+        <v>123996.3585</v>
       </c>
       <c r="G106" t="n">
-        <v>29.23333333333332</v>
+        <v>44243.29357512004</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4606,22 +4472,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>28.4</v>
+        <v>30.4</v>
       </c>
       <c r="C107" t="n">
-        <v>28.4</v>
+        <v>30.2</v>
       </c>
       <c r="D107" t="n">
-        <v>28.4</v>
+        <v>30.4</v>
       </c>
       <c r="E107" t="n">
-        <v>28.4</v>
+        <v>29.5</v>
       </c>
       <c r="F107" t="n">
-        <v>4188.4882</v>
+        <v>24083.7828</v>
       </c>
       <c r="G107" t="n">
-        <v>28.86666666666666</v>
+        <v>20159.51077512004</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4642,22 +4508,22 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>28.5</v>
+        <v>29.6</v>
       </c>
       <c r="C108" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="D108" t="n">
-        <v>28.5</v>
+        <v>29.6</v>
       </c>
       <c r="E108" t="n">
-        <v>28.4</v>
+        <v>28.9</v>
       </c>
       <c r="F108" t="n">
-        <v>89235.8438</v>
+        <v>279278.3167</v>
       </c>
       <c r="G108" t="n">
-        <v>28.53333333333332</v>
+        <v>-259118.80592488</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -4678,22 +4544,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="C109" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="D109" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="E109" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="F109" t="n">
-        <v>37694.6236</v>
+        <v>11502.8172</v>
       </c>
       <c r="G109" t="n">
-        <v>28.36666666666666</v>
+        <v>-247615.98872488</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4714,22 +4580,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>28.2</v>
+        <v>29.3</v>
       </c>
       <c r="C110" t="n">
-        <v>28.2</v>
+        <v>29.8</v>
       </c>
       <c r="D110" t="n">
-        <v>28.2</v>
+        <v>29.8</v>
       </c>
       <c r="E110" t="n">
-        <v>28.2</v>
+        <v>29.3</v>
       </c>
       <c r="F110" t="n">
-        <v>23</v>
+        <v>29336.1881</v>
       </c>
       <c r="G110" t="n">
-        <v>28.29999999999999</v>
+        <v>-218279.80062488</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4750,22 +4616,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>28.3</v>
+        <v>29.5</v>
       </c>
       <c r="C111" t="n">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="D111" t="n">
-        <v>28.5</v>
+        <v>29.5</v>
       </c>
       <c r="E111" t="n">
-        <v>28.3</v>
+        <v>29.4</v>
       </c>
       <c r="F111" t="n">
-        <v>27372.2388</v>
+        <v>1710.2305</v>
       </c>
       <c r="G111" t="n">
-        <v>28.33333333333333</v>
+        <v>-219990.03112488</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4786,22 +4652,22 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="C112" t="n">
-        <v>29</v>
+        <v>29.5</v>
       </c>
       <c r="D112" t="n">
-        <v>29</v>
+        <v>30.1</v>
       </c>
       <c r="E112" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="F112" t="n">
-        <v>46213.334</v>
+        <v>2310</v>
       </c>
       <c r="G112" t="n">
-        <v>28.56666666666666</v>
+        <v>-219990.03112488</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4822,22 +4688,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="C113" t="n">
         <v>29.5</v>
       </c>
       <c r="D113" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E113" t="n">
         <v>29.5</v>
       </c>
-      <c r="E113" t="n">
-        <v>28.9</v>
-      </c>
       <c r="F113" t="n">
-        <v>69623</v>
+        <v>7707.5975</v>
       </c>
       <c r="G113" t="n">
-        <v>28.99999999999999</v>
+        <v>-219990.03112488</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4858,22 +4724,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="C114" t="n">
-        <v>28.9</v>
+        <v>29.7</v>
       </c>
       <c r="D114" t="n">
-        <v>28.9</v>
+        <v>29.8</v>
       </c>
       <c r="E114" t="n">
-        <v>28.9</v>
+        <v>29.5</v>
       </c>
       <c r="F114" t="n">
-        <v>1389.4293</v>
+        <v>1278.0216</v>
       </c>
       <c r="G114" t="n">
-        <v>29.13333333333333</v>
+        <v>-218712.00952488</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4894,22 +4760,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="C115" t="n">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="D115" t="n">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="E115" t="n">
-        <v>28.8</v>
+        <v>29.7</v>
       </c>
       <c r="F115" t="n">
-        <v>9535.429400000001</v>
+        <v>1400</v>
       </c>
       <c r="G115" t="n">
-        <v>29.06666666666666</v>
+        <v>-218712.00952488</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4930,22 +4796,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="C116" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="D116" t="n">
-        <v>29.2</v>
+        <v>29.5</v>
       </c>
       <c r="E116" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="F116" t="n">
-        <v>12211</v>
+        <v>5546.2214</v>
       </c>
       <c r="G116" t="n">
-        <v>28.83333333333333</v>
+        <v>-224258.23092488</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4966,22 +4832,22 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="C117" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="D117" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="E117" t="n">
-        <v>28.7</v>
+        <v>29.3</v>
       </c>
       <c r="F117" t="n">
-        <v>2540.9833</v>
+        <v>8283.6661</v>
       </c>
       <c r="G117" t="n">
-        <v>28.76666666666666</v>
+        <v>-232541.89702488</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -5002,22 +4868,22 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="C118" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="D118" t="n">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="E118" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="F118" t="n">
-        <v>8821.405000000001</v>
+        <v>44.8989</v>
       </c>
       <c r="G118" t="n">
-        <v>28.9</v>
+        <v>-232496.99812488</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -5038,22 +4904,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="C119" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="D119" t="n">
-        <v>29.1</v>
+        <v>29.5</v>
       </c>
       <c r="E119" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="F119" t="n">
-        <v>16900.2517</v>
+        <v>426</v>
       </c>
       <c r="G119" t="n">
-        <v>29</v>
+        <v>-232922.99812488</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -5074,22 +4940,22 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="C120" t="n">
-        <v>28.7</v>
+        <v>29.5</v>
       </c>
       <c r="D120" t="n">
-        <v>28.8</v>
+        <v>29.5</v>
       </c>
       <c r="E120" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F120" t="n">
-        <v>36612.1895</v>
+        <v>75100.3272</v>
       </c>
       <c r="G120" t="n">
-        <v>29</v>
+        <v>-232922.99812488</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -5110,28 +4976,28 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="C121" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="D121" t="n">
-        <v>28.8</v>
+        <v>29.2</v>
       </c>
       <c r="E121" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="F121" t="n">
-        <v>11823.8096</v>
+        <v>13243.8292</v>
       </c>
       <c r="G121" t="n">
-        <v>28.86666666666666</v>
+        <v>-246166.82732488</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
@@ -5149,25 +5015,25 @@
         <v>29.2</v>
       </c>
       <c r="C122" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="D122" t="n">
-        <v>29.7</v>
+        <v>29.2</v>
       </c>
       <c r="E122" t="n">
         <v>29.2</v>
       </c>
       <c r="F122" t="n">
-        <v>93114.2509</v>
+        <v>3814.6575</v>
       </c>
       <c r="G122" t="n">
-        <v>29.06666666666666</v>
+        <v>-242352.16982488</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -5182,28 +5048,28 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>29.4</v>
+        <v>29</v>
       </c>
       <c r="C123" t="n">
-        <v>29.3</v>
+        <v>29.1</v>
       </c>
       <c r="D123" t="n">
-        <v>29.4</v>
+        <v>29.1</v>
       </c>
       <c r="E123" t="n">
-        <v>29.3</v>
+        <v>29</v>
       </c>
       <c r="F123" t="n">
-        <v>76668.4091</v>
+        <v>104876.3599</v>
       </c>
       <c r="G123" t="n">
-        <v>29.26666666666666</v>
+        <v>-347228.52972488</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
@@ -5221,25 +5087,25 @@
         <v>28.9</v>
       </c>
       <c r="C124" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="D124" t="n">
-        <v>28.9</v>
+        <v>29.2</v>
       </c>
       <c r="E124" t="n">
         <v>28.9</v>
       </c>
       <c r="F124" t="n">
-        <v>400</v>
+        <v>3185.2914</v>
       </c>
       <c r="G124" t="n">
-        <v>29.3</v>
+        <v>-344043.23832488</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
@@ -5254,28 +5120,28 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="C125" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D125" t="n">
-        <v>28.7</v>
+        <v>29.2</v>
       </c>
       <c r="E125" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="F125" t="n">
-        <v>6049.5298</v>
+        <v>16790.6896</v>
       </c>
       <c r="G125" t="n">
-        <v>28.96666666666667</v>
+        <v>-360833.92792488</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -5290,28 +5156,28 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="C126" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="D126" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="E126" t="n">
-        <v>28.7</v>
+        <v>27.8</v>
       </c>
       <c r="F126" t="n">
-        <v>28886.1591</v>
+        <v>88670.46339999999</v>
       </c>
       <c r="G126" t="n">
-        <v>28.76666666666667</v>
+        <v>-449504.39132488</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
@@ -5326,28 +5192,28 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="C127" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="D127" t="n">
-        <v>28.6</v>
+        <v>29.3</v>
       </c>
       <c r="E127" t="n">
-        <v>28.6</v>
+        <v>27.9</v>
       </c>
       <c r="F127" t="n">
-        <v>380.461</v>
+        <v>25841.6325</v>
       </c>
       <c r="G127" t="n">
-        <v>28.66666666666667</v>
+        <v>-423662.75882488</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
@@ -5362,28 +5228,28 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C128" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="D128" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="E128" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F128" t="n">
-        <v>33</v>
+        <v>7982.2928</v>
       </c>
       <c r="G128" t="n">
-        <v>28.63333333333333</v>
+        <v>-431645.05162488</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
@@ -5398,28 +5264,28 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="C129" t="n">
-        <v>28.6</v>
+        <v>28.1</v>
       </c>
       <c r="D129" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="E129" t="n">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="F129" t="n">
-        <v>1895.4585</v>
+        <v>143344.1649</v>
       </c>
       <c r="G129" t="n">
-        <v>28.6</v>
+        <v>-288300.88672488</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -5434,28 +5300,28 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="C130" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="D130" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="E130" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="F130" t="n">
-        <v>3132.6628</v>
+        <v>2966.1014</v>
       </c>
       <c r="G130" t="n">
-        <v>28.63333333333334</v>
+        <v>-285334.78532488</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -5470,22 +5336,22 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>28.8</v>
+        <v>28.1</v>
       </c>
       <c r="C131" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="D131" t="n">
-        <v>28.8</v>
+        <v>28.4</v>
       </c>
       <c r="E131" t="n">
-        <v>28.8</v>
+        <v>28.1</v>
       </c>
       <c r="F131" t="n">
-        <v>4920.1651</v>
+        <v>7021.8238</v>
       </c>
       <c r="G131" t="n">
-        <v>28.7</v>
+        <v>-292356.60912488</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
@@ -5506,22 +5372,22 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>29.3</v>
+        <v>28.2</v>
       </c>
       <c r="C132" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="D132" t="n">
-        <v>29.5</v>
+        <v>28.4</v>
       </c>
       <c r="E132" t="n">
-        <v>29.3</v>
+        <v>28.2</v>
       </c>
       <c r="F132" t="n">
-        <v>72402.1244</v>
+        <v>20851.312</v>
       </c>
       <c r="G132" t="n">
-        <v>29</v>
+        <v>-292356.60912488</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
@@ -5542,28 +5408,28 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>29.3</v>
+        <v>28.1</v>
       </c>
       <c r="C133" t="n">
-        <v>29.3</v>
+        <v>27.8</v>
       </c>
       <c r="D133" t="n">
-        <v>29.3</v>
+        <v>28.1</v>
       </c>
       <c r="E133" t="n">
-        <v>29.3</v>
+        <v>27.8</v>
       </c>
       <c r="F133" t="n">
-        <v>122294.8725</v>
+        <v>157292.0698</v>
       </c>
       <c r="G133" t="n">
-        <v>29.2</v>
+        <v>-449648.67892488</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5578,28 +5444,28 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>28.9</v>
+        <v>27.9</v>
       </c>
       <c r="C134" t="n">
-        <v>29.8</v>
+        <v>27.7</v>
       </c>
       <c r="D134" t="n">
-        <v>29.8</v>
+        <v>27.9</v>
       </c>
       <c r="E134" t="n">
-        <v>28.9</v>
+        <v>27.7</v>
       </c>
       <c r="F134" t="n">
-        <v>39917.1961</v>
+        <v>17699.4233</v>
       </c>
       <c r="G134" t="n">
-        <v>29.53333333333333</v>
+        <v>-467348.10222488</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5614,28 +5480,28 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>29.8</v>
+        <v>27.7</v>
       </c>
       <c r="C135" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="D135" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="E135" t="n">
-        <v>29.8</v>
+        <v>27.7</v>
       </c>
       <c r="F135" t="n">
-        <v>5107.2816</v>
+        <v>4795.4137</v>
       </c>
       <c r="G135" t="n">
-        <v>29.63333333333333</v>
+        <v>-462552.68852488</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5650,28 +5516,28 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="C136" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="D136" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="E136" t="n">
-        <v>29.8</v>
+        <v>28</v>
       </c>
       <c r="F136" t="n">
-        <v>4078.7583</v>
+        <v>2750.7427</v>
       </c>
       <c r="G136" t="n">
-        <v>29.8</v>
+        <v>-462552.68852488</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5686,28 +5552,28 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>29.5</v>
+        <v>28.1</v>
       </c>
       <c r="C137" t="n">
-        <v>29.5</v>
+        <v>28.1</v>
       </c>
       <c r="D137" t="n">
-        <v>29.5</v>
+        <v>28.1</v>
       </c>
       <c r="E137" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="F137" t="n">
-        <v>5124.6101</v>
+        <v>36194.2348</v>
       </c>
       <c r="G137" t="n">
-        <v>29.7</v>
+        <v>-426358.4537248801</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5722,28 +5588,28 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="C138" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="D138" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="E138" t="n">
-        <v>28.7</v>
+        <v>28.3</v>
       </c>
       <c r="F138" t="n">
-        <v>3979.0106</v>
+        <v>432</v>
       </c>
       <c r="G138" t="n">
-        <v>29.33333333333333</v>
+        <v>-425926.4537248801</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
@@ -5758,28 +5624,28 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="C139" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="D139" t="n">
-        <v>29.1</v>
+        <v>28.4</v>
       </c>
       <c r="E139" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="F139" t="n">
-        <v>8756.7549</v>
+        <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>29.06666666666667</v>
+        <v>-425916.4537248801</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5794,28 +5660,28 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="C140" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="D140" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="E140" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="F140" t="n">
-        <v>2046.4446</v>
+        <v>12</v>
       </c>
       <c r="G140" t="n">
-        <v>28.86666666666666</v>
+        <v>-425928.4537248801</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5830,28 +5696,28 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="C141" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="D141" t="n">
-        <v>29</v>
+        <v>28.4</v>
       </c>
       <c r="E141" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="F141" t="n">
-        <v>4079.0585</v>
+        <v>870.5133</v>
       </c>
       <c r="G141" t="n">
-        <v>28.96666666666667</v>
+        <v>-425057.9404248801</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5866,28 +5732,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="C142" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="D142" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="E142" t="n">
-        <v>29</v>
+        <v>28.3</v>
       </c>
       <c r="F142" t="n">
-        <v>75574.6516</v>
+        <v>27.4867</v>
       </c>
       <c r="G142" t="n">
-        <v>28.96666666666667</v>
+        <v>-425085.4271248801</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5902,28 +5768,28 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C143" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D143" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E143" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F143" t="n">
-        <v>11913.414</v>
+        <v>6257.25</v>
       </c>
       <c r="G143" t="n">
-        <v>29</v>
+        <v>-431342.6771248801</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5938,32 +5804,38 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>29</v>
+        <v>27.9</v>
       </c>
       <c r="C144" t="n">
-        <v>28.9</v>
+        <v>28.2</v>
       </c>
       <c r="D144" t="n">
-        <v>29</v>
+        <v>28.2</v>
       </c>
       <c r="E144" t="n">
-        <v>28.9</v>
+        <v>27.9</v>
       </c>
       <c r="F144" t="n">
-        <v>81708.64690000001</v>
+        <v>11250.6029</v>
       </c>
       <c r="G144" t="n">
-        <v>28.96666666666667</v>
+        <v>-420092.0742248801</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>1</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>28</v>
+      </c>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5974,32 +5846,38 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="C145" t="n">
-        <v>27</v>
+        <v>28.3</v>
       </c>
       <c r="D145" t="n">
-        <v>29.1</v>
+        <v>28.3</v>
       </c>
       <c r="E145" t="n">
-        <v>27</v>
+        <v>28.3</v>
       </c>
       <c r="F145" t="n">
-        <v>286808.3073</v>
+        <v>2068.2633</v>
       </c>
       <c r="G145" t="n">
-        <v>28.3</v>
+        <v>-418023.8109248801</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>28.2</v>
+      </c>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6010,32 +5888,38 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="C146" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="D146" t="n">
-        <v>28.9</v>
+        <v>28.3</v>
       </c>
       <c r="E146" t="n">
-        <v>27.3</v>
+        <v>28.3</v>
       </c>
       <c r="F146" t="n">
-        <v>5207.1287</v>
+        <v>4092.0193</v>
       </c>
       <c r="G146" t="n">
-        <v>28.26666666666667</v>
+        <v>-418023.8109248801</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>28.3</v>
+      </c>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6046,32 +5930,38 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="C147" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="D147" t="n">
-        <v>28.6</v>
+        <v>28.4</v>
       </c>
       <c r="E147" t="n">
-        <v>28.6</v>
+        <v>28.3</v>
       </c>
       <c r="F147" t="n">
-        <v>24475.5244</v>
+        <v>13342.5464</v>
       </c>
       <c r="G147" t="n">
-        <v>28.16666666666667</v>
+        <v>-404681.2645248801</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>28.3</v>
+      </c>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6082,22 +5972,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C148" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D148" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E148" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F148" t="n">
-        <v>10</v>
+        <v>47248.6619</v>
       </c>
       <c r="G148" t="n">
-        <v>28.73333333333333</v>
+        <v>-404681.2645248801</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -6107,7 +5997,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6118,22 +6012,22 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="C149" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="D149" t="n">
-        <v>29</v>
+        <v>28.1</v>
       </c>
       <c r="E149" t="n">
-        <v>28.7</v>
+        <v>28.1</v>
       </c>
       <c r="F149" t="n">
-        <v>400</v>
+        <v>271</v>
       </c>
       <c r="G149" t="n">
-        <v>28.76666666666667</v>
+        <v>-404952.2645248801</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -6143,7 +6037,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6154,22 +6052,22 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="C150" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="D150" t="n">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="E150" t="n">
-        <v>27.8</v>
+        <v>27.9</v>
       </c>
       <c r="F150" t="n">
-        <v>5415.8501</v>
+        <v>16078.7826</v>
       </c>
       <c r="G150" t="n">
-        <v>28.5</v>
+        <v>-421031.0471248801</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -6179,7 +6077,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6190,32 +6092,38 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C151" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="D151" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="E151" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F151" t="n">
-        <v>10104.5296</v>
+        <v>96.1619</v>
       </c>
       <c r="G151" t="n">
-        <v>28.5</v>
+        <v>-420934.8852248801</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>27.9</v>
+      </c>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6226,22 +6134,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="C152" t="n">
-        <v>28.8</v>
+        <v>29.3</v>
       </c>
       <c r="D152" t="n">
-        <v>28.8</v>
+        <v>29.3</v>
       </c>
       <c r="E152" t="n">
-        <v>28.7</v>
+        <v>28.4</v>
       </c>
       <c r="F152" t="n">
-        <v>7000</v>
+        <v>100449.6253</v>
       </c>
       <c r="G152" t="n">
-        <v>28.43333333333333</v>
+        <v>-320485.2599248801</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -6251,7 +6159,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6262,22 +6174,22 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>27.7</v>
+        <v>29</v>
       </c>
       <c r="C153" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="D153" t="n">
-        <v>27.7</v>
+        <v>29.5</v>
       </c>
       <c r="E153" t="n">
-        <v>27.7</v>
+        <v>28.9</v>
       </c>
       <c r="F153" t="n">
-        <v>26124.1888</v>
+        <v>56368.6925</v>
       </c>
       <c r="G153" t="n">
-        <v>28.4</v>
+        <v>-264116.56742488</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -6287,7 +6199,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6298,22 +6214,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="C154" t="n">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="D154" t="n">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="E154" t="n">
-        <v>27.8</v>
+        <v>28.8</v>
       </c>
       <c r="F154" t="n">
-        <v>11443.1483</v>
+        <v>1571.9393</v>
       </c>
       <c r="G154" t="n">
-        <v>28.1</v>
+        <v>-265688.5067248801</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6323,7 +6239,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -6334,22 +6254,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>27.8</v>
+        <v>29.1</v>
       </c>
       <c r="C155" t="n">
-        <v>28.7</v>
+        <v>29</v>
       </c>
       <c r="D155" t="n">
-        <v>28.7</v>
+        <v>29.1</v>
       </c>
       <c r="E155" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="F155" t="n">
-        <v>4660.9254</v>
+        <v>22940.5313</v>
       </c>
       <c r="G155" t="n">
-        <v>28.06666666666667</v>
+        <v>-242747.9754248801</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6359,7 +6279,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -6370,22 +6294,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="C156" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D156" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="E156" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F156" t="n">
-        <v>24934.3928</v>
+        <v>2422.7746</v>
       </c>
       <c r="G156" t="n">
-        <v>28.16666666666667</v>
+        <v>-242747.9754248801</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6395,7 +6319,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -6406,36 +6334,34 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="C157" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="D157" t="n">
-        <v>28</v>
+        <v>29.1</v>
       </c>
       <c r="E157" t="n">
-        <v>27.9</v>
+        <v>29.1</v>
       </c>
       <c r="F157" t="n">
-        <v>8386.6582</v>
+        <v>1552.0423</v>
       </c>
       <c r="G157" t="n">
-        <v>28.2</v>
+        <v>-241195.9331248801</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>28</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M157" t="n">
@@ -6448,32 +6374,30 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="C158" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="D158" t="n">
-        <v>28.8</v>
+        <v>29.1</v>
       </c>
       <c r="E158" t="n">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="F158" t="n">
-        <v>34209.7586</v>
+        <v>3863.2134</v>
       </c>
       <c r="G158" t="n">
-        <v>28.23333333333333</v>
+        <v>-245059.1465248801</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6490,32 +6414,30 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="C159" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D159" t="n">
-        <v>28.1</v>
+        <v>29</v>
       </c>
       <c r="E159" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F159" t="n">
-        <v>10078.2565</v>
+        <v>22012.0116</v>
       </c>
       <c r="G159" t="n">
-        <v>28.23333333333333</v>
+        <v>-245059.1465248801</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6532,32 +6454,30 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="C160" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="D160" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="E160" t="n">
-        <v>28.3</v>
+        <v>29.1</v>
       </c>
       <c r="F160" t="n">
-        <v>186.2473</v>
+        <v>3851.3615</v>
       </c>
       <c r="G160" t="n">
-        <v>28.36666666666666</v>
+        <v>-241207.7850248801</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>28</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6574,32 +6494,30 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="C161" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="D161" t="n">
-        <v>28.3</v>
+        <v>29.6</v>
       </c>
       <c r="E161" t="n">
-        <v>28.3</v>
+        <v>29.3</v>
       </c>
       <c r="F161" t="n">
-        <v>241.7667</v>
+        <v>3633</v>
       </c>
       <c r="G161" t="n">
-        <v>28.2</v>
+        <v>-237574.7850248801</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -6616,32 +6534,30 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="C162" t="n">
-        <v>27.7</v>
+        <v>29.3</v>
       </c>
       <c r="D162" t="n">
-        <v>28</v>
+        <v>29.3</v>
       </c>
       <c r="E162" t="n">
-        <v>27.7</v>
+        <v>29.3</v>
       </c>
       <c r="F162" t="n">
-        <v>127485.1171</v>
+        <v>402.6229</v>
       </c>
       <c r="G162" t="n">
-        <v>28.1</v>
+        <v>-237574.7850248801</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
@@ -6658,32 +6574,30 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>27.6</v>
+        <v>29.2</v>
       </c>
       <c r="C163" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="D163" t="n">
-        <v>28.3</v>
+        <v>29.2</v>
       </c>
       <c r="E163" t="n">
-        <v>27.5</v>
+        <v>29.2</v>
       </c>
       <c r="F163" t="n">
-        <v>25185.3118</v>
+        <v>7084.0158</v>
       </c>
       <c r="G163" t="n">
-        <v>28.1</v>
+        <v>-244658.8008248801</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>27.7</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
@@ -6700,32 +6614,30 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>27.5</v>
+        <v>29.2</v>
       </c>
       <c r="C164" t="n">
-        <v>28.1</v>
+        <v>29.2</v>
       </c>
       <c r="D164" t="n">
-        <v>28.1</v>
+        <v>29.2</v>
       </c>
       <c r="E164" t="n">
-        <v>27.2</v>
+        <v>29.2</v>
       </c>
       <c r="F164" t="n">
-        <v>94281.6102</v>
+        <v>14192.628</v>
       </c>
       <c r="G164" t="n">
-        <v>28.03333333333333</v>
+        <v>-244658.8008248801</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>28.3</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
@@ -6736,6 +6648,2856 @@
         <v>1</v>
       </c>
       <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C165" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D165" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E165" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F165" t="n">
+        <v>11020.15</v>
+      </c>
+      <c r="G165" t="n">
+        <v>-233638.6508248801</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>5542</v>
+      </c>
+      <c r="G166" t="n">
+        <v>-228096.6508248801</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>142612.7607</v>
+      </c>
+      <c r="G167" t="n">
+        <v>-85483.89012488007</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="C168" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>46407.5886</v>
+      </c>
+      <c r="G168" t="n">
+        <v>-85483.89012488007</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>121674.5017</v>
+      </c>
+      <c r="G169" t="n">
+        <v>36190.61157511992</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>29.9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>12954</v>
+      </c>
+      <c r="G170" t="n">
+        <v>23236.61157511992</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>30</v>
+      </c>
+      <c r="F171" t="n">
+        <v>29865.9013</v>
+      </c>
+      <c r="G171" t="n">
+        <v>53102.51287511992</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="C172" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D172" t="n">
+        <v>30.4</v>
+      </c>
+      <c r="E172" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>29390.93187368</v>
+      </c>
+      <c r="G172" t="n">
+        <v>23711.58100143992</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>30</v>
+      </c>
+      <c r="D173" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="E173" t="n">
+        <v>30</v>
+      </c>
+      <c r="F173" t="n">
+        <v>85742.7807</v>
+      </c>
+      <c r="G173" t="n">
+        <v>-62031.19969856009</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+      <c r="N173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="C174" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D174" t="n">
+        <v>30.2</v>
+      </c>
+      <c r="E174" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F174" t="n">
+        <v>26605.2372</v>
+      </c>
+      <c r="G174" t="n">
+        <v>-88636.43689856009</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+      <c r="N174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D175" t="n">
+        <v>30.1</v>
+      </c>
+      <c r="E175" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="F175" t="n">
+        <v>4099.983</v>
+      </c>
+      <c r="G175" t="n">
+        <v>-84536.45389856008</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C176" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="D176" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E176" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="F176" t="n">
+        <v>425.17</v>
+      </c>
+      <c r="G176" t="n">
+        <v>-84961.62389856008</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D177" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>53571.1189</v>
+      </c>
+      <c r="G177" t="n">
+        <v>-138532.7427985601</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>1</v>
+      </c>
+      <c r="N177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="C178" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D178" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="E178" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F178" t="n">
+        <v>4188.4882</v>
+      </c>
+      <c r="G178" t="n">
+        <v>-142721.2309985601</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>1</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="C179" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="D179" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E179" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="F179" t="n">
+        <v>89235.8438</v>
+      </c>
+      <c r="G179" t="n">
+        <v>-142721.2309985601</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>1</v>
+      </c>
+      <c r="N179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C180" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D180" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E180" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F180" t="n">
+        <v>37694.6236</v>
+      </c>
+      <c r="G180" t="n">
+        <v>-180415.8545985601</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="C181" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="D181" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="E181" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="F181" t="n">
+        <v>23</v>
+      </c>
+      <c r="G181" t="n">
+        <v>-180438.8545985601</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>1</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C182" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="E182" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F182" t="n">
+        <v>27372.2388</v>
+      </c>
+      <c r="G182" t="n">
+        <v>-153066.6157985601</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>1</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C183" t="n">
+        <v>29</v>
+      </c>
+      <c r="D183" t="n">
+        <v>29</v>
+      </c>
+      <c r="E183" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F183" t="n">
+        <v>46213.334</v>
+      </c>
+      <c r="G183" t="n">
+        <v>-106853.2817985601</v>
+      </c>
+      <c r="H183" t="n">
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>1</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>29</v>
+      </c>
+      <c r="C184" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D184" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E184" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F184" t="n">
+        <v>69623</v>
+      </c>
+      <c r="G184" t="n">
+        <v>-37230.28179856006</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>1</v>
+      </c>
+      <c r="N184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C185" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1389.4293</v>
+      </c>
+      <c r="G185" t="n">
+        <v>-38619.71109856006</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>1</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C186" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D186" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E186" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9535.429400000001</v>
+      </c>
+      <c r="G186" t="n">
+        <v>-48155.14049856006</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C187" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D187" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E187" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12211</v>
+      </c>
+      <c r="G187" t="n">
+        <v>-48155.14049856006</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>1</v>
+      </c>
+      <c r="N187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C188" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D188" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E188" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F188" t="n">
+        <v>2540.9833</v>
+      </c>
+      <c r="G188" t="n">
+        <v>-50696.12379856006</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>1</v>
+      </c>
+      <c r="N188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C189" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="D189" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="E189" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>8821.405000000001</v>
+      </c>
+      <c r="G189" t="n">
+        <v>-41874.71879856006</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>1</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C190" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="D190" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F190" t="n">
+        <v>16900.2517</v>
+      </c>
+      <c r="G190" t="n">
+        <v>-58774.97049856006</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>1</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C191" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D191" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E191" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F191" t="n">
+        <v>36612.1895</v>
+      </c>
+      <c r="G191" t="n">
+        <v>-95387.15999856006</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>1</v>
+      </c>
+      <c r="N191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C192" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D192" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E192" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F192" t="n">
+        <v>11823.8096</v>
+      </c>
+      <c r="G192" t="n">
+        <v>-83563.35039856005</v>
+      </c>
+      <c r="H192" t="n">
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>1</v>
+      </c>
+      <c r="N192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="C193" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="D193" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="E193" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>93114.2509</v>
+      </c>
+      <c r="G193" t="n">
+        <v>9550.900501439944</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>1</v>
+      </c>
+      <c r="N193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="C194" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D194" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="E194" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F194" t="n">
+        <v>76668.4091</v>
+      </c>
+      <c r="G194" t="n">
+        <v>-67117.50859856006</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C195" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F195" t="n">
+        <v>400</v>
+      </c>
+      <c r="G195" t="n">
+        <v>-67517.50859856006</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>1</v>
+      </c>
+      <c r="N195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C196" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D196" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E196" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F196" t="n">
+        <v>6049.5298</v>
+      </c>
+      <c r="G196" t="n">
+        <v>-73567.03839856006</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>1</v>
+      </c>
+      <c r="N196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C197" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D197" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E197" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F197" t="n">
+        <v>28886.1591</v>
+      </c>
+      <c r="G197" t="n">
+        <v>-73567.03839856006</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>1</v>
+      </c>
+      <c r="N197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C198" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D198" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E198" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F198" t="n">
+        <v>380.461</v>
+      </c>
+      <c r="G198" t="n">
+        <v>-73947.49939856006</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="n">
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C199" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D199" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E199" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F199" t="n">
+        <v>33</v>
+      </c>
+      <c r="G199" t="n">
+        <v>-73947.49939856006</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>1</v>
+      </c>
+      <c r="N199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C200" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D200" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E200" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F200" t="n">
+        <v>1895.4585</v>
+      </c>
+      <c r="G200" t="n">
+        <v>-73947.49939856006</v>
+      </c>
+      <c r="H200" t="n">
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>1</v>
+      </c>
+      <c r="N200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C201" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D201" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E201" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F201" t="n">
+        <v>3132.6628</v>
+      </c>
+      <c r="G201" t="n">
+        <v>-70814.83659856005</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C202" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D202" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E202" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F202" t="n">
+        <v>4920.1651</v>
+      </c>
+      <c r="G202" t="n">
+        <v>-65894.67149856006</v>
+      </c>
+      <c r="H202" t="n">
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C203" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D203" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E203" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F203" t="n">
+        <v>72402.1244</v>
+      </c>
+      <c r="G203" t="n">
+        <v>6507.452901439945</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="C204" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="D204" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="E204" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="F204" t="n">
+        <v>122294.8725</v>
+      </c>
+      <c r="G204" t="n">
+        <v>-115787.4195985601</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M204" t="n">
+        <v>1</v>
+      </c>
+      <c r="N204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C205" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D205" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E205" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F205" t="n">
+        <v>39917.1961</v>
+      </c>
+      <c r="G205" t="n">
+        <v>-75870.22349856005</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M205" t="n">
+        <v>1</v>
+      </c>
+      <c r="N205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C206" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D206" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E206" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>5107.2816</v>
+      </c>
+      <c r="G206" t="n">
+        <v>-75870.22349856005</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M206" t="n">
+        <v>1</v>
+      </c>
+      <c r="N206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="C207" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="D207" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="E207" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F207" t="n">
+        <v>4078.7583</v>
+      </c>
+      <c r="G207" t="n">
+        <v>-75870.22349856005</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="C208" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="D208" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="E208" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F208" t="n">
+        <v>5124.6101</v>
+      </c>
+      <c r="G208" t="n">
+        <v>-80994.83359856006</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M208" t="n">
+        <v>1</v>
+      </c>
+      <c r="N208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C209" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D209" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E209" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F209" t="n">
+        <v>3979.0106</v>
+      </c>
+      <c r="G209" t="n">
+        <v>-84973.84419856005</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M209" t="n">
+        <v>1</v>
+      </c>
+      <c r="N209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>29</v>
+      </c>
+      <c r="D210" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>29</v>
+      </c>
+      <c r="F210" t="n">
+        <v>8756.7549</v>
+      </c>
+      <c r="G210" t="n">
+        <v>-76217.08929856005</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="C211" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D211" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E211" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2046.4446</v>
+      </c>
+      <c r="G211" t="n">
+        <v>-78263.53389856005</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M211" t="n">
+        <v>1</v>
+      </c>
+      <c r="N211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>29</v>
+      </c>
+      <c r="C212" t="n">
+        <v>29</v>
+      </c>
+      <c r="D212" t="n">
+        <v>29</v>
+      </c>
+      <c r="E212" t="n">
+        <v>29</v>
+      </c>
+      <c r="F212" t="n">
+        <v>4079.0585</v>
+      </c>
+      <c r="G212" t="n">
+        <v>-74184.47539856005</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>29</v>
+      </c>
+      <c r="C213" t="n">
+        <v>29</v>
+      </c>
+      <c r="D213" t="n">
+        <v>29</v>
+      </c>
+      <c r="E213" t="n">
+        <v>29</v>
+      </c>
+      <c r="F213" t="n">
+        <v>75574.6516</v>
+      </c>
+      <c r="G213" t="n">
+        <v>-74184.47539856005</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M213" t="n">
+        <v>1</v>
+      </c>
+      <c r="N213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>29</v>
+      </c>
+      <c r="C214" t="n">
+        <v>29</v>
+      </c>
+      <c r="D214" t="n">
+        <v>29</v>
+      </c>
+      <c r="E214" t="n">
+        <v>29</v>
+      </c>
+      <c r="F214" t="n">
+        <v>11913.414</v>
+      </c>
+      <c r="G214" t="n">
+        <v>-74184.47539856005</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
+      <c r="N214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>29</v>
+      </c>
+      <c r="C215" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>29</v>
+      </c>
+      <c r="E215" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="F215" t="n">
+        <v>81708.64690000001</v>
+      </c>
+      <c r="G215" t="n">
+        <v>-155893.12229856</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>27</v>
+      </c>
+      <c r="D216" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>27</v>
+      </c>
+      <c r="F216" t="n">
+        <v>286808.3073</v>
+      </c>
+      <c r="G216" t="n">
+        <v>-442701.42959856</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="C217" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="D217" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="E217" t="n">
+        <v>27.3</v>
+      </c>
+      <c r="F217" t="n">
+        <v>5207.1287</v>
+      </c>
+      <c r="G217" t="n">
+        <v>-437494.30089856</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="C218" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="D218" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="E218" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="F218" t="n">
+        <v>24475.5244</v>
+      </c>
+      <c r="G218" t="n">
+        <v>-461969.82529856</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M218" t="n">
+        <v>1</v>
+      </c>
+      <c r="N218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C219" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D219" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E219" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F219" t="n">
+        <v>10</v>
+      </c>
+      <c r="G219" t="n">
+        <v>-461959.82529856</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M219" t="n">
+        <v>1</v>
+      </c>
+      <c r="N219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C220" t="n">
+        <v>29</v>
+      </c>
+      <c r="D220" t="n">
+        <v>29</v>
+      </c>
+      <c r="E220" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F220" t="n">
+        <v>400</v>
+      </c>
+      <c r="G220" t="n">
+        <v>-461559.82529856</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M220" t="n">
+        <v>1</v>
+      </c>
+      <c r="N220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C221" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D221" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E221" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F221" t="n">
+        <v>5415.8501</v>
+      </c>
+      <c r="G221" t="n">
+        <v>-466975.67539856</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M221" t="n">
+        <v>1</v>
+      </c>
+      <c r="N221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C222" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D222" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E222" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F222" t="n">
+        <v>10104.5296</v>
+      </c>
+      <c r="G222" t="n">
+        <v>-456871.14579856</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M222" t="n">
+        <v>1</v>
+      </c>
+      <c r="N222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C223" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D223" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E223" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="F223" t="n">
+        <v>7000</v>
+      </c>
+      <c r="G223" t="n">
+        <v>-449871.14579856</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M223" t="n">
+        <v>1</v>
+      </c>
+      <c r="N223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C224" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D224" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="E224" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F224" t="n">
+        <v>26124.1888</v>
+      </c>
+      <c r="G224" t="n">
+        <v>-475995.33459856</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M224" t="n">
+        <v>1</v>
+      </c>
+      <c r="N224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C225" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="D225" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="E225" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F225" t="n">
+        <v>11443.1483</v>
+      </c>
+      <c r="G225" t="n">
+        <v>-464552.18629856</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M225" t="n">
+        <v>1</v>
+      </c>
+      <c r="N225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="C226" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="D226" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="E226" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4660.9254</v>
+      </c>
+      <c r="G226" t="n">
+        <v>-459891.26089856</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M226" t="n">
+        <v>1</v>
+      </c>
+      <c r="N226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>28</v>
+      </c>
+      <c r="C227" t="n">
+        <v>28</v>
+      </c>
+      <c r="D227" t="n">
+        <v>28</v>
+      </c>
+      <c r="E227" t="n">
+        <v>28</v>
+      </c>
+      <c r="F227" t="n">
+        <v>24934.3928</v>
+      </c>
+      <c r="G227" t="n">
+        <v>-484825.65369856</v>
+      </c>
+      <c r="H227" t="n">
+        <v>0</v>
+      </c>
+      <c r="I227" t="n">
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M227" t="n">
+        <v>1</v>
+      </c>
+      <c r="N227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>28</v>
+      </c>
+      <c r="C228" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>28</v>
+      </c>
+      <c r="E228" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="F228" t="n">
+        <v>8386.6582</v>
+      </c>
+      <c r="G228" t="n">
+        <v>-493212.31189856</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M228" t="n">
+        <v>1</v>
+      </c>
+      <c r="N228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C229" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="D229" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="E229" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="F229" t="n">
+        <v>34209.7586</v>
+      </c>
+      <c r="G229" t="n">
+        <v>-459002.55329856</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M229" t="n">
+        <v>1</v>
+      </c>
+      <c r="N229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>28</v>
+      </c>
+      <c r="D230" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E230" t="n">
+        <v>28</v>
+      </c>
+      <c r="F230" t="n">
+        <v>10078.2565</v>
+      </c>
+      <c r="G230" t="n">
+        <v>-469080.80979856</v>
+      </c>
+      <c r="H230" t="n">
+        <v>0</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M230" t="n">
+        <v>1</v>
+      </c>
+      <c r="N230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C231" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D231" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E231" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F231" t="n">
+        <v>186.2473</v>
+      </c>
+      <c r="G231" t="n">
+        <v>-468894.56249856</v>
+      </c>
+      <c r="H231" t="n">
+        <v>0</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M231" t="n">
+        <v>1</v>
+      </c>
+      <c r="N231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="C232" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D232" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E232" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="F232" t="n">
+        <v>241.7667</v>
+      </c>
+      <c r="G232" t="n">
+        <v>-468894.56249856</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M232" t="n">
+        <v>1</v>
+      </c>
+      <c r="N232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>28</v>
+      </c>
+      <c r="C233" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="D233" t="n">
+        <v>28</v>
+      </c>
+      <c r="E233" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="F233" t="n">
+        <v>127485.1171</v>
+      </c>
+      <c r="G233" t="n">
+        <v>-596379.67959856</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M233" t="n">
+        <v>1</v>
+      </c>
+      <c r="N233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="C234" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="D234" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="E234" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="F234" t="n">
+        <v>25185.3118</v>
+      </c>
+      <c r="G234" t="n">
+        <v>-571194.3677985599</v>
+      </c>
+      <c r="H234" t="n">
+        <v>0</v>
+      </c>
+      <c r="I234" t="n">
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M234" t="n">
+        <v>1</v>
+      </c>
+      <c r="N234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C235" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="D235" t="n">
+        <v>28.1</v>
+      </c>
+      <c r="E235" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="F235" t="n">
+        <v>94281.6102</v>
+      </c>
+      <c r="G235" t="n">
+        <v>-665475.9779985599</v>
+      </c>
+      <c r="H235" t="n">
+        <v>0</v>
+      </c>
+      <c r="I235" t="n">
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M235" t="n">
+        <v>1</v>
+      </c>
+      <c r="N235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N235"/>
+  <dimension ref="A1:M235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>high_check</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -456,18 +451,15 @@
         <v>238120.90850462</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -492,22 +484,15 @@
         <v>239620.90850462</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27</v>
-      </c>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -532,26 +517,15 @@
         <v>241120.90850462</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>27</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,26 +550,15 @@
         <v>224484.98610462</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K5" t="n">
-        <v>27</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,26 +583,19 @@
         <v>224816.38150462</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J6" t="n">
         <v>27</v>
       </c>
-      <c r="K6" t="n">
-        <v>27</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -664,24 +620,23 @@
         <v>224816.38150462</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="n">
-        <v>27</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>27</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -706,24 +661,23 @@
         <v>220869.28520462</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="n">
-        <v>27</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="J8" t="n">
+        <v>27</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -748,24 +702,23 @@
         <v>268637.83430462</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="n">
-        <v>27</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -790,24 +743,23 @@
         <v>113592.39480462</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="n">
-        <v>27</v>
-      </c>
-      <c r="L10" t="inlineStr">
+        <v>27.6</v>
+      </c>
+      <c r="J10" t="n">
+        <v>27</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -832,24 +784,23 @@
         <v>228529.81530462</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="n">
-        <v>27</v>
-      </c>
-      <c r="L11" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="J11" t="n">
+        <v>27</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -876,22 +827,19 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="n">
-        <v>27</v>
-      </c>
-      <c r="L12" t="inlineStr">
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>27</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -918,22 +866,19 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="n">
-        <v>27</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>27</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -958,26 +903,21 @@
         <v>228506.87460462</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
         <v>27</v>
       </c>
-      <c r="K14" t="n">
-        <v>27</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1002,26 +942,23 @@
         <v>228779.3928046199</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J15" t="n">
         <v>27</v>
       </c>
-      <c r="K15" t="n">
-        <v>27</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1046,24 +983,23 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>27</v>
-      </c>
-      <c r="L16" t="inlineStr">
+        <v>27.4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>27</v>
+      </c>
+      <c r="K16" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1088,26 +1024,23 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J17" t="n">
         <v>27</v>
       </c>
-      <c r="K17" t="n">
-        <v>27</v>
-      </c>
-      <c r="L17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1132,26 +1065,23 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J18" t="n">
         <v>27</v>
       </c>
-      <c r="K18" t="n">
-        <v>27</v>
-      </c>
-      <c r="L18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1176,26 +1106,23 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="J19" t="n">
         <v>27</v>
       </c>
-      <c r="K19" t="n">
-        <v>27</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1220,26 +1147,21 @@
         <v>226738.3928046199</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>27</v>
       </c>
-      <c r="K20" t="n">
-        <v>27</v>
-      </c>
-      <c r="L20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1264,26 +1186,23 @@
         <v>122394.3865046199</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>27.4</v>
       </c>
       <c r="J21" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="K21" t="n">
-        <v>27</v>
-      </c>
-      <c r="L21" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K21" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1308,26 +1227,23 @@
         <v>196020.19890462</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>27.3</v>
       </c>
       <c r="J22" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="K22" t="n">
-        <v>27</v>
-      </c>
-      <c r="L22" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1352,26 +1268,23 @@
         <v>196020.19890462</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J23" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K23" t="n">
-        <v>27</v>
-      </c>
-      <c r="L23" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1396,26 +1309,23 @@
         <v>196020.19890462</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J24" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K24" t="n">
-        <v>27</v>
-      </c>
-      <c r="L24" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1440,26 +1350,23 @@
         <v>228155.63300462</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>27.5</v>
       </c>
       <c r="J25" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="K25" t="n">
-        <v>27</v>
-      </c>
-      <c r="L25" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1484,26 +1391,23 @@
         <v>249329.04820462</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>27.8</v>
       </c>
       <c r="J26" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="K26" t="n">
-        <v>27</v>
-      </c>
-      <c r="L26" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1528,26 +1432,23 @@
         <v>281452.48230462</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="J27" t="n">
-        <v>28</v>
-      </c>
-      <c r="K27" t="n">
-        <v>27</v>
-      </c>
-      <c r="L27" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1572,26 +1473,23 @@
         <v>320220.73700462</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
       <c r="J28" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="K28" t="n">
-        <v>27</v>
-      </c>
-      <c r="L28" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1616,26 +1514,23 @@
         <v>320220.73700462</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="J29" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K29" t="n">
-        <v>27</v>
-      </c>
-      <c r="L29" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1660,26 +1555,23 @@
         <v>660078.4528046199</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>28.3</v>
       </c>
       <c r="J30" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="K30" t="n">
-        <v>27</v>
-      </c>
-      <c r="L30" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="K30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1706,22 +1598,19 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="n">
-        <v>27</v>
-      </c>
-      <c r="L31" t="inlineStr">
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>27</v>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1748,22 +1637,19 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="n">
-        <v>27</v>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>27</v>
+      </c>
+      <c r="K32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1790,22 +1676,19 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="n">
-        <v>27</v>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>27</v>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1832,22 +1715,19 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="n">
-        <v>27</v>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1874,22 +1754,19 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="n">
-        <v>27</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1916,22 +1793,19 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>27</v>
-      </c>
-      <c r="L36" t="inlineStr">
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>27</v>
+      </c>
+      <c r="K36" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1956,24 +1830,21 @@
         <v>720357.37470462</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="n">
-        <v>27</v>
-      </c>
-      <c r="L37" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>27</v>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1998,26 +1869,21 @@
         <v>658971.1100425799</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="n">
-        <v>27</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1.117222222222222</v>
-      </c>
-      <c r="N38" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>27</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2044,16 +1910,19 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>27</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2080,16 +1949,19 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>1</v>
-      </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>27</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2116,16 +1988,19 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>27</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2150,18 +2025,21 @@
         <v>318258.89817512</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>27</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2186,18 +2064,21 @@
         <v>361956.12447512</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>27</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2224,16 +2105,19 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>27</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2260,16 +2144,19 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>27</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2296,16 +2183,19 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>27</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2332,16 +2222,19 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>27</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2368,16 +2261,19 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>27</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2404,16 +2300,19 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>27</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2440,16 +2339,19 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>27</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2476,16 +2378,19 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>27</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2512,16 +2417,19 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>27</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2548,16 +2456,19 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>27</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2584,16 +2495,19 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>27</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2620,16 +2534,19 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>27</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2656,16 +2573,19 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>27</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2692,16 +2612,19 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>27</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2728,16 +2651,19 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>27</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2764,16 +2690,19 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>27</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2800,16 +2729,19 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>27</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2836,16 +2768,19 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>27</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2872,16 +2807,19 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>27</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2908,16 +2846,19 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>27</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2944,16 +2885,19 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>27</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2980,16 +2924,19 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>27</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3016,16 +2963,19 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>27</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3052,16 +3002,19 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>27</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3088,16 +3041,19 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>27</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3124,16 +3080,19 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>27</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3160,16 +3119,19 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3196,16 +3158,19 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>27</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3232,16 +3197,19 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>27</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3268,16 +3236,19 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>27</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3304,16 +3275,19 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>27</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3340,16 +3314,19 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>27</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3376,16 +3353,19 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>27</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3412,16 +3392,19 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>27</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3448,16 +3431,19 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>27</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3484,16 +3470,19 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>27</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3520,16 +3509,19 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>27</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3556,16 +3548,19 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>27</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3592,16 +3587,19 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>27</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3628,16 +3626,19 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>27</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3664,16 +3665,19 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>27</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3700,16 +3704,19 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>27</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3736,16 +3743,19 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>27</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3772,16 +3782,19 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>27</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3808,16 +3821,19 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>27</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3844,16 +3860,19 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>27</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3880,16 +3899,19 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>27</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3916,16 +3938,19 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>27</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3952,16 +3977,19 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>27</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3988,16 +4016,19 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>27</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4024,16 +4055,19 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>27</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4060,16 +4094,19 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>27</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4096,16 +4133,19 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>27</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4130,18 +4170,23 @@
         <v>168098.80087512</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>27</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>1.106111111111111</v>
+      </c>
       <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4168,16 +4213,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4202,18 +4244,15 @@
         <v>168098.80087512</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4238,18 +4277,15 @@
         <v>161841.23297512</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4276,16 +4312,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4312,16 +4345,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4346,18 +4376,15 @@
         <v>-70721.24212487997</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4384,16 +4411,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4420,16 +4444,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4456,16 +4477,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4492,16 +4510,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4526,18 +4541,15 @@
         <v>-259118.80592488</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4564,16 +4576,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4598,18 +4607,15 @@
         <v>-218279.80062488</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4636,16 +4642,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4672,16 +4675,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4708,16 +4708,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4744,16 +4741,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4780,16 +4774,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4816,16 +4807,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4852,16 +4840,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4888,16 +4873,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4924,16 +4906,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4960,16 +4939,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4996,16 +4972,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5032,16 +5005,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5068,16 +5038,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5104,16 +5071,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5140,16 +5104,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5176,16 +5137,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5212,16 +5170,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5248,16 +5203,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5284,16 +5236,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5320,16 +5269,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5356,16 +5302,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5392,16 +5335,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5428,16 +5368,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5464,16 +5401,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5500,16 +5434,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5536,16 +5467,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5572,16 +5500,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5608,16 +5533,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5644,16 +5566,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5680,16 +5599,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5716,16 +5632,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5752,16 +5665,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5788,16 +5698,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5822,24 +5729,15 @@
         <v>-420092.0742248801</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5864,24 +5762,15 @@
         <v>-418023.8109248801</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5906,24 +5795,15 @@
         <v>-418023.8109248801</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5948,24 +5828,15 @@
         <v>-404681.2645248801</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5992,20 +5863,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6032,20 +5896,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6072,20 +5929,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6110,24 +5960,15 @@
         <v>-420934.8852248801</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6154,20 +5995,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6194,20 +6028,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6234,20 +6061,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6274,20 +6094,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6314,20 +6127,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6354,20 +6160,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6394,20 +6193,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6434,20 +6226,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6474,20 +6259,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6514,20 +6292,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6554,20 +6325,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6594,20 +6358,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6634,20 +6391,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6674,20 +6424,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6714,20 +6457,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6754,20 +6490,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6794,20 +6523,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6832,22 +6554,15 @@
         <v>36190.61157511992</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6872,22 +6587,15 @@
         <v>23236.61157511992</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6914,20 +6622,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6952,22 +6653,15 @@
         <v>23711.58100143992</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6992,22 +6686,15 @@
         <v>-62031.19969856009</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -7032,22 +6719,15 @@
         <v>-88636.43689856009</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -7072,22 +6752,15 @@
         <v>-84536.45389856008</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -7112,22 +6785,15 @@
         <v>-84961.62389856008</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7152,22 +6818,15 @@
         <v>-138532.7427985601</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7194,20 +6853,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7234,20 +6886,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7274,20 +6919,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7314,20 +6952,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7352,24 +6983,15 @@
         <v>-153066.6157985601</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="n">
-        <v>28.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7394,24 +7016,15 @@
         <v>-106853.2817985601</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="n">
-        <v>28.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7438,20 +7051,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7478,20 +7084,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7518,20 +7117,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7558,20 +7150,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7598,20 +7183,13 @@
       <c r="H188" t="n">
         <v>0</v>
       </c>
-      <c r="I188" t="n">
-        <v>0</v>
-      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7638,20 +7216,13 @@
       <c r="H189" t="n">
         <v>0</v>
       </c>
-      <c r="I189" t="n">
-        <v>0</v>
-      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7678,20 +7249,13 @@
       <c r="H190" t="n">
         <v>0</v>
       </c>
-      <c r="I190" t="n">
-        <v>0</v>
-      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7718,20 +7282,13 @@
       <c r="H191" t="n">
         <v>0</v>
       </c>
-      <c r="I191" t="n">
-        <v>0</v>
-      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7756,24 +7313,15 @@
         <v>-83563.35039856005</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="n">
-        <v>28.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7800,20 +7348,13 @@
       <c r="H193" t="n">
         <v>0</v>
       </c>
-      <c r="I193" t="n">
-        <v>0</v>
-      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7840,20 +7381,13 @@
       <c r="H194" t="n">
         <v>0</v>
       </c>
-      <c r="I194" t="n">
-        <v>0</v>
-      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7880,20 +7414,13 @@
       <c r="H195" t="n">
         <v>0</v>
       </c>
-      <c r="I195" t="n">
-        <v>0</v>
-      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7920,20 +7447,13 @@
       <c r="H196" t="n">
         <v>0</v>
       </c>
-      <c r="I196" t="n">
-        <v>0</v>
-      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7960,20 +7480,13 @@
       <c r="H197" t="n">
         <v>0</v>
       </c>
-      <c r="I197" t="n">
-        <v>0</v>
-      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8000,20 +7513,13 @@
       <c r="H198" t="n">
         <v>0</v>
       </c>
-      <c r="I198" t="n">
-        <v>0</v>
-      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -8040,20 +7546,13 @@
       <c r="H199" t="n">
         <v>0</v>
       </c>
-      <c r="I199" t="n">
-        <v>0</v>
-      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -8078,24 +7577,15 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="n">
-        <v>28.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -8120,22 +7610,15 @@
         <v>-70814.83659856005</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -8162,22 +7645,13 @@
       <c r="H202" t="n">
         <v>1</v>
       </c>
-      <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="n">
-        <v>28.7</v>
-      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -8202,22 +7676,15 @@
         <v>6507.452901439945</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8242,22 +7709,15 @@
         <v>-115787.4195985601</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8284,20 +7744,13 @@
       <c r="H205" t="n">
         <v>0</v>
       </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8324,20 +7777,13 @@
       <c r="H206" t="n">
         <v>0</v>
       </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8364,20 +7810,13 @@
       <c r="H207" t="n">
         <v>0</v>
       </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8404,20 +7843,13 @@
       <c r="H208" t="n">
         <v>0</v>
       </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8444,20 +7876,13 @@
       <c r="H209" t="n">
         <v>0</v>
       </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8484,20 +7909,13 @@
       <c r="H210" t="n">
         <v>0</v>
       </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8524,20 +7942,13 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8562,22 +7973,15 @@
         <v>-74184.47539856005</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8602,22 +8006,15 @@
         <v>-74184.47539856005</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8642,22 +8039,15 @@
         <v>-74184.47539856005</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8684,20 +8074,13 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8722,22 +8105,15 @@
         <v>-442701.42959856</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8764,20 +8140,13 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8804,20 +8173,13 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8844,20 +8206,13 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8884,20 +8239,13 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8924,20 +8272,13 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8964,20 +8305,13 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -9004,20 +8338,13 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -9044,20 +8371,13 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -9084,20 +8404,13 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -9124,20 +8437,13 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -9164,20 +8470,13 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -9204,20 +8503,13 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9244,20 +8536,13 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -9284,20 +8569,13 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -9324,20 +8602,13 @@
       <c r="H231" t="n">
         <v>0</v>
       </c>
-      <c r="I231" t="n">
-        <v>0</v>
-      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9364,20 +8635,13 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9404,20 +8668,13 @@
       <c r="H233" t="n">
         <v>0</v>
       </c>
-      <c r="I233" t="n">
-        <v>0</v>
-      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9444,20 +8701,13 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9484,22 +8734,15 @@
       <c r="H235" t="n">
         <v>0</v>
       </c>
-      <c r="I235" t="n">
-        <v>0</v>
-      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>238120.90850462</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>239620.90850462</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27</v>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -520,8 +524,14 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>27</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -553,8 +563,14 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>27</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,15 +599,17 @@
         <v>224816.38150462</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
         <v>27</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -620,17 +638,15 @@
         <v>224816.38150462</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>27</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L7" t="n">
@@ -661,17 +677,15 @@
         <v>220869.28520462</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>27.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
         <v>27</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L8" t="n">
@@ -702,17 +716,15 @@
         <v>268637.83430462</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>27</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L9" t="n">
@@ -743,11 +755,9 @@
         <v>113592.39480462</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>27.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>27</v>
       </c>
@@ -784,11 +794,9 @@
         <v>228529.81530462</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
-      </c>
-      <c r="I11" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>27</v>
       </c>
@@ -942,11 +950,9 @@
         <v>228779.3928046199</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>27</v>
       </c>
@@ -983,7 +989,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>27.4</v>
@@ -1024,7 +1030,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>27</v>
@@ -1065,7 +1071,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>27</v>
@@ -1106,7 +1112,7 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>27</v>
@@ -1147,9 +1153,11 @@
         <v>226738.3928046199</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27</v>
+      </c>
       <c r="J20" t="n">
         <v>27</v>
       </c>
@@ -1186,7 +1194,7 @@
         <v>122394.3865046199</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>27.4</v>
@@ -1227,7 +1235,7 @@
         <v>196020.19890462</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>27.3</v>
@@ -1268,7 +1276,7 @@
         <v>196020.19890462</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>27.5</v>
@@ -1309,7 +1317,7 @@
         <v>196020.19890462</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I24" t="n">
         <v>27.5</v>
@@ -1350,7 +1358,7 @@
         <v>228155.63300462</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>27.5</v>
@@ -1391,7 +1399,7 @@
         <v>249329.04820462</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>27.8</v>
@@ -1432,11 +1440,9 @@
         <v>281452.48230462</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>27</v>
       </c>
@@ -1473,7 +1479,7 @@
         <v>320220.73700462</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>28.1</v>
@@ -1514,11 +1520,9 @@
         <v>320220.73700462</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>28.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>27</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>660078.4528046199</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>28.3</v>
@@ -1830,7 +1834,7 @@
         <v>720357.37470462</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
@@ -1869,7 +1873,7 @@
         <v>658971.1100425799</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
@@ -1877,13 +1881,15 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+        <v>1.117222222222222</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1911,14 +1917,8 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="n">
-        <v>27</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1947,17 +1947,11 @@
         <v>720495.49487512</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="n">
-        <v>27</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1986,17 +1980,11 @@
         <v>405366.57507512</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="n">
-        <v>27</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -2025,17 +2013,11 @@
         <v>318258.89817512</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="n">
-        <v>27</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -2064,17 +2046,11 @@
         <v>361956.12447512</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
-        <v>27</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -2103,17 +2079,11 @@
         <v>303544.87137512</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="n">
-        <v>27</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -2142,17 +2112,11 @@
         <v>61330.04537512001</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="n">
-        <v>27</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -2181,17 +2145,11 @@
         <v>151474.31487512</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
-        <v>27</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -2220,17 +2178,11 @@
         <v>92461.57957512001</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="n">
-        <v>27</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2259,17 +2211,11 @@
         <v>249719.90537512</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="n">
-        <v>27</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2298,17 +2244,11 @@
         <v>402661.51617512</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="n">
-        <v>27</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2337,17 +2277,11 @@
         <v>413661.51617512</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="n">
-        <v>27</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2376,17 +2310,11 @@
         <v>455615.63687512</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="n">
-        <v>27</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2415,17 +2343,11 @@
         <v>455615.63687512</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="n">
-        <v>27</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2454,17 +2376,11 @@
         <v>455615.63687512</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>27</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2493,17 +2409,11 @@
         <v>430735.09457512</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>27</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2532,17 +2442,11 @@
         <v>430860.09457512</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>27</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2571,17 +2475,11 @@
         <v>369746.65817512</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>27</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2610,17 +2508,11 @@
         <v>315131.07197512</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>27</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2649,17 +2541,11 @@
         <v>254847.44467512</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>27</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2688,17 +2574,11 @@
         <v>184133.91997512</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>27</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2727,17 +2607,11 @@
         <v>197133.91997512</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>27</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2766,17 +2640,11 @@
         <v>-16686.91072488</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>27</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2805,17 +2673,11 @@
         <v>-54460.93102488</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>27</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2847,14 +2709,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>27</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2886,14 +2742,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>27</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2925,14 +2775,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>27</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2964,14 +2808,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>27</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3003,14 +2841,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>27</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3042,14 +2874,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>27</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3081,14 +2907,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>27</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3120,14 +2940,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>27</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3159,14 +2973,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>27</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3198,14 +3006,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>27</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3237,14 +3039,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>27</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3276,14 +3072,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>27</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3315,14 +3105,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>27</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3354,14 +3138,8 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>27</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3393,14 +3171,8 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>27</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3432,14 +3204,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>27</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3471,14 +3237,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>27</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3510,14 +3270,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>27</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3549,14 +3303,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>27</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3588,14 +3336,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>27</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3627,14 +3369,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>27</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3666,14 +3402,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>27</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3705,14 +3435,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>27</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3744,14 +3468,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>27</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3783,14 +3501,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>27</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3822,14 +3534,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>27</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3861,14 +3567,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>27</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3900,14 +3600,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>27</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3939,14 +3633,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>27</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3978,14 +3666,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>27</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4017,14 +3699,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>27</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +3732,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>27</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4095,14 +3765,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>27</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4134,14 +3798,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>27</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4170,23 +3828,15 @@
         <v>168098.80087512</v>
       </c>
       <c r="H97" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>27</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>1.106111111111111</v>
-      </c>
-      <c r="M97" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4244,7 +3894,7 @@
         <v>168098.80087512</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4277,7 +3927,7 @@
         <v>161841.23297512</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -4376,7 +4026,7 @@
         <v>-70721.24212487997</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -4541,7 +4191,7 @@
         <v>-259118.80592488</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4607,7 +4257,7 @@
         <v>-218279.80062488</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -6554,7 +6204,7 @@
         <v>36190.61157511992</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6587,7 +6237,7 @@
         <v>23236.61157511992</v>
       </c>
       <c r="H170" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6653,7 +6303,7 @@
         <v>23711.58100143992</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6686,7 +6336,7 @@
         <v>-62031.19969856009</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6719,7 +6369,7 @@
         <v>-88636.43689856009</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6752,7 +6402,7 @@
         <v>-84536.45389856008</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6785,7 +6435,7 @@
         <v>-84961.62389856008</v>
       </c>
       <c r="H176" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6818,7 +6468,7 @@
         <v>-138532.7427985601</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6917,10 +6567,14 @@
         <v>-180415.8545985601</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J180" t="n">
+        <v>28.4</v>
+      </c>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6950,11 +6604,19 @@
         <v>-180438.8545985601</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6983,11 +6645,19 @@
         <v>-153066.6157985601</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="J182" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +6686,19 @@
         <v>-106853.2817985601</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J183" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7049,11 +6727,19 @@
         <v>-37230.28179856006</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>29</v>
+      </c>
+      <c r="J184" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7085,8 +6771,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7118,8 +6810,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7148,11 +6846,19 @@
         <v>-48155.14049856006</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J187" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7181,11 +6887,19 @@
         <v>-50696.12379856006</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J188" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7217,8 +6931,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7250,8 +6970,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7283,8 +7009,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7316,8 +7048,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7349,8 +7087,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7382,8 +7126,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7415,8 +7165,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7448,8 +7204,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7481,8 +7243,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7514,8 +7282,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7547,8 +7321,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7580,8 +7360,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7610,11 +7396,17 @@
         <v>-70814.83659856005</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7643,11 +7435,17 @@
         <v>-65894.67149856006</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7676,11 +7474,17 @@
         <v>6507.452901439945</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7709,11 +7513,17 @@
         <v>-115787.4195985601</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7745,8 +7555,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7778,8 +7594,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7811,8 +7633,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7844,8 +7672,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7877,8 +7711,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7910,8 +7750,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7943,8 +7789,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7973,11 +7825,17 @@
         <v>-74184.47539856005</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8006,11 +7864,17 @@
         <v>-74184.47539856005</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8039,11 +7903,17 @@
         <v>-74184.47539856005</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8075,8 +7945,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8105,11 +7981,17 @@
         <v>-442701.42959856</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8141,8 +8023,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8174,8 +8062,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8207,8 +8101,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8240,8 +8140,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8273,8 +8179,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8306,8 +8218,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8339,8 +8257,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8372,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8405,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8438,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8471,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8504,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8537,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8570,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8603,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8636,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8669,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8702,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8735,14 +8725,20 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>238120.90850462</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>239620.90850462</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>27</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -524,14 +520,8 @@
         <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="n">
-        <v>27</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -563,14 +553,8 @@
         <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="n">
-        <v>27</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -602,14 +586,8 @@
         <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="n">
-        <v>27</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -641,14 +619,8 @@
         <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="n">
-        <v>27</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -680,14 +652,8 @@
         <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="n">
-        <v>27</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -719,14 +685,8 @@
         <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="n">
-        <v>27</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -758,14 +718,8 @@
         <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="n">
-        <v>27</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -797,14 +751,8 @@
         <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>27</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -836,14 +784,8 @@
         <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>27</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -875,14 +817,8 @@
         <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="n">
-        <v>27</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -914,14 +850,8 @@
         <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="n">
-        <v>27</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -953,14 +883,8 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>27</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -989,19 +913,11 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>27</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -1030,19 +946,11 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>27</v>
-      </c>
-      <c r="J17" t="n">
-        <v>27</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -1071,19 +979,11 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>27</v>
-      </c>
-      <c r="J18" t="n">
-        <v>27</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1112,19 +1012,11 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>27</v>
-      </c>
-      <c r="J19" t="n">
-        <v>27</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1153,19 +1045,11 @@
         <v>226738.3928046199</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>27</v>
-      </c>
-      <c r="J20" t="n">
-        <v>27</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1194,19 +1078,11 @@
         <v>122394.3865046199</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27.4</v>
-      </c>
-      <c r="J21" t="n">
-        <v>27</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1235,19 +1111,11 @@
         <v>196020.19890462</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>27.3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>27</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1276,19 +1144,11 @@
         <v>196020.19890462</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J23" t="n">
-        <v>27</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1317,19 +1177,11 @@
         <v>196020.19890462</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>27</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1358,19 +1210,11 @@
         <v>228155.63300462</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>27</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1399,19 +1243,11 @@
         <v>249329.04820462</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>27.8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>27</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1443,14 +1279,8 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>27</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1479,19 +1309,11 @@
         <v>320220.73700462</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>28.1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>27</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1523,14 +1345,8 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>27</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1559,19 +1375,11 @@
         <v>660078.4528046199</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J30" t="n">
-        <v>27</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1600,17 +1408,11 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>27</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1639,17 +1441,11 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>27</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1678,17 +1474,11 @@
         <v>914886.50020462</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>27</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1717,17 +1507,11 @@
         <v>1038435.57000462</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>27</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1756,17 +1540,11 @@
         <v>795338.8224046199</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>27</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1795,17 +1573,11 @@
         <v>924250.76610462</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>27</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1834,17 +1606,11 @@
         <v>720357.37470462</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>27</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1876,20 +1642,12 @@
         <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>27</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
-        <v>1.117222222222222</v>
-      </c>
-      <c r="M38" t="n">
-        <v>1.018518518518519</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1914,7 +1672,7 @@
         <v>760135.96384008</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -2013,7 +1771,7 @@
         <v>318258.89817512</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2079,7 +1837,7 @@
         <v>303544.87137512</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -2244,7 +2002,7 @@
         <v>402661.51617512</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2277,7 +2035,7 @@
         <v>413661.51617512</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2310,7 +2068,7 @@
         <v>455615.63687512</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2343,7 +2101,7 @@
         <v>455615.63687512</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2376,7 +2134,7 @@
         <v>455615.63687512</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2409,7 +2167,7 @@
         <v>430735.09457512</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2706,7 +2464,7 @@
         <v>-42967.10312488</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2739,7 +2497,7 @@
         <v>-45878.04562488</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2838,7 +2596,7 @@
         <v>-10021.50922488</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2871,7 +2629,7 @@
         <v>-39425.35022487999</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4521,7 +4279,7 @@
         <v>-232496.99812488</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4653,7 +4411,7 @@
         <v>-242352.16982488</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4686,7 +4444,7 @@
         <v>-347228.52972488</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4719,7 +4477,7 @@
         <v>-344043.23832488</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4752,7 +4510,7 @@
         <v>-360833.92792488</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4785,7 +4543,7 @@
         <v>-449504.39132488</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4818,7 +4576,7 @@
         <v>-423662.75882488</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4851,7 +4609,7 @@
         <v>-431645.05162488</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -5181,7 +4939,7 @@
         <v>-425926.4537248801</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5214,7 +4972,7 @@
         <v>-425916.4537248801</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5247,7 +5005,7 @@
         <v>-425928.4537248801</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5610,10 +5368,14 @@
         <v>-420934.8852248801</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="J151" t="n">
+        <v>27.9</v>
+      </c>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
@@ -5643,11 +5405,19 @@
         <v>-320485.2599248801</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J152" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5679,8 +5449,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5742,10 +5518,14 @@
         <v>-242747.9754248801</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I155" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J155" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
@@ -5775,11 +5555,19 @@
         <v>-242747.9754248801</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I156" t="n">
+        <v>29</v>
+      </c>
+      <c r="J156" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5811,8 +5599,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5874,10 +5668,14 @@
         <v>-245059.1465248801</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I159" t="n">
+        <v>29</v>
+      </c>
+      <c r="J159" t="n">
+        <v>29</v>
+      </c>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
@@ -5907,11 +5705,19 @@
         <v>-241207.7850248801</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I160" t="n">
+        <v>29</v>
+      </c>
+      <c r="J160" t="n">
+        <v>29</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5943,8 +5749,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>29</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6006,10 +5818,14 @@
         <v>-244658.8008248801</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I163" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="J163" t="n">
+        <v>29.3</v>
+      </c>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
@@ -6039,11 +5855,19 @@
         <v>-244658.8008248801</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I164" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J164" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6072,11 +5896,19 @@
         <v>-233638.6508248801</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I165" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J165" t="n">
+        <v>29.3</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6567,14 +6399,10 @@
         <v>-180415.8545985601</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J180" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
@@ -6604,19 +6432,11 @@
         <v>-180438.8545985601</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J181" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6645,19 +6465,11 @@
         <v>-153066.6157985601</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="J182" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6686,19 +6498,11 @@
         <v>-106853.2817985601</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J183" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6727,19 +6531,11 @@
         <v>-37230.28179856006</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>29</v>
-      </c>
-      <c r="J184" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6771,14 +6567,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6810,14 +6600,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6846,19 +6630,11 @@
         <v>-48155.14049856006</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J187" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6887,19 +6663,11 @@
         <v>-50696.12379856006</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J188" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6931,14 +6699,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6970,14 +6732,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7009,14 +6765,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7048,14 +6798,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7087,14 +6831,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7126,14 +6864,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7165,14 +6897,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7204,14 +6930,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7240,17 +6960,11 @@
         <v>-73567.03839856006</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7279,17 +6993,11 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7318,17 +7026,11 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7360,14 +7062,8 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7399,14 +7095,8 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7438,14 +7128,8 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7477,14 +7161,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7516,14 +7194,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7555,14 +7227,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7594,14 +7260,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7633,14 +7293,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7672,14 +7326,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7711,14 +7359,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7750,14 +7392,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7789,14 +7425,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7828,14 +7458,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7867,14 +7491,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7906,14 +7524,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7945,14 +7557,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7984,14 +7590,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8023,14 +7623,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8062,14 +7656,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8101,14 +7689,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8140,14 +7722,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8179,14 +7755,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8218,14 +7788,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8257,14 +7821,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8296,14 +7854,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8335,14 +7887,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8374,14 +7920,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8413,14 +7953,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8452,14 +7986,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8491,14 +8019,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8530,14 +8052,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8569,14 +8085,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8608,14 +8118,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8647,14 +8151,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8686,14 +8184,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8725,20 +8217,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
       <c r="M235" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -1012,10 +1012,14 @@
         <v>226726.3928046199</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>27</v>
+      </c>
+      <c r="J19" t="n">
+        <v>27</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="n">
         <v>1</v>
@@ -1048,8 +1052,14 @@
         <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>27</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1081,8 +1091,14 @@
         <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>27</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1114,8 +1130,14 @@
         <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>27</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1147,8 +1169,14 @@
         <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>27</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1177,11 +1205,19 @@
         <v>196020.19890462</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>27</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1210,11 +1246,19 @@
         <v>228155.63300462</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>27</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1290,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>27</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1329,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>27</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1368,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>27</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1407,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>27</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1446,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>27</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1408,11 +1482,17 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>27</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1441,11 +1521,17 @@
         <v>746329.9458046199</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>27</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1474,11 +1560,17 @@
         <v>914886.50020462</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>27</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1507,11 +1599,17 @@
         <v>1038435.57000462</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>27</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1540,11 +1638,17 @@
         <v>795338.8224046199</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>27</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,12 +1680,20 @@
         <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>27</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>1.154259259259259</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1.022222222222222</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1672,7 +1784,7 @@
         <v>760135.96384008</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1771,7 +1883,7 @@
         <v>318258.89817512</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1837,7 +1949,7 @@
         <v>303544.87137512</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1982,7 @@
         <v>61330.04537512001</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +2015,7 @@
         <v>151474.31487512</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +2048,7 @@
         <v>92461.57957512001</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +2081,7 @@
         <v>249719.90537512</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2200,7 +2312,7 @@
         <v>430860.09457512</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2266,7 +2378,7 @@
         <v>315131.07197512</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2411,7 @@
         <v>254847.44467512</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2444,7 @@
         <v>184133.91997512</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2477,7 @@
         <v>197133.91997512</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2510,7 @@
         <v>-16686.91072488</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2543,7 @@
         <v>-54460.93102488</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2576,7 @@
         <v>-42967.10312488</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2609,7 @@
         <v>-45878.04562488</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2596,7 +2708,7 @@
         <v>-10021.50922488</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2741,7 @@
         <v>-39425.35022487999</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -4279,7 +4391,7 @@
         <v>-232496.99812488</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4411,7 +4523,7 @@
         <v>-242352.16982488</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4556,7 @@
         <v>-347228.52972488</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4589,7 @@
         <v>-344043.23832488</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4622,7 @@
         <v>-360833.92792488</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4655,7 @@
         <v>-449504.39132488</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4688,7 @@
         <v>-423662.75882488</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4721,7 @@
         <v>-431645.05162488</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4939,7 +5051,7 @@
         <v>-425926.4537248801</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +5084,7 @@
         <v>-425916.4537248801</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5117,7 @@
         <v>-425928.4537248801</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5137,11 +5249,17 @@
         <v>-420092.0742248801</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>28</v>
+      </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5174,7 +5292,11 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5207,7 +5329,11 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5240,7 +5366,11 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5273,7 +5403,11 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5306,7 +5440,11 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5339,7 +5477,11 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5373,10 +5515,12 @@
       <c r="I151" t="n">
         <v>27.9</v>
       </c>
-      <c r="J151" t="n">
-        <v>27.9</v>
-      </c>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5410,12 +5554,10 @@
       <c r="I152" t="n">
         <v>28.4</v>
       </c>
-      <c r="J152" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L152" t="n">
@@ -5449,12 +5591,10 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>27.9</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L153" t="n">
@@ -5489,7 +5629,11 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5523,10 +5667,12 @@
       <c r="I155" t="n">
         <v>28.8</v>
       </c>
-      <c r="J155" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5560,12 +5706,10 @@
       <c r="I156" t="n">
         <v>29</v>
       </c>
-      <c r="J156" t="n">
-        <v>28.8</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L156" t="n">
@@ -5596,15 +5740,15 @@
         <v>-241195.9331248801</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>28.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I157" t="n">
+        <v>29</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L157" t="n">
@@ -5639,7 +5783,11 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5673,10 +5821,12 @@
       <c r="I159" t="n">
         <v>29</v>
       </c>
-      <c r="J159" t="n">
-        <v>29</v>
-      </c>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5710,12 +5860,10 @@
       <c r="I160" t="n">
         <v>29</v>
       </c>
-      <c r="J160" t="n">
-        <v>29</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L160" t="n">
@@ -5746,15 +5894,15 @@
         <v>-237574.7850248801</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>29</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I161" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L161" t="n">
@@ -5785,11 +5933,17 @@
         <v>-237574.7850248801</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I162" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5823,10 +5977,12 @@
       <c r="I163" t="n">
         <v>29.3</v>
       </c>
-      <c r="J163" t="n">
-        <v>29.3</v>
-      </c>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5860,12 +6016,10 @@
       <c r="I164" t="n">
         <v>29.2</v>
       </c>
-      <c r="J164" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L164" t="n">
@@ -5901,12 +6055,10 @@
       <c r="I165" t="n">
         <v>29.2</v>
       </c>
-      <c r="J165" t="n">
-        <v>29.3</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L165" t="n">
@@ -5937,11 +6089,17 @@
         <v>-228096.6508248801</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I166" t="n">
+        <v>29.3</v>
+      </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5970,11 +6128,17 @@
         <v>-85483.89012488007</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I167" t="n">
+        <v>29.4</v>
+      </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6003,11 +6167,17 @@
         <v>-85483.89012488007</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6036,11 +6206,17 @@
         <v>36190.61157511992</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I169" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6069,11 +6245,17 @@
         <v>23236.61157511992</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I170" t="n">
+        <v>30.5</v>
+      </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6102,11 +6284,17 @@
         <v>53102.51287511992</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I171" t="n">
+        <v>29.9</v>
+      </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6139,7 +6327,11 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6172,7 +6364,11 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6201,14 +6397,16 @@
         <v>-88636.43689856009</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
@@ -6333,10 +6531,14 @@
         <v>-142721.2309985601</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J178" t="n">
+        <v>28.8</v>
+      </c>
       <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
@@ -6366,11 +6568,19 @@
         <v>-142721.2309985601</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I179" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J179" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6399,11 +6609,19 @@
         <v>-180415.8545985601</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>28.4</v>
+      </c>
+      <c r="J180" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6432,11 +6650,19 @@
         <v>-180438.8545985601</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I181" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="J181" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6465,11 +6691,19 @@
         <v>-153066.6157985601</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I182" t="n">
+        <v>28.2</v>
+      </c>
+      <c r="J182" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6498,11 +6732,19 @@
         <v>-106853.2817985601</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I183" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="J183" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6531,11 +6773,19 @@
         <v>-37230.28179856006</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>29</v>
+      </c>
+      <c r="J184" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6564,11 +6814,19 @@
         <v>-38619.71109856006</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I185" t="n">
+        <v>29.5</v>
+      </c>
+      <c r="J185" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6597,11 +6855,19 @@
         <v>-48155.14049856006</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I186" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J186" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6630,11 +6896,19 @@
         <v>-48155.14049856006</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I187" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J187" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6663,11 +6937,19 @@
         <v>-50696.12379856006</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I188" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J188" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6696,11 +6978,19 @@
         <v>-41874.71879856006</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J189" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6729,11 +7019,19 @@
         <v>-58774.97049856006</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>29.2</v>
+      </c>
+      <c r="J190" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6762,11 +7060,19 @@
         <v>-95387.15999856006</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I191" t="n">
+        <v>29.1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6795,11 +7101,19 @@
         <v>-83563.35039856005</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I192" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J192" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6828,11 +7142,19 @@
         <v>9550.900501439944</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
-      </c>
-      <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I193" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J193" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6861,11 +7183,19 @@
         <v>-67117.50859856006</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
-      </c>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>29.7</v>
+      </c>
+      <c r="J194" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6897,8 +7227,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6927,11 +7263,19 @@
         <v>-73567.03839856006</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>28.9</v>
+      </c>
+      <c r="J196" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6960,11 +7304,19 @@
         <v>-73567.03839856006</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J197" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6993,11 +7345,19 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J198" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7026,11 +7386,17 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7059,11 +7425,19 @@
         <v>-73947.49939856006</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J200" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7092,11 +7466,19 @@
         <v>-70814.83659856005</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>28.6</v>
+      </c>
+      <c r="J201" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7125,11 +7507,19 @@
         <v>-65894.67149856006</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="J202" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7158,11 +7548,19 @@
         <v>6507.452901439945</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
-      </c>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="J203" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7194,8 +7592,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7227,8 +7631,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7257,11 +7667,19 @@
         <v>-75870.22349856005</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="J206" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7293,8 +7711,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7326,8 +7750,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7359,8 +7789,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7392,8 +7828,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7425,8 +7867,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7458,8 +7906,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7491,8 +7945,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7524,8 +7984,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7557,8 +8023,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7590,8 +8062,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7623,8 +8101,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7656,8 +8140,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7689,8 +8179,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7722,8 +8218,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7755,8 +8257,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7788,8 +8296,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7821,8 +8335,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7854,8 +8374,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7887,8 +8413,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7920,8 +8452,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7953,8 +8491,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7986,8 +8530,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8019,8 +8569,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8052,8 +8608,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8085,8 +8647,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8118,8 +8686,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8151,8 +8725,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8184,8 +8764,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8217,8 +8803,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-27 BackTest CHR.xlsx
+++ b/BackTest/2019-10-27 BackTest CHR.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M235"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>OBV</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>trade_state</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>27.2969</v>
       </c>
       <c r="G2" t="n">
-        <v>238120.90850462</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>1500</v>
       </c>
       <c r="G3" t="n">
-        <v>239620.90850462</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>1500</v>
       </c>
       <c r="G4" t="n">
-        <v>241120.90850462</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>16635.9224</v>
       </c>
       <c r="G5" t="n">
-        <v>224484.98610462</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,19 @@
         <v>331.3954</v>
       </c>
       <c r="G6" t="n">
-        <v>224816.38150462</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27</v>
+      </c>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +597,23 @@
         <v>1233.8954</v>
       </c>
       <c r="G7" t="n">
-        <v>224816.38150462</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>27</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +635,23 @@
         <v>3947.0963</v>
       </c>
       <c r="G8" t="n">
-        <v>220869.28520462</v>
+        <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+        <v>27.1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>27</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +673,23 @@
         <v>47768.5491</v>
       </c>
       <c r="G9" t="n">
-        <v>268637.83430462</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+        <v>27</v>
+      </c>
+      <c r="I9" t="n">
+        <v>27</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +711,23 @@
         <v>155045.4395</v>
       </c>
       <c r="G10" t="n">
-        <v>113592.39480462</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+        <v>27.6</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +749,21 @@
         <v>114937.4205</v>
       </c>
       <c r="G11" t="n">
-        <v>228529.81530462</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="n">
+        <v>27</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +785,21 @@
         <v>22.9407</v>
       </c>
       <c r="G12" t="n">
-        <v>228506.87460462</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="n">
+        <v>27</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +821,21 @@
         <v>17951.7067</v>
       </c>
       <c r="G13" t="n">
-        <v>228506.87460462</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="n">
+        <v>27</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +857,21 @@
         <v>2275</v>
       </c>
       <c r="G14" t="n">
-        <v>228506.87460462</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="n">
+        <v>27</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +893,21 @@
         <v>272.5182</v>
       </c>
       <c r="G15" t="n">
-        <v>228779.3928046199</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="n">
+        <v>27</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +929,21 @@
         <v>2053</v>
       </c>
       <c r="G16" t="n">
-        <v>226726.3928046199</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="n">
+        <v>27</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +965,21 @@
         <v>12737</v>
       </c>
       <c r="G17" t="n">
-        <v>226726.3928046199</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="n">
+        <v>27</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +1001,21 @@
         <v>24452</v>
       </c>
       <c r="G18" t="n">
-        <v>226726.3928046199</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="n">
+        <v>27</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,22 +1037,21 @@
         <v>2353</v>
       </c>
       <c r="G19" t="n">
-        <v>226726.3928046199</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>27</v>
       </c>
-      <c r="J19" t="n">
-        <v>27</v>
-      </c>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1046,24 +1073,23 @@
         <v>12</v>
       </c>
       <c r="G20" t="n">
-        <v>226738.3928046199</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>27</v>
-      </c>
-      <c r="K20" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="I20" t="n">
+        <v>27</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1085,24 +1111,21 @@
         <v>104344.0063</v>
       </c>
       <c r="G21" t="n">
-        <v>122394.3865046199</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="n">
-        <v>27</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="n">
+        <v>27</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1124,24 +1147,21 @@
         <v>73625.8124</v>
       </c>
       <c r="G22" t="n">
-        <v>196020.19890462</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="n">
-        <v>27</v>
-      </c>
-      <c r="K22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="n">
+        <v>27</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1163,24 +1183,21 @@
         <v>7278.8436</v>
       </c>
       <c r="G23" t="n">
-        <v>196020.19890462</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="n">
-        <v>27</v>
-      </c>
-      <c r="K23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="n">
+        <v>27</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1202,26 +1219,21 @@
         <v>18392.9051</v>
       </c>
       <c r="G24" t="n">
-        <v>196020.19890462</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>27</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1243,26 +1255,21 @@
         <v>32135.4341</v>
       </c>
       <c r="G25" t="n">
-        <v>228155.63300462</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
-        <v>27.5</v>
-      </c>
-      <c r="J25" t="n">
-        <v>27</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>27</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1284,24 +1291,21 @@
         <v>21173.4152</v>
       </c>
       <c r="G26" t="n">
-        <v>249329.04820462</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="n">
-        <v>27</v>
-      </c>
-      <c r="K26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="n">
+        <v>27</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1323,24 +1327,21 @@
         <v>32123.4341</v>
       </c>
       <c r="G27" t="n">
-        <v>281452.48230462</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="n">
-        <v>27</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="n">
+        <v>27</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1362,24 +1363,21 @@
         <v>38768.2547</v>
       </c>
       <c r="G28" t="n">
-        <v>320220.73700462</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="n">
-        <v>27</v>
-      </c>
-      <c r="K28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="n">
+        <v>27</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1401,24 +1399,21 @@
         <v>44061.6603</v>
       </c>
       <c r="G29" t="n">
-        <v>320220.73700462</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="n">
-        <v>27</v>
-      </c>
-      <c r="K29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="n">
+        <v>27</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1440,24 +1435,21 @@
         <v>339857.7158</v>
       </c>
       <c r="G30" t="n">
-        <v>660078.4528046199</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="n">
-        <v>27</v>
-      </c>
-      <c r="K30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="n">
+        <v>27</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1479,24 +1471,21 @@
         <v>86251.493</v>
       </c>
       <c r="G31" t="n">
-        <v>746329.9458046199</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="n">
-        <v>27</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="n">
+        <v>27</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1518,24 +1507,21 @@
         <v>48580.7902</v>
       </c>
       <c r="G32" t="n">
-        <v>746329.9458046199</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>27</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="n">
+        <v>27</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1557,24 +1543,21 @@
         <v>168556.5544</v>
       </c>
       <c r="G33" t="n">
-        <v>914886.50020462</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>27</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="n">
+        <v>27</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1596,24 +1579,21 @@
         <v>123549.0698</v>
       </c>
       <c r="G34" t="n">
-        <v>1038435.57000462</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>27</v>
-      </c>
-      <c r="K34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="n">
+        <v>27</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,24 +1615,21 @@
         <v>243096.7476</v>
       </c>
       <c r="G35" t="n">
-        <v>795338.8224046199</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>27</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="n">
+        <v>27</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1674,158 +1651,167 @@
         <v>128911.9437</v>
       </c>
       <c r="G36" t="n">
-        <v>924250.76610462</v>
-      </c>
-      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="n">
+        <v>27</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="C37" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D37" t="n">
+        <v>31.3</v>
+      </c>
+      <c r="E37" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F37" t="n">
+        <v>203893.3914</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="n">
+        <v>27</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>31.2</v>
+      </c>
+      <c r="E38" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>61386.26466204</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="n">
+        <v>27</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>30.3</v>
+      </c>
+      <c r="C39" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="D39" t="n">
+        <v>32</v>
+      </c>
+      <c r="E39" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>101164.8537975</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="n">
+        <v>27</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="C40" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="D40" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E40" t="n">
+        <v>31.1</v>
+      </c>
+      <c r="F40" t="n">
+        <v>39640.46896496</v>
+      </c>
+      <c r="G40" t="n">
         <v>2</v>
       </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="n">
-        <v>27</v>
-      </c>
-      <c r="K36" t="inlineStr">
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="n">
+        <v>27</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L36" t="n">
-        <v>1.154259259259259</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.022222222222222</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="C37" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D37" t="n">
-        <v>31.3</v>
-      </c>
-      <c r="E37" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F37" t="n">
-        <v>203893.3914</v>
-      </c>
-      <c r="G37" t="n">
-        <v>720357.37470462</v>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="C38" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="D38" t="n">
-        <v>31.2</v>
-      </c>
-      <c r="E38" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>61386.26466204</v>
-      </c>
-      <c r="G38" t="n">
-        <v>658971.1100425799</v>
-      </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>30.3</v>
-      </c>
-      <c r="C39" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>32</v>
-      </c>
-      <c r="E39" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="F39" t="n">
-        <v>101164.8537975</v>
-      </c>
-      <c r="G39" t="n">
-        <v>760135.96384008</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="C40" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="D40" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E40" t="n">
-        <v>31.1</v>
-      </c>
-      <c r="F40" t="n">
-        <v>39640.46896496</v>
-      </c>
-      <c r="G40" t="n">
-        <v>720495.49487512</v>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1.146851851851852</v>
+      </c>
       <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+        <v>1.018518518518519</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1847,18 +1833,15 @@
         <v>315128.9198</v>
       </c>
       <c r="G41" t="n">
-        <v>405366.57507512</v>
-      </c>
-      <c r="H41" t="n">
         <v>2</v>
       </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,18 +1863,15 @@
         <v>87107.67690000001</v>
       </c>
       <c r="G42" t="n">
-        <v>318258.89817512</v>
-      </c>
-      <c r="H42" t="n">
         <v>2</v>
       </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1913,18 +1893,15 @@
         <v>43697.2263</v>
       </c>
       <c r="G43" t="n">
-        <v>361956.12447512</v>
-      </c>
-      <c r="H43" t="n">
         <v>2</v>
       </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1946,18 +1923,15 @@
         <v>58411.2531</v>
       </c>
       <c r="G44" t="n">
-        <v>303544.87137512</v>
-      </c>
-      <c r="H44" t="n">
         <v>2</v>
       </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1979,18 +1953,15 @@
         <v>242214.826</v>
       </c>
       <c r="G45" t="n">
-        <v>61330.04537512001</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2012,18 +1983,15 @@
         <v>90144.26949999999</v>
       </c>
       <c r="G46" t="n">
-        <v>151474.31487512</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2045,18 +2013,15 @@
         <v>59012.7353</v>
       </c>
       <c r="G47" t="n">
-        <v>92461.57957512001</v>
-      </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2078,18 +2043,15 @@
         <v>157258.3258</v>
       </c>
       <c r="G48" t="n">
-        <v>249719.90537512</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2111,18 +2073,15 @@
         <v>152941.6108</v>
       </c>
       <c r="G49" t="n">
-        <v>402661.51617512</v>
-      </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2144,18 +2103,15 @@
         <v>11000</v>
       </c>
       <c r="G50" t="n">
-        <v>413661.51617512</v>
-      </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2177,18 +2133,15 @@
         <v>41954.1207</v>
       </c>
       <c r="G51" t="n">
-        <v>455615.63687512</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2210,18 +2163,15 @@
         <v>18019.5931</v>
       </c>
       <c r="G52" t="n">
-        <v>455615.63687512</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2243,18 +2193,15 @@
         <v>7432</v>
       </c>
       <c r="G53" t="n">
-        <v>455615.63687512</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2276,18 +2223,15 @@
         <v>24880.5423</v>
       </c>
       <c r="G54" t="n">
-        <v>430735.09457512</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2309,18 +2253,15 @@
         <v>125</v>
       </c>
       <c r="G55" t="n">
-        <v>430860.09457512</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2342,18 +2283,15 @@
         <v>61113.4364</v>
       </c>
       <c r="G56" t="n">
-        <v>369746.65817512</v>
-      </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2375,18 +2313,15 @@
         <v>54615.5862</v>
       </c>
       <c r="G57" t="n">
-        <v>315131.07197512</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2408,18 +2343,15 @@
         <v>60283.6273</v>
       </c>
       <c r="G58" t="n">
-        <v>254847.44467512</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2441,18 +2373,15 @@
         <v>70713.52469999999</v>
       </c>
       <c r="G59" t="n">
-        <v>184133.91997512</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2474,18 +2403,15 @@
         <v>13000</v>
       </c>
       <c r="G60" t="n">
-        <v>197133.91997512</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2507,18 +2433,15 @@
         <v>213820.8307</v>
       </c>
       <c r="G61" t="n">
-        <v>-16686.91072488</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2540,18 +2463,15 @@
         <v>37774.0203</v>
       </c>
       <c r="G62" t="n">
-        <v>-54460.93102488</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2573,18 +2493,15 @@
         <v>11493.8279</v>
       </c>
       <c r="G63" t="n">
-        <v>-42967.10312488</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2606,18 +2523,15 @@
         <v>2910.9425</v>
       </c>
       <c r="G64" t="n">
-        <v>-45878.04562488</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2639,18 +2553,15 @@
         <v>300.885</v>
       </c>
       <c r="G65" t="n">
-        <v>-45878.04562488</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2672,18 +2583,15 @@
         <v>27826.5364</v>
       </c>
       <c r="G66" t="n">
-        <v>-18051.50922488</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2705,18 +2613,15 @@
         <v>8030</v>
       </c>
       <c r="G67" t="n">
-        <v>-10021.50922488</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2738,18 +2643,15 @@
         <v>29403.841</v>
       </c>
       <c r="G68" t="n">
-        <v>-39425.35022487999</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2771,18 +2673,15 @@
         <v>25427.4285</v>
       </c>
       <c r="G69" t="n">
-        <v>-13997.92172487999</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2804,18 +2703,15 @@
         <v>4607.6608</v>
       </c>
       <c r="G70" t="n">
-        <v>-9390.260924879991</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2837,18 +2733,15 @@
         <v>78776.7066</v>
       </c>
       <c r="G71" t="n">
-        <v>-88166.96752487999</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2870,18 +2763,15 @@
         <v>26181.814</v>
       </c>
       <c r="G72" t="n">
-        <v>-61985.15352487999</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2903,18 +2793,15 @@
         <v>33047.7351</v>
       </c>
       <c r="G73" t="n">
-        <v>-28937.41842487999</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2936,18 +2823,15 @@
         <v>29</v>
       </c>
       <c r="G74" t="n">
-        <v>-28908.41842487999</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2969,18 +2853,15 @@
         <v>16018.2638</v>
       </c>
       <c r="G75" t="n">
-        <v>-44926.68222487999</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3002,18 +2883,15 @@
         <v>106706.9358</v>
       </c>
       <c r="G76" t="n">
-        <v>-151633.61802488</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3035,18 +2913,15 @@
         <v>21332.6114</v>
       </c>
       <c r="G77" t="n">
-        <v>-130301.00662488</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3068,18 +2943,15 @@
         <v>132077.7038</v>
       </c>
       <c r="G78" t="n">
-        <v>1776.697175119974</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3101,18 +2973,15 @@
         <v>187555.803</v>
       </c>
       <c r="G79" t="n">
-        <v>1776.697175119974</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3134,18 +3003,15 @@
         <v>35123.0591</v>
       </c>
       <c r="G80" t="n">
-        <v>36899.75627511997</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3167,18 +3033,15 @@
         <v>309.9991</v>
       </c>
       <c r="G81" t="n">
-        <v>37209.75537511997</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3200,18 +3063,15 @@
         <v>18262.6193</v>
       </c>
       <c r="G82" t="n">
-        <v>37209.75537511997</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3233,18 +3093,15 @@
         <v>177106.5265</v>
       </c>
       <c r="G83" t="n">
-        <v>-139896.77112488</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3266,18 +3123,15 @@
         <v>33355.276</v>
       </c>
       <c r="G84" t="n">
-        <v>-173252.04712488</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3299,18 +3153,15 @@
         <v>20721.1371</v>
       </c>
       <c r="G85" t="n">
-        <v>-193973.18422488</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3332,18 +3183,15 @@
         <v>39398.7</v>
       </c>
       <c r="G86" t="n">
-        <v>-233371.88422488</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3365,18 +3213,15 @@
         <v>3600</v>
       </c>
       <c r="G87" t="n">
-        <v>-229771.88422488</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3398,18 +3243,15 @@
         <v>43974.2613</v>
       </c>
       <c r="G88" t="n">
-        <v>-229771.88422488</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3431,18 +3273,15 @@
         <v>962</v>
       </c>
       <c r="G89" t="n">
-        <v>-229771.88422488</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3464,18 +3303,15 @@
         <v>20</v>
       </c>
       <c r="G90" t="n">
-        <v>-229791.88422488</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3497,18 +3333,15 @@
         <v>59313.7284</v>
       </c>
       <c r="G91" t="n">
-        <v>-170478.15582488</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3530,18 +3363,15 @@
         <v>2307.2894</v>
       </c>
       <c r="G92" t="n">
-        <v>-170478.15582488</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3563,18 +3393,15 @@
         <v>1610.439</v>
       </c>
       <c r="G93" t="n">
-        <v>-168867.71682488</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3596,18 +3423,15 @@
         <v>263847.389</v>
       </c>
       <c r="G94" t="n">
-        <v>94979.67217512001</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3629,18 +3453,15 @@
         <v>280435.4556</v>
       </c>
       <c r="G95" t="n">
-        <v>-185455.78342488</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3662,18 +3483,15 @@
         <v>74547.16099999999</v>
       </c>
       <c r="G96" t="n">
-        <v>-110908.62242488</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3695,18 +3513,15 @@
         <v>279007.4233</v>
       </c>
       <c r="G97" t="n">
-        <v>168098.80087512</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3728,18 +3543,15 @@
         <v>2280.0716</v>
       </c>
       <c r="G98" t="n">
-        <v>168098.80087512</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3761,18 +3573,15 @@
         <v>3864.0387</v>
       </c>
       <c r="G99" t="n">
-        <v>168098.80087512</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3794,18 +3603,15 @@
         <v>6257.5679</v>
       </c>
       <c r="G100" t="n">
-        <v>161841.23297512</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3827,18 +3633,15 @@
         <v>245221.054</v>
       </c>
       <c r="G101" t="n">
-        <v>-83379.82102487996</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3860,18 +3663,15 @@
         <v>12658.5789</v>
       </c>
       <c r="G102" t="n">
-        <v>-70721.24212487997</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3893,18 +3693,15 @@
         <v>67979.7105</v>
       </c>
       <c r="G103" t="n">
-        <v>-70721.24212487997</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3926,18 +3723,15 @@
         <v>9052.8228</v>
       </c>
       <c r="G104" t="n">
-        <v>-79774.06492487996</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3959,18 +3753,15 @@
         <v>21</v>
       </c>
       <c r="G105" t="n">
-        <v>-79753.06492487996</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3992,18 +3783,15 @@
         <v>123996.3585</v>
       </c>
       <c r="G106" t="n">
-        <v>44243.29357512004</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4025,18 +3813,15 @@
         <v>24083.7828</v>
       </c>
       <c r="G107" t="n">
-        <v>20159.51077512004</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4058,18 +3843,15 @@
         <v>279278.3167</v>
       </c>
       <c r="G108" t="n">
-        <v>-259118.80592488</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4091,18 +3873,15 @@
         <v>11502.8172</v>
       </c>
       <c r="G109" t="n">
-        <v>-247615.98872488</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4124,18 +3903,15 @@
         <v>29336.1881</v>
       </c>
       <c r="G110" t="n">
-        <v>-218279.80062488</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4157,18 +3933,15 @@
         <v>1710.2305</v>
       </c>
       <c r="G111" t="n">
-        <v>-219990.03112488</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4190,18 +3963,15 @@
         <v>2310</v>
       </c>
       <c r="G112" t="n">
-        <v>-219990.03112488</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4223,18 +3993,15 @@
         <v>7707.5975</v>
       </c>
       <c r="G113" t="n">
-        <v>-219990.03112488</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4256,18 +4023,15 @@
         <v>1278.0216</v>
       </c>
       <c r="G114" t="n">
-        <v>-218712.00952488</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4289,18 +4053,15 @@
         <v>1400</v>
       </c>
       <c r="G115" t="n">
-        <v>-218712.00952488</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4322,18 +4083,15 @@
         <v>5546.2214</v>
       </c>
       <c r="G116" t="n">
-        <v>-224258.23092488</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4355,18 +4113,15 @@
         <v>8283.6661</v>
       </c>
       <c r="G117" t="n">
-        <v>-232541.89702488</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4388,18 +4143,15 @@
         <v>44.8989</v>
       </c>
       <c r="G118" t="n">
-        <v>-232496.99812488</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4421,18 +4173,15 @@
         <v>426</v>
       </c>
       <c r="G119" t="n">
-        <v>-232922.99812488</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4454,18 +4203,15 @@
         <v>75100.3272</v>
       </c>
       <c r="G120" t="n">
-        <v>-232922.99812488</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4487,18 +4233,15 @@
         <v>13243.8292</v>
       </c>
       <c r="G121" t="n">
-        <v>-246166.82732488</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4520,18 +4263,15 @@
         <v>3814.6575</v>
       </c>
       <c r="G122" t="n">
-        <v>-242352.16982488</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4553,18 +4293,15 @@
         <v>104876.3599</v>
       </c>
       <c r="G123" t="n">
-        <v>-347228.52972488</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4586,18 +4323,15 @@
         <v>3185.2914</v>
       </c>
       <c r="G124" t="n">
-        <v>-344043.23832488</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4619,18 +4353,15 @@
         <v>16790.6896</v>
       </c>
       <c r="G125" t="n">
-        <v>-360833.92792488</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4652,18 +4383,15 @@
         <v>88670.46339999999</v>
       </c>
       <c r="G126" t="n">
-        <v>-449504.39132488</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4685,18 +4413,15 @@
         <v>25841.6325</v>
       </c>
       <c r="G127" t="n">
-        <v>-423662.75882488</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4718,18 +4443,15 @@
         <v>7982.2928</v>
       </c>
       <c r="G128" t="n">
-        <v>-431645.05162488</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4751,18 +4473,15 @@
         <v>143344.1649</v>
       </c>
       <c r="G129" t="n">
-        <v>-288300.88672488</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4784,18 +4503,15 @@
         <v>2966.1014</v>
       </c>
       <c r="G130" t="n">
-        <v>-285334.78532488</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4817,18 +4533,15 @@
         <v>7021.8238</v>
       </c>
       <c r="G131" t="n">
-        <v>-292356.60912488</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4850,18 +4563,15 @@
         <v>20851.312</v>
       </c>
       <c r="G132" t="n">
-        <v>-292356.60912488</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4883,18 +4593,15 @@
         <v>157292.0698</v>
       </c>
       <c r="G133" t="n">
-        <v>-449648.67892488</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4916,18 +4623,15 @@
         <v>17699.4233</v>
       </c>
       <c r="G134" t="n">
-        <v>-467348.10222488</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4949,18 +4653,15 @@
         <v>4795.4137</v>
       </c>
       <c r="G135" t="n">
-        <v>-462552.68852488</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4982,18 +4683,15 @@
         <v>2750.7427</v>
       </c>
       <c r="G136" t="n">
-        <v>-462552.68852488</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5015,18 +4713,15 @@
         <v>36194.2348</v>
       </c>
       <c r="G137" t="n">
-        <v>-426358.4537248801</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5048,18 +4743,15 @@
         <v>432</v>
       </c>
       <c r="G138" t="n">
-        <v>-425926.4537248801</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5081,18 +4773,15 @@
         <v>10</v>
       </c>
       <c r="G139" t="n">
-        <v>-425916.4537248801</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5114,18 +4803,15 @@
         <v>12</v>
       </c>
       <c r="G140" t="n">
-        <v>-425928.4537248801</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5147,18 +4833,15 @@
         <v>870.5133</v>
       </c>
       <c r="G141" t="n">
-        <v>-425057.9404248801</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5180,18 +4863,15 @@
         <v>27.4867</v>
       </c>
       <c r="G142" t="n">
-        <v>-425085.4271248801</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5213,18 +4893,15 @@
         <v>6257.25</v>
       </c>
       <c r="G143" t="n">
-        <v>-431342.6771248801</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="n">
-        <v>1</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5246,24 +4923,15 @@
         <v>11250.6029</v>
       </c>
       <c r="G144" t="n">
-        <v>-420092.0742248801</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>28</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5285,22 +4953,15 @@
         <v>2068.2633</v>
       </c>
       <c r="G145" t="n">
-        <v>-418023.8109248801</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5322,22 +4983,15 @@
         <v>4092.0193</v>
       </c>
       <c r="G146" t="n">
-        <v>-418023.8109248801</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5359,22 +5013,15 @@
         <v>13342.5464</v>
       </c>
       <c r="G147" t="n">
-        <v>-404681.2645248801</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5396,22 +5043,15 @@
         <v>47248.6619</v>
       </c>
       <c r="G148" t="n">
-        <v>-404681.2645248801</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5433,22 +5073,15 @@
         <v>271</v>
       </c>
       <c r="G149" t="n">
-        <v>-404952.2645248801</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5470,22 +5103,15 @@
         <v>16078.7826</v>
       </c>
       <c r="G150" t="n">
-        <v>-421031.0471248801</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5507,24 +5133,15 @@
         <v>96.1619</v>
       </c>
       <c r="G151" t="n">
-        <v>-420934.8852248801</v>
-      </c>
-      <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>27.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5546,24 +5163,15 @@
         <v>100449.6253</v>
       </c>
       <c r="G152" t="n">
-        <v>-320485.2599248801</v>
-      </c>
-      <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>28.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5585,22 +5193,15 @@
         <v>56368.6925</v>
       </c>
       <c r="G153" t="n">
-        <v>-264116.56742488</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5622,22 +5223,15 @@
         <v>1571.9393</v>
       </c>
       <c r="G154" t="n">
-        <v>-265688.5067248801</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5659,24 +5253,15 @@
         <v>22940.5313</v>
       </c>
       <c r="G155" t="n">
-        <v>-242747.9754248801</v>
-      </c>
-      <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>28.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5698,24 +5283,15 @@
         <v>2422.7746</v>
       </c>
       <c r="G156" t="n">
-        <v>-242747.9754248801</v>
-      </c>
-      <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5737,24 +5313,15 @@
         <v>1552.0423</v>
       </c>
       <c r="G157" t="n">
-        <v>-241195.9331248801</v>
-      </c>
-      <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5776,22 +5343,15 @@
         <v>3863.2134</v>
       </c>
       <c r="G158" t="n">
-        <v>-245059.1465248801</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5813,24 +5373,15 @@
         <v>22012.0116</v>
       </c>
       <c r="G159" t="n">
-        <v>-245059.1465248801</v>
-      </c>
-      <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5852,24 +5403,15 @@
         <v>3851.3615</v>
       </c>
       <c r="G160" t="n">
-        <v>-241207.7850248801</v>
-      </c>
-      <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>29</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5891,24 +5433,15 @@
         <v>3633</v>
       </c>
       <c r="G161" t="n">
-        <v>-237574.7850248801</v>
-      </c>
-      <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>29.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5930,24 +5463,15 @@
         <v>402.6229</v>
       </c>
       <c r="G162" t="n">
-        <v>-237574.7850248801</v>
-      </c>
-      <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5969,24 +5493,15 @@
         <v>7084.0158</v>
       </c>
       <c r="G163" t="n">
-        <v>-244658.8008248801</v>
-      </c>
-      <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6008,24 +5523,15 @@
         <v>14192.628</v>
       </c>
       <c r="G164" t="n">
-        <v>-244658.8008248801</v>
-      </c>
-      <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6047,24 +5553,15 @@
         <v>11020.15</v>
       </c>
       <c r="G165" t="n">
-        <v>-233638.6508248801</v>
-      </c>
-      <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>29.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6086,24 +5583,15 @@
         <v>5542</v>
       </c>
       <c r="G166" t="n">
-        <v>-228096.6508248801</v>
-      </c>
-      <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>29.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6125,24 +5613,15 @@
         <v>142612.7607</v>
       </c>
       <c r="G167" t="n">
-        <v>-85483.89012488007</v>
-      </c>
-      <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>29.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6164,24 +5643,15 @@
         <v>46407.5886</v>
       </c>
       <c r="G168" t="n">
-        <v>-85483.89012488007</v>
-      </c>
-      <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>29.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6203,24 +5673,15 @@
         <v>121674.5017</v>
       </c>
       <c r="G169" t="n">
-        <v>36190.61157511992</v>
-      </c>
-      <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>29.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6242,24 +5703,15 @@
         <v>12954</v>
       </c>
       <c r="G170" t="n">
-        <v>23236.61157511992</v>
-      </c>
-      <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>30.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6281,24 +5733,15 @@
         <v>29865.9013</v>
       </c>
       <c r="G171" t="n">
-        <v>53102.51287511992</v>
-      </c>
-      <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>29.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6320,22 +5763,15 @@
         <v>29390.93187368</v>
       </c>
       <c r="G172" t="n">
-        <v>23711.58100143992</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6357,22 +5793,15 @@
         <v>85742.7807</v>
       </c>
       <c r="G173" t="n">
-        <v>-62031.19969856009</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H173" t="inlineStr"/>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>1</v>
+      </c>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6394,20 +5823,15 @@
         <v>26605.2372</v>
       </c>
       <c r="G174" t="n">
-        <v>-88636.43689856009</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
+      <c r="K174" t="n">
+        <v>1</v>
       </c>
       <c r="L174" t="inlineStr"/>
-      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6429,18 +5853,15 @@
         <v>4099.983</v>
       </c>
       <c r="G175" t="n">
-        <v>-84536.45389856008</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6462,18 +5883,15 @@
         <v>425.17</v>
       </c>
       <c r="G176" t="n">
-        <v>-84961.62389856008</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr"/>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6495,18 +5913,15 @@
         <v>53571.1189</v>
       </c>
       <c r="G177" t="n">
-        <v>-138532.7427985601</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr"/>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6528,22 +5943,15 @@
         <v>4188.4882</v>
       </c>
       <c r="G178" t="n">
-        <v>-142721.2309985601</v>
-      </c>
-      <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J178" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6565,26 +5973,15 @@
         <v>89235.8438</v>
       </c>
       <c r="G179" t="n">
-        <v>-142721.2309985601</v>
-      </c>
-      <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J179" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6606,26 +6003,15 @@
         <v>37694.6236</v>
       </c>
       <c r="G180" t="n">
-        <v>-180415.8545985601</v>
-      </c>
-      <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>28.4</v>
-      </c>
-      <c r="J180" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6647,26 +6033,15 @@
         <v>23</v>
       </c>
       <c r="G181" t="n">
-        <v>-180438.8545985601</v>
-      </c>
-      <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>28.3</v>
-      </c>
-      <c r="J181" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6688,26 +6063,15 @@
         <v>27372.2388</v>
       </c>
       <c r="G182" t="n">
-        <v>-153066.6157985601</v>
-      </c>
-      <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>28.2</v>
-      </c>
-      <c r="J182" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6729,26 +6093,15 @@
         <v>46213.334</v>
       </c>
       <c r="G183" t="n">
-        <v>-106853.2817985601</v>
-      </c>
-      <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>28.5</v>
-      </c>
-      <c r="J183" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -6770,26 +6123,15 @@
         <v>69623</v>
       </c>
       <c r="G184" t="n">
-        <v>-37230.28179856006</v>
-      </c>
-      <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>29</v>
-      </c>
-      <c r="J184" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -6811,26 +6153,15 @@
         <v>1389.4293</v>
       </c>
       <c r="G185" t="n">
-        <v>-38619.71109856006</v>
-      </c>
-      <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>29.5</v>
-      </c>
-      <c r="J185" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -6852,26 +6183,15 @@
         <v>9535.429400000001</v>
       </c>
       <c r="G186" t="n">
-        <v>-48155.14049856006</v>
-      </c>
-      <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J186" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -6893,26 +6213,15 @@
         <v>12211</v>
       </c>
       <c r="G187" t="n">
-        <v>-48155.14049856006</v>
-      </c>
-      <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J187" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -6934,26 +6243,15 @@
         <v>2540.9833</v>
       </c>
       <c r="G188" t="n">
-        <v>-50696.12379856006</v>
-      </c>
-      <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J188" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>1</v>
+      </c>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -6975,26 +6273,15 @@
         <v>8821.405000000001</v>
       </c>
       <c r="G189" t="n">
-        <v>-41874.71879856006</v>
-      </c>
-      <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J189" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>1</v>
+      </c>
+      <c r="L189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7016,26 +6303,15 @@
         <v>16900.2517</v>
       </c>
       <c r="G190" t="n">
-        <v>-58774.97049856006</v>
-      </c>
-      <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>29.2</v>
-      </c>
-      <c r="J190" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>1</v>
+      </c>
+      <c r="L190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7057,26 +6333,15 @@
         <v>36612.1895</v>
       </c>
       <c r="G191" t="n">
-        <v>-95387.15999856006</v>
-      </c>
-      <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>29.1</v>
-      </c>
-      <c r="J191" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7098,26 +6363,15 @@
         <v>11823.8096</v>
       </c>
       <c r="G192" t="n">
-        <v>-83563.35039856005</v>
-      </c>
-      <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J192" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7139,26 +6393,15 @@
         <v>93114.2509</v>
       </c>
       <c r="G193" t="n">
-        <v>9550.900501439944</v>
-      </c>
-      <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J193" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7180,26 +6423,15 @@
         <v>76668.4091</v>
       </c>
       <c r="G194" t="n">
-        <v>-67117.50859856006</v>
-      </c>
-      <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="J194" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>1</v>
+      </c>
+      <c r="L194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7221,24 +6453,15 @@
         <v>400</v>
       </c>
       <c r="G195" t="n">
-        <v>-67517.50859856006</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7260,26 +6483,15 @@
         <v>6049.5298</v>
       </c>
       <c r="G196" t="n">
-        <v>-73567.03839856006</v>
-      </c>
-      <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>28.9</v>
-      </c>
-      <c r="J196" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7301,26 +6513,15 @@
         <v>28886.1591</v>
       </c>
       <c r="G197" t="n">
-        <v>-73567.03839856006</v>
-      </c>
-      <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J197" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7342,26 +6543,15 @@
         <v>380.461</v>
       </c>
       <c r="G198" t="n">
-        <v>-73947.49939856006</v>
-      </c>
-      <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J198" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7383,24 +6573,15 @@
         <v>33</v>
       </c>
       <c r="G199" t="n">
-        <v>-73947.49939856006</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7422,26 +6603,15 @@
         <v>1895.4585</v>
       </c>
       <c r="G200" t="n">
-        <v>-73947.49939856006</v>
-      </c>
-      <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J200" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>1</v>
+      </c>
+      <c r="L200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7463,26 +6633,15 @@
         <v>3132.6628</v>
       </c>
       <c r="G201" t="n">
-        <v>-70814.83659856005</v>
-      </c>
-      <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>28.6</v>
-      </c>
-      <c r="J201" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7504,26 +6663,15 @@
         <v>4920.1651</v>
       </c>
       <c r="G202" t="n">
-        <v>-65894.67149856006</v>
-      </c>
-      <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>28.7</v>
-      </c>
-      <c r="J202" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7545,26 +6693,15 @@
         <v>72402.1244</v>
       </c>
       <c r="G203" t="n">
-        <v>6507.452901439945</v>
-      </c>
-      <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="J203" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7586,24 +6723,15 @@
         <v>122294.8725</v>
       </c>
       <c r="G204" t="n">
-        <v>-115787.4195985601</v>
-      </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7625,24 +6753,15 @@
         <v>39917.1961</v>
       </c>
       <c r="G205" t="n">
-        <v>-75870.22349856005</v>
-      </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr"/>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L205" t="n">
-        <v>1</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7664,26 +6783,15 @@
         <v>5107.2816</v>
       </c>
       <c r="G206" t="n">
-        <v>-75870.22349856005</v>
-      </c>
-      <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>29.8</v>
-      </c>
-      <c r="J206" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L206" t="n">
-        <v>1</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7705,24 +6813,15 @@
         <v>4078.7583</v>
       </c>
       <c r="G207" t="n">
-        <v>-75870.22349856005</v>
-      </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L207" t="n">
-        <v>1</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7744,24 +6843,15 @@
         <v>5124.6101</v>
       </c>
       <c r="G208" t="n">
-        <v>-80994.83359856006</v>
-      </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L208" t="n">
-        <v>1</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>1</v>
+      </c>
+      <c r="L208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7783,24 +6873,15 @@
         <v>3979.0106</v>
       </c>
       <c r="G209" t="n">
-        <v>-84973.84419856005</v>
-      </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L209" t="n">
-        <v>1</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>1</v>
+      </c>
+      <c r="L209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -7822,24 +6903,15 @@
         <v>8756.7549</v>
       </c>
       <c r="G210" t="n">
-        <v>-76217.08929856005</v>
-      </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L210" t="n">
-        <v>1</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -7861,24 +6933,15 @@
         <v>2046.4446</v>
       </c>
       <c r="G211" t="n">
-        <v>-78263.53389856005</v>
-      </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H211" t="inlineStr"/>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L211" t="n">
-        <v>1</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -7900,24 +6963,15 @@
         <v>4079.0585</v>
       </c>
       <c r="G212" t="n">
-        <v>-74184.47539856005</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L212" t="n">
-        <v>1</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -7939,24 +6993,15 @@
         <v>75574.6516</v>
       </c>
       <c r="G213" t="n">
-        <v>-74184.47539856005</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L213" t="n">
-        <v>1</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -7978,24 +7023,15 @@
         <v>11913.414</v>
       </c>
       <c r="G214" t="n">
-        <v>-74184.47539856005</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H214" t="inlineStr"/>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L214" t="n">
-        <v>1</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8017,24 +7053,15 @@
         <v>81708.64690000001</v>
       </c>
       <c r="G215" t="n">
-        <v>-155893.12229856</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L215" t="n">
-        <v>1</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>1</v>
+      </c>
+      <c r="L215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8056,24 +7083,15 @@
         <v>286808.3073</v>
       </c>
       <c r="G216" t="n">
-        <v>-442701.42959856</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L216" t="n">
-        <v>1</v>
-      </c>
-      <c r="M216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>1</v>
+      </c>
+      <c r="L216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8095,24 +7113,15 @@
         <v>5207.1287</v>
       </c>
       <c r="G217" t="n">
-        <v>-437494.30089856</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L217" t="n">
-        <v>1</v>
-      </c>
-      <c r="M217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8134,24 +7143,15 @@
         <v>24475.5244</v>
       </c>
       <c r="G218" t="n">
-        <v>-461969.82529856</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L218" t="n">
-        <v>1</v>
-      </c>
-      <c r="M218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8173,24 +7173,15 @@
         <v>10</v>
       </c>
       <c r="G219" t="n">
-        <v>-461959.82529856</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L219" t="n">
-        <v>1</v>
-      </c>
-      <c r="M219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>1</v>
+      </c>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8212,24 +7203,15 @@
         <v>400</v>
       </c>
       <c r="G220" t="n">
-        <v>-461559.82529856</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L220" t="n">
-        <v>1</v>
-      </c>
-      <c r="M220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8251,24 +7233,15 @@
         <v>5415.8501</v>
       </c>
       <c r="G221" t="n">
-        <v>-466975.67539856</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L221" t="n">
-        <v>1</v>
-      </c>
-      <c r="M221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>1</v>
+      </c>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8290,24 +7263,15 @@
         <v>10104.5296</v>
       </c>
       <c r="G222" t="n">
-        <v>-456871.14579856</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L222" t="n">
-        <v>1</v>
-      </c>
-      <c r="M222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8329,24 +7293,15 @@
         <v>7000</v>
       </c>
       <c r="G223" t="n">
-        <v>-449871.14579856</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L223" t="n">
-        <v>1</v>
-      </c>
-      <c r="M223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8368,24 +7323,15 @@
         <v>26124.1888</v>
       </c>
       <c r="G224" t="n">
-        <v>-475995.33459856</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L224" t="n">
-        <v>1</v>
-      </c>
-      <c r="M224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>1</v>
+      </c>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8407,24 +7353,15 @@
         <v>11443.1483</v>
       </c>
       <c r="G225" t="n">
-        <v>-464552.18629856</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L225" t="n">
-        <v>1</v>
-      </c>
-      <c r="M225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>1</v>
+      </c>
+      <c r="L225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8446,24 +7383,15 @@
         <v>4660.9254</v>
       </c>
       <c r="G226" t="n">
-        <v>-459891.26089856</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L226" t="n">
-        <v>1</v>
-      </c>
-      <c r="M226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>1</v>
+      </c>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8485,24 +7413,15 @@
         <v>24934.3928</v>
       </c>
       <c r="G227" t="n">
-        <v>-484825.65369856</v>
-      </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L227" t="n">
-        <v>1</v>
-      </c>
-      <c r="M227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>1</v>
+      </c>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8524,24 +7443,15 @@
         <v>8386.6582</v>
       </c>
       <c r="G228" t="n">
-        <v>-493212.31189856</v>
-      </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L228" t="n">
-        <v>1</v>
-      </c>
-      <c r="M228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>1</v>
+      </c>
+      <c r="L228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8563,24 +7473,15 @@
         <v>34209.7586</v>
       </c>
       <c r="G229" t="n">
-        <v>-459002.55329856</v>
-      </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L229" t="n">
-        <v>1</v>
-      </c>
-      <c r="M229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>1</v>
+      </c>
+      <c r="L229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8602,24 +7503,15 @@
         <v>10078.2565</v>
       </c>
       <c r="G230" t="n">
-        <v>-469080.80979856</v>
-      </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H230" t="inlineStr"/>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L230" t="n">
-        <v>1</v>
-      </c>
-      <c r="M230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8641,24 +7533,15 @@
         <v>186.2473</v>
       </c>
       <c r="G231" t="n">
-        <v>-468894.56249856</v>
-      </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L231" t="n">
-        <v>1</v>
-      </c>
-      <c r="M231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8680,24 +7563,15 @@
         <v>241.7667</v>
       </c>
       <c r="G232" t="n">
-        <v>-468894.56249856</v>
-      </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L232" t="n">
-        <v>1</v>
-      </c>
-      <c r="M232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -8719,24 +7593,15 @@
         <v>127485.1171</v>
       </c>
       <c r="G233" t="n">
-        <v>-596379.67959856</v>
-      </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H233" t="inlineStr"/>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L233" t="n">
-        <v>1</v>
-      </c>
-      <c r="M233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -8758,24 +7623,15 @@
         <v>25185.3118</v>
       </c>
       <c r="G234" t="n">
-        <v>-571194.3677985599</v>
-      </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H234" t="inlineStr"/>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L234" t="n">
-        <v>1</v>
-      </c>
-      <c r="M234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -8797,24 +7653,15 @@
         <v>94281.6102</v>
       </c>
       <c r="G235" t="n">
-        <v>-665475.9779985599</v>
-      </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H235" t="inlineStr"/>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>28.8</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L235" t="n">
-        <v>1</v>
-      </c>
-      <c r="M235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
